--- a/results/camera_calibration_test.xlsx
+++ b/results/camera_calibration_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matro\Documents\AIUC\PythonScripts\CamCalib\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F2DB6-BA7B-40B0-A7C7-582EB6D17CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD88F2-38DD-43BC-BAA2-4A13364F059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:K175"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2103,31 +2105,31 @@
         <v>205</v>
       </c>
       <c r="B29">
-        <v>2557.4248793709721</v>
+        <v>2561.2648828406318</v>
       </c>
       <c r="C29">
-        <v>2556.4896612167931</v>
+        <v>2559.8209571086859</v>
       </c>
       <c r="D29">
-        <v>1880.2107021211771</v>
+        <v>1876.325611737567</v>
       </c>
       <c r="E29">
-        <v>1085.382307787821</v>
+        <v>1084.044962933838</v>
       </c>
       <c r="F29">
-        <v>1.4034008783734181E-2</v>
+        <v>2.1573772680225881E-2</v>
       </c>
       <c r="G29">
-        <v>-2.8704410855317539E-2</v>
+        <v>-5.5508707818150677E-2</v>
       </c>
       <c r="H29">
-        <v>-8.4280696738290315E-4</v>
+        <v>-4.1451210046958861E-4</v>
       </c>
       <c r="I29">
-        <v>-9.2190054159806221E-4</v>
+        <v>-1.4531243395930909E-3</v>
       </c>
       <c r="J29">
-        <v>1.962877919037603E-2</v>
+        <v>4.7497152707740943E-2</v>
       </c>
       <c r="K29" t="s">
         <v>206</v>
@@ -2138,31 +2140,31 @@
         <v>207</v>
       </c>
       <c r="B30">
-        <v>2557.4248793709721</v>
+        <v>2570.0985538458831</v>
       </c>
       <c r="C30">
-        <v>2556.4896612167931</v>
+        <v>2567.2071416351182</v>
       </c>
       <c r="D30">
-        <v>1880.2107021211771</v>
+        <v>1878.132422556391</v>
       </c>
       <c r="E30">
-        <v>1085.382307787821</v>
+        <v>1086.7817578084871</v>
       </c>
       <c r="F30">
-        <v>1.4034008783734181E-2</v>
+        <v>2.405263209656722E-2</v>
       </c>
       <c r="G30">
-        <v>-2.8704410855317539E-2</v>
+        <v>-6.7861413196613027E-2</v>
       </c>
       <c r="H30">
-        <v>-8.4280696738290315E-4</v>
+        <v>-4.0943578305446262E-4</v>
       </c>
       <c r="I30">
-        <v>-9.2190054159806221E-4</v>
+        <v>-1.472072831137119E-3</v>
       </c>
       <c r="J30">
-        <v>1.962877919037603E-2</v>
+        <v>6.374851088442722E-2</v>
       </c>
       <c r="K30" t="s">
         <v>208</v>
@@ -3118,31 +3120,31 @@
         <v>210</v>
       </c>
       <c r="B58">
-        <v>2564.3942735708388</v>
+        <v>2563.2205004008201</v>
       </c>
       <c r="C58">
-        <v>2564.2368579149029</v>
+        <v>2561.6079821590752</v>
       </c>
       <c r="D58">
-        <v>1875.419229940635</v>
+        <v>1889.1606246702779</v>
       </c>
       <c r="E58">
-        <v>1088.846998717773</v>
+        <v>1090.520448268863</v>
       </c>
       <c r="F58">
-        <v>2.2817561601658268E-2</v>
+        <v>1.8704010549719589E-2</v>
       </c>
       <c r="G58">
-        <v>-6.1131239794929959E-2</v>
+        <v>-4.8314329677920403E-2</v>
       </c>
       <c r="H58">
-        <v>1.10090982429043E-5</v>
+        <v>-2.3402611435443231E-4</v>
       </c>
       <c r="I58">
-        <v>-1.606764371346643E-3</v>
+        <v>-2.2089259512690889E-4</v>
       </c>
       <c r="J58">
-        <v>5.5766978249983529E-2</v>
+        <v>4.346032791203179E-2</v>
       </c>
       <c r="K58" t="s">
         <v>206</v>
@@ -3153,31 +3155,31 @@
         <v>211</v>
       </c>
       <c r="B59">
-        <v>2564.3942735708388</v>
+        <v>2562.0161119341419</v>
       </c>
       <c r="C59">
-        <v>2564.2368579149029</v>
+        <v>2561.2969009922381</v>
       </c>
       <c r="D59">
-        <v>1875.419229940635</v>
+        <v>1873.8986107255671</v>
       </c>
       <c r="E59">
-        <v>1088.846998717773</v>
+        <v>1087.6558934348641</v>
       </c>
       <c r="F59">
-        <v>2.2817561601658268E-2</v>
+        <v>2.044068061285708E-2</v>
       </c>
       <c r="G59">
-        <v>-6.1131239794929959E-2</v>
+        <v>-5.4151884807370397E-2</v>
       </c>
       <c r="H59">
-        <v>1.10090982429043E-5</v>
+        <v>-6.8003743279755483E-4</v>
       </c>
       <c r="I59">
-        <v>-1.606764371346643E-3</v>
+        <v>-2.0776534243593758E-3</v>
       </c>
       <c r="J59">
-        <v>5.5766978249983529E-2</v>
+        <v>4.582975434794638E-2</v>
       </c>
       <c r="K59" t="s">
         <v>208</v>
@@ -4133,31 +4135,31 @@
         <v>213</v>
       </c>
       <c r="B87">
-        <v>2568.331517562749</v>
+        <v>2566.7473500874198</v>
       </c>
       <c r="C87">
-        <v>2566.345022739541</v>
+        <v>2566.2339018018538</v>
       </c>
       <c r="D87">
-        <v>1881.076597105455</v>
+        <v>1889.528075209869</v>
       </c>
       <c r="E87">
-        <v>1084.7913568973529</v>
+        <v>1090.7648342814771</v>
       </c>
       <c r="F87">
-        <v>1.3480015469334441E-2</v>
+        <v>2.1590727156079011E-2</v>
       </c>
       <c r="G87">
-        <v>-1.543725825155039E-2</v>
+        <v>-3.8414211452636168E-2</v>
       </c>
       <c r="H87">
-        <v>-4.7726841206608621E-4</v>
+        <v>-7.2889233124176796E-5</v>
       </c>
       <c r="I87">
-        <v>-1.1406518783591061E-3</v>
+        <v>-1.6202793395823689E-4</v>
       </c>
       <c r="J87">
-        <v>3.7711773246479661E-4</v>
+        <v>2.1959541601242069E-2</v>
       </c>
       <c r="K87" t="s">
         <v>206</v>
@@ -4168,31 +4170,31 @@
         <v>214</v>
       </c>
       <c r="B88">
-        <v>2568.331517562749</v>
+        <v>2561.6677821928429</v>
       </c>
       <c r="C88">
-        <v>2566.345022739541</v>
+        <v>2562.5962722204499</v>
       </c>
       <c r="D88">
-        <v>1881.076597105455</v>
+        <v>1876.825400198346</v>
       </c>
       <c r="E88">
-        <v>1084.7913568973529</v>
+        <v>1087.541542830342</v>
       </c>
       <c r="F88">
-        <v>1.3480015469334441E-2</v>
+        <v>1.607889292022564E-2</v>
       </c>
       <c r="G88">
-        <v>-1.543725825155039E-2</v>
+        <v>-1.9482517237068901E-2</v>
       </c>
       <c r="H88">
-        <v>-4.7726841206608621E-4</v>
+        <v>-2.7634878919951302E-4</v>
       </c>
       <c r="I88">
-        <v>-1.1406518783591061E-3</v>
+        <v>-1.4961581405198729E-3</v>
       </c>
       <c r="J88">
-        <v>3.7711773246479661E-4</v>
+        <v>1.630075839680024E-3</v>
       </c>
       <c r="K88" t="s">
         <v>208</v>
@@ -5148,31 +5150,31 @@
         <v>216</v>
       </c>
       <c r="B116">
-        <v>2580.0736758425778</v>
+        <v>2564.1125409894348</v>
       </c>
       <c r="C116">
-        <v>2576.3001560064849</v>
+        <v>2561.854987474077</v>
       </c>
       <c r="D116">
-        <v>1878.604133333813</v>
+        <v>1876.6943516438221</v>
       </c>
       <c r="E116">
-        <v>1080.09103615718</v>
+        <v>1087.016330503312</v>
       </c>
       <c r="F116">
-        <v>2.4101898036895161E-2</v>
+        <v>2.2520482354488409E-2</v>
       </c>
       <c r="G116">
-        <v>-5.490709960384986E-2</v>
+        <v>-4.9721775350181178E-2</v>
       </c>
       <c r="H116">
-        <v>-2.9818924255780948E-4</v>
+        <v>-4.4361845815867748E-5</v>
       </c>
       <c r="I116">
-        <v>-1.3607374592341931E-3</v>
+        <v>-1.9802216944129819E-3</v>
       </c>
       <c r="J116">
-        <v>3.9800882612462472E-2</v>
+        <v>3.6826050971616731E-2</v>
       </c>
       <c r="K116" t="s">
         <v>206</v>
@@ -5183,31 +5185,31 @@
         <v>217</v>
       </c>
       <c r="B117">
-        <v>2580.0736758425778</v>
+        <v>2574.4454952890492</v>
       </c>
       <c r="C117">
-        <v>2576.3001560064849</v>
+        <v>2569.7910542221289</v>
       </c>
       <c r="D117">
-        <v>1878.604133333813</v>
+        <v>1881.326875881052</v>
       </c>
       <c r="E117">
-        <v>1080.09103615718</v>
+        <v>1083.615899583825</v>
       </c>
       <c r="F117">
-        <v>2.4101898036895161E-2</v>
+        <v>2.3388976716573438E-2</v>
       </c>
       <c r="G117">
-        <v>-5.490709960384986E-2</v>
+        <v>-5.1378060693878652E-2</v>
       </c>
       <c r="H117">
-        <v>-2.9818924255780948E-4</v>
+        <v>-6.0635248023774811E-4</v>
       </c>
       <c r="I117">
-        <v>-1.3607374592341931E-3</v>
+        <v>-9.5206428199611089E-4</v>
       </c>
       <c r="J117">
-        <v>3.9800882612462472E-2</v>
+        <v>3.77525839072635E-2</v>
       </c>
       <c r="K117" t="s">
         <v>208</v>
@@ -6163,31 +6165,31 @@
         <v>219</v>
       </c>
       <c r="B145">
-        <v>2576.0114310129561</v>
+        <v>2565.4294141799669</v>
       </c>
       <c r="C145">
-        <v>2574.781815812923</v>
+        <v>2565.572597579282</v>
       </c>
       <c r="D145">
-        <v>1884.6587949424411</v>
+        <v>1874.9056471252311</v>
       </c>
       <c r="E145">
-        <v>1086.052837959923</v>
+        <v>1085.4092495634841</v>
       </c>
       <c r="F145">
-        <v>1.267811650761568E-2</v>
+        <v>2.1509105259147981E-2</v>
       </c>
       <c r="G145">
-        <v>-2.097677936853665E-2</v>
+        <v>-3.6549392852983822E-2</v>
       </c>
       <c r="H145">
-        <v>-6.1956584931626877E-4</v>
+        <v>-5.1954400584838562E-4</v>
       </c>
       <c r="I145">
-        <v>-9.1297701965353459E-4</v>
+        <v>-1.8448046690166251E-3</v>
       </c>
       <c r="J145">
-        <v>1.102053951673403E-2</v>
+        <v>1.8333059518582929E-2</v>
       </c>
       <c r="K145" t="s">
         <v>206</v>
@@ -6198,31 +6200,31 @@
         <v>220</v>
       </c>
       <c r="B146">
-        <v>2576.0114310129561</v>
+        <v>2573.6148490510068</v>
       </c>
       <c r="C146">
-        <v>2574.781815812923</v>
+        <v>2572.4801798219528</v>
       </c>
       <c r="D146">
-        <v>1884.6587949424411</v>
+        <v>1874.409413004681</v>
       </c>
       <c r="E146">
-        <v>1086.052837959923</v>
+        <v>1086.9987746410361</v>
       </c>
       <c r="F146">
-        <v>1.267811650761568E-2</v>
+        <v>2.2424878231397018E-2</v>
       </c>
       <c r="G146">
-        <v>-2.097677936853665E-2</v>
+        <v>-4.8206922181325981E-2</v>
       </c>
       <c r="H146">
-        <v>-6.1956584931626877E-4</v>
+        <v>-5.3186073572022421E-4</v>
       </c>
       <c r="I146">
-        <v>-9.1297701965353459E-4</v>
+        <v>-1.8154539080004019E-3</v>
       </c>
       <c r="J146">
-        <v>1.102053951673403E-2</v>
+        <v>3.5225217677243882E-2</v>
       </c>
       <c r="K146" t="s">
         <v>208</v>
@@ -7178,31 +7180,31 @@
         <v>222</v>
       </c>
       <c r="B174">
-        <v>2581.0047189028319</v>
+        <v>2579.0819677568588</v>
       </c>
       <c r="C174">
-        <v>2581.2822571350962</v>
+        <v>2578.5364490963161</v>
       </c>
       <c r="D174">
-        <v>1901.9663994083539</v>
+        <v>1880.300677916124</v>
       </c>
       <c r="E174">
-        <v>1093.511863933913</v>
+        <v>1088.3192719676099</v>
       </c>
       <c r="F174">
-        <v>1.0810618742577129E-2</v>
+        <v>2.075960866657563E-2</v>
       </c>
       <c r="G174">
-        <v>-9.0103882744040961E-3</v>
+        <v>-4.1520192937792189E-2</v>
       </c>
       <c r="H174">
-        <v>-5.6978989317871438E-4</v>
+        <v>-5.9764440835762271E-4</v>
       </c>
       <c r="I174">
-        <v>1.2848380290770439E-3</v>
+        <v>-1.2168733274504811E-3</v>
       </c>
       <c r="J174">
-        <v>-7.6223977565524478E-3</v>
+        <v>2.340050894146398E-2</v>
       </c>
       <c r="K174" t="s">
         <v>206</v>
@@ -7213,31 +7215,31 @@
         <v>223</v>
       </c>
       <c r="B175">
-        <v>2581.0047189028319</v>
+        <v>2578.7155703346039</v>
       </c>
       <c r="C175">
-        <v>2581.2822571350962</v>
+        <v>2574.8240134607049</v>
       </c>
       <c r="D175">
-        <v>1901.9663994083539</v>
+        <v>1875.354949863038</v>
       </c>
       <c r="E175">
-        <v>1093.511863933913</v>
+        <v>1086.830312752154</v>
       </c>
       <c r="F175">
-        <v>1.0810618742577129E-2</v>
+        <v>2.0234239416670921E-2</v>
       </c>
       <c r="G175">
-        <v>-9.0103882744040961E-3</v>
+        <v>-4.6344342398438293E-2</v>
       </c>
       <c r="H175">
-        <v>-5.6978989317871438E-4</v>
+        <v>-6.4333730832459254E-4</v>
       </c>
       <c r="I175">
-        <v>1.2848380290770439E-3</v>
+        <v>-1.4829346124091581E-3</v>
       </c>
       <c r="J175">
-        <v>-7.6223977565524478E-3</v>
+        <v>3.5104172333166081E-2</v>
       </c>
       <c r="K175" t="s">
         <v>208</v>
@@ -7315,31 +7317,31 @@
         <v>195</v>
       </c>
       <c r="B178">
-        <v>2569.774933214399</v>
+        <v>2569.5802705079809</v>
       </c>
       <c r="C178">
-        <v>2568.856728861339</v>
+        <v>2568.64501969517</v>
       </c>
       <c r="D178">
-        <v>1880.850901914612</v>
+        <v>1880.5251358964881</v>
       </c>
       <c r="E178">
-        <v>1086.69163263318</v>
+        <v>1086.738183922673</v>
       </c>
       <c r="F178">
-        <v>1.6206339646343632E-2</v>
+        <v>1.6534531465640191E-2</v>
       </c>
       <c r="G178">
-        <v>-3.7159017332514838E-2</v>
+        <v>-3.8171128179984463E-2</v>
       </c>
       <c r="H178">
-        <v>-3.5199120767579292E-4</v>
+        <v>-3.487747945602867E-4</v>
       </c>
       <c r="I178">
-        <v>-1.2414626181806139E-3</v>
+        <v>-1.2806505911849069E-3</v>
       </c>
       <c r="J178">
-        <v>2.5853125364766982E-2</v>
+        <v>2.684068626506109E-2</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -7347,31 +7349,31 @@
         <v>196</v>
       </c>
       <c r="B179">
-        <v>8.706577035632229</v>
+        <v>8.5697738005024622</v>
       </c>
       <c r="C179">
-        <v>8.5075803604258393</v>
+        <v>8.3660295820303983</v>
       </c>
       <c r="D179">
-        <v>8.5872560581688919</v>
+        <v>8.3677016991849857</v>
       </c>
       <c r="E179">
-        <v>3.4320101497899151</v>
+        <v>3.306278689793487</v>
       </c>
       <c r="F179">
-        <v>2.10237609376068E-2</v>
+        <v>2.102381294399152E-2</v>
       </c>
       <c r="G179">
-        <v>2.2722688026873949E-2</v>
+        <v>2.2396446244458561E-2</v>
       </c>
       <c r="H179">
-        <v>5.3404900345309868E-4</v>
+        <v>5.3164896266879029E-4</v>
       </c>
       <c r="I179">
-        <v>1.188389864904031E-3</v>
+        <v>1.1656406079204179E-3</v>
       </c>
       <c r="J179">
-        <v>2.5626466832565819E-2</v>
+        <v>2.5322727767915391E-2</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -7411,31 +7413,31 @@
         <v>198</v>
       </c>
       <c r="B181">
-        <v>2562.198775073221</v>
+        <v>2562.1307680769478</v>
       </c>
       <c r="C181">
-        <v>2561.9359971989452</v>
+        <v>2561.8561915256969</v>
       </c>
       <c r="D181">
-        <v>1875.419229940635</v>
+        <v>1875.087506391138</v>
       </c>
       <c r="E181">
         <v>1084.301456198981</v>
       </c>
       <c r="F181">
-        <v>1.3988124926837171E-2</v>
+        <v>1.4426392094103671E-2</v>
       </c>
       <c r="G181">
-        <v>-5.490709960384986E-2</v>
+        <v>-5.4841496438135878E-2</v>
       </c>
       <c r="H181">
-        <v>-6.720923081692514E-4</v>
+        <v>-6.6558713484850414E-4</v>
       </c>
       <c r="I181">
-        <v>-1.6283433501734521E-3</v>
+        <v>-1.6650120236985941E-3</v>
       </c>
       <c r="J181">
-        <v>4.8458005979234954E-3</v>
+        <v>5.34491309077215E-3</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -7443,31 +7445,31 @@
         <v>199</v>
       </c>
       <c r="B182">
-        <v>2568.2933046448761</v>
+        <v>2568.0344075624689</v>
       </c>
       <c r="C182">
-        <v>2568.532698484466</v>
+        <v>2568.011311246491</v>
       </c>
       <c r="D182">
-        <v>1879.3206321549631</v>
+        <v>1878.659700601941</v>
       </c>
       <c r="E182">
-        <v>1086.232311597176</v>
+        <v>1086.4830450112161</v>
       </c>
       <c r="F182">
-        <v>1.80946576420771E-2</v>
+        <v>1.8635507880431931E-2</v>
       </c>
       <c r="G182">
-        <v>-3.4676161182254361E-2</v>
+        <v>-3.7872617006993681E-2</v>
       </c>
       <c r="H182">
         <v>-3.9516692957109151E-4</v>
       </c>
       <c r="I182">
-        <v>-1.2886749201244121E-3</v>
+        <v>-1.3121402865792721E-3</v>
       </c>
       <c r="J182">
-        <v>2.4936259774439761E-2</v>
+        <v>2.5723447065227872E-2</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -7475,31 +7477,31 @@
         <v>200</v>
       </c>
       <c r="B183">
-        <v>2578.3137640136761</v>
+        <v>2577.7497111785929</v>
       </c>
       <c r="C183">
-        <v>2575.460028728457</v>
+        <v>2574.9152903217209</v>
       </c>
       <c r="D183">
         <v>1886.083816742896</v>
       </c>
       <c r="E183">
-        <v>1088.83859368152</v>
+        <v>1088.745521297815</v>
       </c>
       <c r="F183">
         <v>2.234105468019356E-2</v>
       </c>
       <c r="G183">
-        <v>-2.0787891155911949E-2</v>
+        <v>-2.1626953405531991E-2</v>
       </c>
       <c r="H183">
-        <v>1.000345351565E-6</v>
+        <v>-5.8625539470022272E-5</v>
       </c>
       <c r="I183">
         <v>-6.2203394501396977E-4</v>
       </c>
       <c r="J183">
-        <v>4.5467303612854698E-2</v>
+        <v>4.5515329793699898E-2</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -7539,31 +7541,31 @@
         <v>202</v>
       </c>
       <c r="B185">
-        <v>3.3880698745635358E-3</v>
+        <v>3.3350870174638681E-3</v>
       </c>
       <c r="C185">
-        <v>3.3118158225183998E-3</v>
+        <v>3.2569816062101198E-3</v>
       </c>
       <c r="D185">
-        <v>4.5656229579003286E-3</v>
+        <v>4.449662245644974E-3</v>
       </c>
       <c r="E185">
-        <v>3.1582189893868571E-3</v>
+        <v>3.0423875213983868E-3</v>
       </c>
       <c r="F185">
-        <v>1.297255357865466</v>
+        <v>1.271509446014865</v>
       </c>
       <c r="G185">
-        <v>-0.61149862558370638</v>
+        <v>-0.58673786477713896</v>
       </c>
       <c r="H185">
-        <v>-1.517222566380104</v>
+        <v>-1.524333096773979</v>
       </c>
       <c r="I185">
-        <v>-0.95724981767525053</v>
+        <v>-0.91019409661297435</v>
       </c>
       <c r="J185">
-        <v>0.99123283823509967</v>
+        <v>0.94344561528139304</v>
       </c>
     </row>
   </sheetData>
@@ -7575,7 +7577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6488D-68E9-44DA-907D-28E9F403797A}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9872,7 +9876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F84E23-507B-4809-A745-23DDA1C8B075}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9948,72 +9952,72 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>2562.2058720732089</v>
+        <v>2562.603536396598</v>
       </c>
       <c r="C3">
-        <v>2561.235420761363</v>
+        <v>2562.5283920466718</v>
       </c>
       <c r="D3">
-        <v>1876.6563346687731</v>
+        <v>1887.7140068226929</v>
       </c>
       <c r="E3">
-        <v>1083.954622043582</v>
+        <v>1088.3031120014871</v>
       </c>
       <c r="F3">
-        <v>2.1130118810936401E-2</v>
+        <v>1.507964860054848E-2</v>
       </c>
       <c r="G3">
-        <v>-5.4775893272421897E-2</v>
+        <v>-2.7505356600328951E-2</v>
       </c>
       <c r="H3">
-        <v>-4.7596564715346061E-4</v>
+        <v>-6.6024688421542719E-4</v>
       </c>
       <c r="I3">
-        <v>-1.3184764490768929E-3</v>
+        <v>1.3415312063340599E-4</v>
       </c>
       <c r="J3">
-        <v>4.6882333243536738E-2</v>
+        <v>1.6478723924359711E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>2562.603536396598</v>
+        <v>2562.2058720732089</v>
       </c>
       <c r="C4">
-        <v>2562.5283920466718</v>
+        <v>2561.235420761363</v>
       </c>
       <c r="D4">
-        <v>1887.7140068226929</v>
+        <v>1876.6563346687731</v>
       </c>
       <c r="E4">
-        <v>1088.3031120014871</v>
+        <v>1083.954622043582</v>
       </c>
       <c r="F4">
-        <v>1.507964860054848E-2</v>
+        <v>2.1130118810936401E-2</v>
       </c>
       <c r="G4">
-        <v>-2.7505356600328951E-2</v>
+        <v>-5.4775893272421897E-2</v>
       </c>
       <c r="H4">
-        <v>-6.6024688421542719E-4</v>
+        <v>-4.7596564715346061E-4</v>
       </c>
       <c r="I4">
-        <v>1.3415312063340599E-4</v>
+        <v>-1.3184764490768929E-3</v>
       </c>
       <c r="J4">
-        <v>1.6478723924359711E-2</v>
+        <v>4.6882333243536738E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -10053,177 +10057,177 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="B6">
-        <v>2560.9956866809111</v>
+        <v>2557.4248793709721</v>
       </c>
       <c r="C6">
-        <v>2559.246205670031</v>
+        <v>2556.4896612167931</v>
       </c>
       <c r="D6">
-        <v>1877.607886940616</v>
+        <v>1880.2107021211771</v>
       </c>
       <c r="E6">
-        <v>1084.7529801153171</v>
+        <v>1085.382307787821</v>
       </c>
       <c r="F6">
-        <v>1.7487312664728451E-2</v>
+        <v>1.4034008783734181E-2</v>
       </c>
       <c r="G6">
-        <v>-4.4600573476640697E-2</v>
+        <v>-2.8704410855317539E-2</v>
       </c>
       <c r="H6">
-        <v>-6.8107043820834069E-4</v>
+        <v>-8.4280696738290315E-4</v>
       </c>
       <c r="I6">
-        <v>-1.3615152535981639E-3</v>
+        <v>-9.2190054159806221E-4</v>
       </c>
       <c r="J6">
-        <v>3.8643717555662163E-2</v>
+        <v>1.962877919037603E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="B7">
-        <v>2564.8656599079718</v>
+        <v>2561.2648828406318</v>
       </c>
       <c r="C7">
-        <v>2563.1265960168089</v>
+        <v>2559.8209571086859</v>
       </c>
       <c r="D7">
-        <v>1879.0673632109081</v>
+        <v>1876.325611737567</v>
       </c>
       <c r="E7">
-        <v>1085.972502340245</v>
+        <v>1084.044962933838</v>
       </c>
       <c r="F7">
-        <v>2.2166938702422111E-2</v>
+        <v>2.1573772680225881E-2</v>
       </c>
       <c r="G7">
-        <v>-5.6212705311289482E-2</v>
+        <v>-5.5508707818150677E-2</v>
       </c>
       <c r="H7">
-        <v>-4.4324012652354372E-4</v>
+        <v>-4.1451210046958861E-4</v>
       </c>
       <c r="I7">
-        <v>-1.1685021279735531E-3</v>
+        <v>-1.4531243395930909E-3</v>
       </c>
       <c r="J7">
-        <v>4.7770309355818837E-2</v>
+        <v>4.7497152707740943E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B8">
-        <v>2557.4248793709721</v>
+        <v>2570.0985538458831</v>
       </c>
       <c r="C8">
-        <v>2556.4896612167931</v>
+        <v>2567.2071416351182</v>
       </c>
       <c r="D8">
-        <v>1880.2107021211771</v>
+        <v>1878.132422556391</v>
       </c>
       <c r="E8">
-        <v>1085.382307787821</v>
+        <v>1086.7817578084871</v>
       </c>
       <c r="F8">
-        <v>1.4034008783734181E-2</v>
+        <v>2.405263209656722E-2</v>
       </c>
       <c r="G8">
-        <v>-2.8704410855317539E-2</v>
+        <v>-6.7861413196613027E-2</v>
       </c>
       <c r="H8">
-        <v>-8.4280696738290315E-4</v>
+        <v>-4.0943578305446262E-4</v>
       </c>
       <c r="I8">
-        <v>-9.2190054159806221E-4</v>
+        <v>-1.472072831137119E-3</v>
       </c>
       <c r="J8">
-        <v>1.962877919037603E-2</v>
+        <v>6.374851088442722E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>2557.4248793709721</v>
+        <v>2560.9956866809111</v>
       </c>
       <c r="C9">
-        <v>2556.4896612167931</v>
+        <v>2559.246205670031</v>
       </c>
       <c r="D9">
-        <v>1880.2107021211771</v>
+        <v>1877.607886940616</v>
       </c>
       <c r="E9">
-        <v>1085.382307787821</v>
+        <v>1084.7529801153171</v>
       </c>
       <c r="F9">
-        <v>1.4034008783734181E-2</v>
+        <v>1.7487312664728451E-2</v>
       </c>
       <c r="G9">
-        <v>-2.8704410855317539E-2</v>
+        <v>-4.4600573476640697E-2</v>
       </c>
       <c r="H9">
-        <v>-8.4280696738290315E-4</v>
+        <v>-6.8107043820834069E-4</v>
       </c>
       <c r="I9">
-        <v>-9.2190054159806221E-4</v>
+        <v>-1.3615152535981639E-3</v>
       </c>
       <c r="J9">
-        <v>1.962877919037603E-2</v>
+        <v>3.8643717555662163E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>2557.4248793709721</v>
+        <v>2564.8656599079718</v>
       </c>
       <c r="C10">
-        <v>2556.4896612167931</v>
+        <v>2563.1265960168089</v>
       </c>
       <c r="D10">
-        <v>1880.2107021211771</v>
+        <v>1879.0673632109081</v>
       </c>
       <c r="E10">
-        <v>1085.382307787821</v>
+        <v>1085.972502340245</v>
       </c>
       <c r="F10">
-        <v>1.4034008783734181E-2</v>
+        <v>2.2166938702422111E-2</v>
       </c>
       <c r="G10">
-        <v>-2.8704410855317539E-2</v>
+        <v>-5.6212705311289482E-2</v>
       </c>
       <c r="H10">
-        <v>-8.4280696738290315E-4</v>
+        <v>-4.4324012652354372E-4</v>
       </c>
       <c r="I10">
-        <v>-9.2190054159806221E-4</v>
+        <v>-1.1685021279735531E-3</v>
       </c>
       <c r="J10">
-        <v>1.962877919037603E-2</v>
+        <v>4.7770309355818837E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -10231,40 +10235,40 @@
         <v>195</v>
       </c>
       <c r="B11">
-        <f>AVERAGE(B2:B10)</f>
-        <v>2561.0991385143579</v>
+        <f t="shared" ref="B11:J11" si="0">AVERAGE(B2:B10)</f>
+        <v>2562.9339916193107</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:J11" si="0">AVERAGE(C2:C10)</f>
-        <v>2559.6121612914994</v>
+        <f t="shared" si="0"/>
+        <v>2561.1731364370789</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1878.8835775818343</v>
+        <v>1878.2209809209012</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1085.3567412780808</v>
+        <v>1085.3636418521569</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.7928175783815743E-2</v>
+        <v>1.9879107695962937E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-4.3281740389807095E-2</v>
+        <v>-5.0610773645821387E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>-6.5489537644601874E-4</v>
+        <v>-5.5915470408582379E-4</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>-1.1593161539794731E-3</v>
+        <v>-1.2794712748165939E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>3.5463096439709602E-2</v>
+        <v>4.3461774796533598E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -10272,40 +10276,40 @@
         <v>196</v>
       </c>
       <c r="B12">
-        <f>_xlfn.STDEV.S(B2:B10)</f>
-        <v>3.4853059492548111</v>
+        <f t="shared" ref="B12:J12" si="1">_xlfn.STDEV.S(B2:B10)</f>
+        <v>3.8874039250826664</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:J12" si="1">_xlfn.STDEV.S(C2:C10)</f>
-        <v>3.0630291837336534</v>
+        <f t="shared" si="1"/>
+        <v>3.3792510316143374</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.6148975542409953</v>
+        <v>4.6099326258665849</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1.3577460130179699</v>
+        <v>1.5205875743089194</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.368348882262783E-3</v>
+        <v>5.2053867345507616E-3</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1.9547146764844571E-2</v>
+        <v>1.9045855822298719E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>2.3069949339334634E-4</v>
+        <v>2.2099054342323679E-4</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>6.9370332868513092E-4</v>
+        <v>6.8841001874750992E-4</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>2.0620769297541221E-2</v>
+        <v>2.0215561108161625E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -10314,39 +10318,39 @@
       </c>
       <c r="B13">
         <f>B12/B11</f>
-        <v>1.3608633484124191E-3</v>
+        <v>1.516778792506681E-3</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:J13" si="2">C12/C11</f>
-        <v>1.1966770708684809E-3</v>
+        <v>1.31941530368982E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>2.4561913304817283E-3</v>
+        <v>2.4544144020829284E-3</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>1.2509675034764445E-3</v>
+        <v>1.4009936538081E-3</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.29943642604781573</v>
+        <v>0.26185213210590308</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>-0.45162571072229685</v>
+        <v>-0.37632018738901879</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>-0.35226923519494763</v>
+        <v>-0.3952225418268453</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>-0.59837286516186472</v>
+        <v>-0.53804257453625925</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.58147120155168497</v>
+        <v>0.46513427495312426</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -10354,11 +10358,11 @@
         <v>197</v>
       </c>
       <c r="B14">
-        <f>MIN(B2:B10)</f>
+        <f t="shared" ref="B14:J14" si="3">MIN(B2:B10)</f>
         <v>2557.4248793709721</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:J14" si="3">MIN(C2:C10)</f>
+        <f t="shared" si="3"/>
         <v>2556.4896612167931</v>
       </c>
       <c r="D14">
@@ -10395,40 +10399,40 @@
         <v>0.25</v>
       </c>
       <c r="B15">
-        <f>_xlfn.PERCENTILE.INC(B2:B10,0.25)</f>
-        <v>2557.4248793709721</v>
+        <f t="shared" ref="B15:J15" si="4">_xlfn.PERCENTILE.INC(B2:B10,0.25)</f>
+        <v>2560.9956866809111</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:J15" si="4">_xlfn.PERCENTILE.INC(C2:C10,0.25)</f>
-        <v>2556.4896612167931</v>
+        <f t="shared" si="4"/>
+        <v>2559.246205670031</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>1877.607886940616</v>
+        <v>1876.6563346687731</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
-        <v>1084.7529801153171</v>
+        <v>1084.044962933838</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>1.4034008783734181E-2</v>
+        <v>1.507964860054848E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>-5.4775893272421897E-2</v>
+        <v>-5.6212705311289482E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>-8.4280696738290315E-4</v>
+        <v>-6.8107043820834069E-4</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>-1.3615152535981639E-3</v>
+        <v>-1.4531243395930909E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>1.962877919037603E-2</v>
+        <v>3.0617225477259979E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -10436,16 +10440,16 @@
         <v>0.5</v>
       </c>
       <c r="B16">
-        <f>_xlfn.PERCENTILE.INC(B2:B10,0.5)</f>
-        <v>2560.9956866809111</v>
+        <f t="shared" ref="B16:J16" si="5">_xlfn.PERCENTILE.INC(B2:B10,0.5)</f>
+        <v>2562.2058720732089</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:J16" si="5">_xlfn.PERCENTILE.INC(C2:C10,0.5)</f>
-        <v>2559.246205670031</v>
+        <f t="shared" si="5"/>
+        <v>2561.235420761363</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>1879.0673632109081</v>
+        <v>1878.132422556391</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -10453,23 +10457,23 @@
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>1.507964860054848E-2</v>
+        <v>2.1130118810936401E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>-3.4676161182254361E-2</v>
+        <v>-5.4775893272421897E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>-6.8107043820834069E-4</v>
+        <v>-4.7596564715346061E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
-        <v>-1.1685021279735531E-3</v>
+        <v>-1.3615152535981639E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>3.0617225477259979E-2</v>
+        <v>4.6882333243536738E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -10477,40 +10481,40 @@
         <v>0.75</v>
       </c>
       <c r="B17">
-        <f>_xlfn.PERCENTILE.INC(B2:B10,0.75)</f>
-        <v>2562.603536396598</v>
+        <f t="shared" ref="B17:J17" si="6">_xlfn.PERCENTILE.INC(B2:B10,0.75)</f>
+        <v>2564.8656599079718</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:J17" si="6">_xlfn.PERCENTILE.INC(C2:C10,0.75)</f>
-        <v>2562.5283920466718</v>
+        <f t="shared" si="6"/>
+        <v>2563.1265960168089</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>1880.2107021211771</v>
+        <v>1879.0673632109081</v>
       </c>
       <c r="E17">
         <f t="shared" si="6"/>
-        <v>1085.545711139388</v>
+        <v>1085.972502340245</v>
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>2.1130118810936401E-2</v>
+        <v>2.2166938702422111E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
-        <v>-2.8704410855317539E-2</v>
+        <v>-3.4676161182254361E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>-4.7596564715346061E-4</v>
+        <v>-4.1451210046958861E-4</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>-9.2190054159806221E-4</v>
+        <v>-1.1685021279735531E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>4.6882333243536738E-2</v>
+        <v>4.7770309355818837E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -10518,12 +10522,12 @@
         <v>201</v>
       </c>
       <c r="B18">
-        <f>MAX(B2:B10)</f>
-        <v>2567.1962195528649</v>
+        <f t="shared" ref="B18:J18" si="7">MAX(B2:B10)</f>
+        <v>2570.0985538458831</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:J18" si="7">MAX(C2:C10)</f>
-        <v>2563.6746741695201</v>
+        <f t="shared" si="7"/>
+        <v>2567.2071416351182</v>
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
@@ -10623,72 +10627,72 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23">
-        <v>2561.0356963268341</v>
+        <v>2560.1577422116311</v>
       </c>
       <c r="C23">
-        <v>2560.345607225669</v>
+        <v>2560.2839983656399</v>
       </c>
       <c r="D23">
-        <v>1882.676464568425</v>
+        <v>1876.272224241289</v>
       </c>
       <c r="E23">
-        <v>1091.024569963231</v>
+        <v>1088.808063712444</v>
       </c>
       <c r="F23">
-        <v>2.3000033887113708E-2</v>
+        <v>1.7797216469728511E-2</v>
       </c>
       <c r="G23">
-        <v>-6.0885630983606817E-2</v>
+        <v>-4.7050217800978997E-2</v>
       </c>
       <c r="H23">
-        <v>3.3534830317128788E-5</v>
+        <v>-3.3146212214713538E-4</v>
       </c>
       <c r="I23">
-        <v>-9.9849811443292343E-4</v>
+        <v>-1.774276203709837E-3</v>
       </c>
       <c r="J23">
-        <v>5.6049769890811077E-2</v>
+        <v>4.358765176637043E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>2560.1577422116311</v>
+        <v>2561.0356963268341</v>
       </c>
       <c r="C24">
-        <v>2560.2839983656399</v>
+        <v>2560.345607225669</v>
       </c>
       <c r="D24">
-        <v>1876.272224241289</v>
+        <v>1882.676464568425</v>
       </c>
       <c r="E24">
-        <v>1088.808063712444</v>
+        <v>1091.024569963231</v>
       </c>
       <c r="F24">
-        <v>1.7797216469728511E-2</v>
+        <v>2.3000033887113708E-2</v>
       </c>
       <c r="G24">
-        <v>-4.7050217800978997E-2</v>
+        <v>-6.0885630983606817E-2</v>
       </c>
       <c r="H24">
-        <v>-3.3146212214713538E-4</v>
+        <v>3.3534830317128788E-5</v>
       </c>
       <c r="I24">
-        <v>-1.774276203709837E-3</v>
+        <v>-9.9849811443292343E-4</v>
       </c>
       <c r="J24">
-        <v>4.358765176637043E-2</v>
+        <v>5.6049769890811077E-2</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -10728,177 +10732,177 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="B26">
-        <v>2564.5183164622608</v>
+        <v>2564.3942735708388</v>
       </c>
       <c r="C26">
-        <v>2563.541192153094</v>
+        <v>2564.2368579149029</v>
       </c>
       <c r="D26">
-        <v>1878.459716426097</v>
+        <v>1875.419229940635</v>
       </c>
       <c r="E26">
-        <v>1089.166267187017</v>
+        <v>1088.846998717773</v>
       </c>
       <c r="F26">
-        <v>2.2660934667998341E-2</v>
+        <v>2.2817561601658268E-2</v>
       </c>
       <c r="G26">
-        <v>-6.0750128382334921E-2</v>
+        <v>-6.1131239794929959E-2</v>
       </c>
       <c r="H26">
-        <v>-2.1719471811276059E-4</v>
+        <v>1.10090982429043E-5</v>
       </c>
       <c r="I26">
-        <v>-1.3936733359378691E-3</v>
+        <v>-1.606764371346643E-3</v>
       </c>
       <c r="J26">
-        <v>5.3576010935729439E-2</v>
+        <v>5.5766978249983529E-2</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="B27">
-        <v>2561.833865495194</v>
+        <v>2563.2205004008201</v>
       </c>
       <c r="C27">
-        <v>2561.1956615981012</v>
+        <v>2561.6079821590752</v>
       </c>
       <c r="D27">
-        <v>1880.5867063081071</v>
+        <v>1889.1606246702779</v>
       </c>
       <c r="E27">
-        <v>1088.8301886452671</v>
+        <v>1090.520448268863</v>
       </c>
       <c r="F27">
-        <v>1.8635507880431931E-2</v>
+        <v>1.8704010549719589E-2</v>
       </c>
       <c r="G27">
-        <v>-4.8330941567445863E-2</v>
+        <v>-4.8314329677920403E-2</v>
       </c>
       <c r="H27">
-        <v>-3.940236973701367E-4</v>
+        <v>-2.3402611435443231E-4</v>
       </c>
       <c r="I27">
-        <v>-1.197076825574744E-3</v>
+        <v>-2.2089259512690889E-4</v>
       </c>
       <c r="J27">
-        <v>4.3097364368372811E-2</v>
+        <v>4.346032791203179E-2</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B28">
-        <v>2564.3942735708388</v>
+        <v>2562.0161119341419</v>
       </c>
       <c r="C28">
-        <v>2564.2368579149029</v>
+        <v>2561.2969009922381</v>
       </c>
       <c r="D28">
-        <v>1875.419229940635</v>
+        <v>1873.8986107255671</v>
       </c>
       <c r="E28">
-        <v>1088.846998717773</v>
+        <v>1087.6558934348641</v>
       </c>
       <c r="F28">
-        <v>2.2817561601658268E-2</v>
+        <v>2.044068061285708E-2</v>
       </c>
       <c r="G28">
-        <v>-6.1131239794929959E-2</v>
+        <v>-5.4151884807370397E-2</v>
       </c>
       <c r="H28">
-        <v>1.10090982429043E-5</v>
+        <v>-6.8003743279755483E-4</v>
       </c>
       <c r="I28">
-        <v>-1.606764371346643E-3</v>
+        <v>-2.0776534243593758E-3</v>
       </c>
       <c r="J28">
-        <v>5.5766978249983529E-2</v>
+        <v>4.582975434794638E-2</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="B29">
-        <v>2564.3942735708388</v>
+        <v>2564.5183164622608</v>
       </c>
       <c r="C29">
-        <v>2564.2368579149029</v>
+        <v>2563.541192153094</v>
       </c>
       <c r="D29">
-        <v>1875.419229940635</v>
+        <v>1878.459716426097</v>
       </c>
       <c r="E29">
-        <v>1088.846998717773</v>
+        <v>1089.166267187017</v>
       </c>
       <c r="F29">
-        <v>2.2817561601658268E-2</v>
+        <v>2.2660934667998341E-2</v>
       </c>
       <c r="G29">
-        <v>-6.1131239794929959E-2</v>
+        <v>-6.0750128382334921E-2</v>
       </c>
       <c r="H29">
-        <v>1.10090982429043E-5</v>
+        <v>-2.1719471811276059E-4</v>
       </c>
       <c r="I29">
-        <v>-1.606764371346643E-3</v>
+        <v>-1.3936733359378691E-3</v>
       </c>
       <c r="J29">
-        <v>5.5766978249983529E-2</v>
+        <v>5.3576010935729439E-2</v>
       </c>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="B30">
-        <v>2564.3942735708388</v>
+        <v>2561.833865495194</v>
       </c>
       <c r="C30">
-        <v>2564.2368579149029</v>
+        <v>2561.1956615981012</v>
       </c>
       <c r="D30">
-        <v>1875.419229940635</v>
+        <v>1880.5867063081071</v>
       </c>
       <c r="E30">
-        <v>1088.846998717773</v>
+        <v>1088.8301886452671</v>
       </c>
       <c r="F30">
-        <v>2.2817561601658268E-2</v>
+        <v>1.8635507880431931E-2</v>
       </c>
       <c r="G30">
-        <v>-6.1131239794929959E-2</v>
+        <v>-4.8330941567445863E-2</v>
       </c>
       <c r="H30">
-        <v>1.10090982429043E-5</v>
+        <v>-3.940236973701367E-4</v>
       </c>
       <c r="I30">
-        <v>-1.606764371346643E-3</v>
+        <v>-1.197076825574744E-3</v>
       </c>
       <c r="J30">
-        <v>5.5766978249983529E-2</v>
+        <v>4.3097364368372811E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -10906,40 +10910,40 @@
         <v>195</v>
       </c>
       <c r="B31">
-        <f>AVERAGE(B22:B30)</f>
-        <v>2563.584884542603</v>
+        <f t="shared" ref="B31:J31" si="8">AVERAGE(B22:B30)</f>
+        <v>2563.1902251196343</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31" si="8">AVERAGE(C22:C30)</f>
-        <v>2562.995647017488</v>
+        <f t="shared" si="8"/>
+        <v>2562.3768878309879</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="9">AVERAGE(D22:D30)</f>
-        <v>1878.2079962512119</v>
+        <f t="shared" si="8"/>
+        <v>1879.5658601972759</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="10">AVERAGE(E22:E30)</f>
-        <v>1088.9657531572268</v>
+        <f t="shared" si="8"/>
+        <v>1089.0193469648025</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31" si="11">AVERAGE(F22:F30)</f>
-        <v>2.1369149748140685E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0647990632502927E-2</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31" si="12">AVERAGE(G22:G30)</f>
-        <v>-5.6745092272641712E-2</v>
+        <f t="shared" si="8"/>
+        <v>-5.4545507261022905E-2</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="13">AVERAGE(H22:H30)</f>
-        <v>-1.9750773813688224E-4</v>
+        <f t="shared" si="8"/>
+        <v>-3.0151682076330399E-4</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31" si="14">AVERAGE(I22:I30)</f>
-        <v>-1.3917891154997344E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.2901243684767343E-3</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31" si="15">AVERAGE(J22:J30)</f>
-        <v>5.0842707909514812E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.8371166327293817E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -10947,40 +10951,40 @@
         <v>196</v>
       </c>
       <c r="B32">
-        <f>_xlfn.STDEV.S(B22:B30)</f>
-        <v>2.3419280625034835</v>
+        <f t="shared" ref="B32:J32" si="9">_xlfn.STDEV.S(B22:B30)</f>
+        <v>2.3387714178620995</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:J32" si="16">_xlfn.STDEV.S(C22:C30)</f>
-        <v>2.1741467333941338</v>
+        <f t="shared" si="9"/>
+        <v>2.1242554166866743</v>
       </c>
       <c r="D32">
-        <f t="shared" si="16"/>
-        <v>3.719265358538824</v>
+        <f t="shared" si="9"/>
+        <v>5.2087158424411975</v>
       </c>
       <c r="E32">
-        <f t="shared" si="16"/>
-        <v>0.9272077865926881</v>
+        <f t="shared" si="9"/>
+        <v>1.1702813614086791</v>
       </c>
       <c r="F32">
-        <f t="shared" si="16"/>
-        <v>2.1096830685613044E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.0825073545758916E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="16"/>
-        <v>6.411254683263712E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.3700061578783485E-3</v>
       </c>
       <c r="H32">
-        <f t="shared" si="16"/>
-        <v>2.1477777673297813E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.2882441399766512E-4</v>
       </c>
       <c r="I32">
-        <f t="shared" si="16"/>
-        <v>3.8554956092730065E-4</v>
+        <f t="shared" si="9"/>
+        <v>5.9635832503416469E-4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="16"/>
-        <v>6.0816649608394207E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.8314759120121941E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -10989,39 +10993,39 @@
       </c>
       <c r="B33">
         <f>B32/B31</f>
-        <v>9.1353638283030061E-4</v>
+        <v>9.1244551221434994E-4</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33" si="17">C32/C31</f>
-        <v>8.4828342799729269E-4</v>
+        <f t="shared" ref="C33" si="10">C32/C31</f>
+        <v>8.2901755271638572E-4</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33" si="18">D32/D31</f>
-        <v>1.9802201704828483E-3</v>
+        <f t="shared" ref="D33" si="11">D32/D31</f>
+        <v>2.7712334814883792E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="19">E32/E31</f>
-        <v>8.5145725097822813E-4</v>
+        <f t="shared" ref="E33" si="12">E32/E31</f>
+        <v>1.0746194405731738E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="20">F32/F31</f>
-        <v>9.8725643903771435E-2</v>
+        <f t="shared" ref="F33" si="13">F32/F31</f>
+        <v>0.10085762782639603</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="21">G32/G31</f>
-        <v>-0.11298342158753956</v>
+        <f t="shared" ref="G33" si="14">G32/G31</f>
+        <v>-0.11678333336227352</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="22">H32/H31</f>
-        <v>-1.0874398074678315</v>
+        <f t="shared" ref="H33" si="15">H32/H31</f>
+        <v>-0.75891094041912943</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33" si="23">I32/I31</f>
-        <v>-0.27701722670022866</v>
+        <f t="shared" ref="I33" si="16">I32/I31</f>
+        <v>-0.46224870997382395</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33" si="24">J32/J31</f>
-        <v>0.11961725114372371</v>
+        <f t="shared" ref="J33" si="17">J32/J31</f>
+        <v>0.12055685969105395</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -11029,39 +11033,39 @@
         <v>197</v>
       </c>
       <c r="B34">
-        <f>MIN(B22:B30)</f>
+        <f t="shared" ref="B34:J34" si="18">MIN(B22:B30)</f>
         <v>2560.1577422116311</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:J34" si="25">MIN(C22:C30)</f>
+        <f t="shared" si="18"/>
         <v>2560.2839983656399</v>
       </c>
       <c r="D34">
-        <f t="shared" si="25"/>
-        <v>1874.6731623806729</v>
+        <f t="shared" si="18"/>
+        <v>1873.8986107255671</v>
       </c>
       <c r="E34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>1087.380628355859</v>
       </c>
       <c r="F34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>1.7797216469728511E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>-6.1131239794929959E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="25"/>
-        <v>-4.5453365707004032E-4</v>
+        <f t="shared" si="18"/>
+        <v>-6.8003743279755483E-4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="25"/>
-        <v>-1.774276203709837E-3</v>
+        <f t="shared" si="18"/>
+        <v>-2.0776534243593758E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>4.2180396890474481E-2</v>
       </c>
     </row>
@@ -11070,40 +11074,40 @@
         <v>0.25</v>
       </c>
       <c r="B35">
-        <f>_xlfn.PERCENTILE.INC(B22:B30,0.25)</f>
+        <f t="shared" ref="B35:J35" si="19">_xlfn.PERCENTILE.INC(B22:B30,0.25)</f>
         <v>2561.833865495194</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:J35" si="26">_xlfn.PERCENTILE.INC(C22:C30,0.25)</f>
+        <f t="shared" si="19"/>
         <v>2561.1956615981012</v>
       </c>
       <c r="D35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>1875.419229940635</v>
       </c>
       <c r="E35">
-        <f t="shared" si="26"/>
-        <v>1088.8301886452671</v>
+        <f t="shared" si="19"/>
+        <v>1088.808063712444</v>
       </c>
       <c r="F35">
-        <f t="shared" si="26"/>
-        <v>1.9423509860104611E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.8704010549719589E-2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="26"/>
-        <v>-6.1131239794929959E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.0885630983606817E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="26"/>
-        <v>-3.940236973701367E-4</v>
+        <f t="shared" si="19"/>
+        <v>-4.4691757357770862E-4</v>
       </c>
       <c r="I35">
-        <f t="shared" si="26"/>
-        <v>-1.606764371346643E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.725346118972651E-3</v>
       </c>
       <c r="J35">
-        <f t="shared" si="26"/>
-        <v>4.358765176637043E-2</v>
+        <f t="shared" si="19"/>
+        <v>4.346032791203179E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -11111,40 +11115,40 @@
         <v>0.5</v>
       </c>
       <c r="B36">
-        <f>_xlfn.PERCENTILE.INC(B22:B30,0.5)</f>
-        <v>2564.3942735708388</v>
+        <f t="shared" ref="B36:J36" si="20">_xlfn.PERCENTILE.INC(B22:B30,0.5)</f>
+        <v>2563.2205004008201</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:J36" si="27">_xlfn.PERCENTILE.INC(C22:C30,0.5)</f>
-        <v>2563.541192153094</v>
+        <f t="shared" si="20"/>
+        <v>2561.6079821590752</v>
       </c>
       <c r="D36">
-        <f t="shared" si="27"/>
-        <v>1876.272224241289</v>
+        <f t="shared" si="20"/>
+        <v>1878.459716426097</v>
       </c>
       <c r="E36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>1088.846998717773</v>
       </c>
       <c r="F36">
-        <f t="shared" si="27"/>
-        <v>2.2660934667998341E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.044068061285708E-2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="27"/>
-        <v>-6.0885630983606817E-2</v>
+        <f t="shared" si="20"/>
+        <v>-5.4151884807370397E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="27"/>
-        <v>-2.1719471811276059E-4</v>
+        <f t="shared" si="20"/>
+        <v>-3.3146212214713538E-4</v>
       </c>
       <c r="I36">
-        <f t="shared" si="27"/>
-        <v>-1.606764371346643E-3</v>
+        <f t="shared" si="20"/>
+        <v>-1.3936733359378691E-3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="27"/>
-        <v>5.3576010935729439E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.582975434794638E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -11152,40 +11156,40 @@
         <v>0.75</v>
       </c>
       <c r="B37">
-        <f>_xlfn.PERCENTILE.INC(B22:B30,0.75)</f>
+        <f t="shared" ref="B37:J37" si="21">_xlfn.PERCENTILE.INC(B22:B30,0.75)</f>
         <v>2564.3942735708388</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:J37" si="28">_xlfn.PERCENTILE.INC(C22:C30,0.75)</f>
-        <v>2564.2368579149029</v>
+        <f t="shared" si="21"/>
+        <v>2563.541192153094</v>
       </c>
       <c r="D37">
-        <f t="shared" si="28"/>
-        <v>1880.5867063081071</v>
+        <f t="shared" si="21"/>
+        <v>1882.676464568425</v>
       </c>
       <c r="E37">
-        <f t="shared" si="28"/>
-        <v>1088.941064397904</v>
+        <f t="shared" si="21"/>
+        <v>1089.166267187017</v>
       </c>
       <c r="F37">
-        <f t="shared" si="28"/>
-        <v>2.2817561601658268E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.2660934667998341E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="28"/>
-        <v>-4.9314855093575527E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.8330941567445863E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="28"/>
-        <v>1.10090982429043E-5</v>
+        <f t="shared" si="21"/>
+        <v>-2.1719471811276059E-4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="28"/>
-        <v>-1.197076825574744E-3</v>
+        <f t="shared" si="21"/>
+        <v>-9.9849811443292343E-4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="28"/>
-        <v>5.5766978249983529E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.3576010935729439E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -11193,39 +11197,39 @@
         <v>201</v>
       </c>
       <c r="B38">
-        <f>MAX(B22:B30)</f>
+        <f t="shared" ref="B38:J38" si="22">MAX(B22:B30)</f>
         <v>2568.0261627607092</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:J38" si="29">MAX(C22:C30)</f>
+        <f t="shared" si="22"/>
         <v>2566.7974115071102</v>
       </c>
       <c r="D38">
-        <f t="shared" si="29"/>
-        <v>1884.9460025144119</v>
+        <f t="shared" si="22"/>
+        <v>1889.1606246702779</v>
       </c>
       <c r="E38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>1091.024569963231</v>
       </c>
       <c r="F38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>2.3000033887113708E-2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>-4.7050217800978997E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>3.3534830317128788E-5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="29"/>
-        <v>-6.1693832682965647E-4</v>
+        <f t="shared" si="22"/>
+        <v>-2.2089259512690889E-4</v>
       </c>
       <c r="J38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>5.6049769890811077E-2</v>
       </c>
     </row>
@@ -11298,72 +11302,72 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43">
-        <v>2568.5151046165279</v>
+        <v>2568.8477399788671</v>
       </c>
       <c r="C43">
-        <v>2567.7668711979859</v>
+        <v>2568.229680369177</v>
       </c>
       <c r="D43">
-        <v>1890.600734446653</v>
+        <v>1887.4573790140321</v>
       </c>
       <c r="E43">
-        <v>1087.31371282539</v>
+        <v>1089.0905737734649</v>
       </c>
       <c r="F43">
-        <v>1.372481517957088E-2</v>
+        <v>1.8640679211118439E-2</v>
       </c>
       <c r="G43">
-        <v>-1.0999307067406049E-2</v>
+        <v>-3.0483454963539981E-2</v>
       </c>
       <c r="H43">
-        <v>-2.9325917297462782E-4</v>
+        <v>-2.8711749807741962E-4</v>
       </c>
       <c r="I43">
-        <v>-4.4794240358797869E-4</v>
+        <v>-5.6993713936556679E-4</v>
       </c>
       <c r="J43">
-        <v>-4.7319518519594803E-3</v>
+        <v>1.3733928883097589E-2</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44">
-        <v>2568.8477399788671</v>
+        <v>2568.5151046165279</v>
       </c>
       <c r="C44">
-        <v>2568.229680369177</v>
+        <v>2567.7668711979859</v>
       </c>
       <c r="D44">
-        <v>1887.4573790140321</v>
+        <v>1890.600734446653</v>
       </c>
       <c r="E44">
-        <v>1089.0905737734649</v>
+        <v>1087.31371282539</v>
       </c>
       <c r="F44">
-        <v>1.8640679211118439E-2</v>
+        <v>1.372481517957088E-2</v>
       </c>
       <c r="G44">
-        <v>-3.0483454963539981E-2</v>
+        <v>-1.0999307067406049E-2</v>
       </c>
       <c r="H44">
-        <v>-2.8711749807741962E-4</v>
+        <v>-2.9325917297462782E-4</v>
       </c>
       <c r="I44">
-        <v>-5.6993713936556679E-4</v>
+        <v>-4.4794240358797869E-4</v>
       </c>
       <c r="J44">
-        <v>1.3733928883097589E-2</v>
+        <v>-4.7319518519594803E-3</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -11403,177 +11407,177 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B46">
-        <v>2566.868074179924</v>
+        <v>2568.331517562749</v>
       </c>
       <c r="C46">
-        <v>2566.3633349795691</v>
+        <v>2566.345022739541</v>
       </c>
       <c r="D46">
-        <v>1882.693465388822</v>
+        <v>1881.076597105455</v>
       </c>
       <c r="E46">
-        <v>1085.73375776025</v>
+        <v>1084.7913568973529</v>
       </c>
       <c r="F46">
-        <v>1.4993968272823869E-2</v>
+        <v>1.3480015469334441E-2</v>
       </c>
       <c r="G46">
-        <v>-1.7467276665650899E-2</v>
+        <v>-1.543725825155039E-2</v>
       </c>
       <c r="H46">
-        <v>-5.2799416310968716E-4</v>
+        <v>-4.7726841206608621E-4</v>
       </c>
       <c r="I46">
-        <v>-1.0469810839746109E-3</v>
+        <v>-1.1406518783591061E-3</v>
       </c>
       <c r="J46">
-        <v>1.002900925638263E-3</v>
+        <v>3.7711773246479661E-4</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B47">
-        <v>2564.2505655701511</v>
+        <v>2566.7473500874198</v>
       </c>
       <c r="C47">
-        <v>2563.7308180404711</v>
+        <v>2566.2339018018538</v>
       </c>
       <c r="D47">
-        <v>1882.472294050116</v>
+        <v>1889.528075209869</v>
       </c>
       <c r="E47">
-        <v>1089.75695773947</v>
+        <v>1090.7648342814771</v>
       </c>
       <c r="F47">
-        <v>1.9431304366281842E-2</v>
+        <v>2.1590727156079011E-2</v>
       </c>
       <c r="G47">
-        <v>-3.2807948369636207E-2</v>
+        <v>-3.8414211452636168E-2</v>
       </c>
       <c r="H47">
-        <v>-9.0084075397743045E-6</v>
+        <v>-7.2889233124176796E-5</v>
       </c>
       <c r="I47">
-        <v>-7.8778645877229235E-4</v>
+        <v>-1.6202793395823689E-4</v>
       </c>
       <c r="J47">
-        <v>1.6715384970239239E-2</v>
+        <v>2.1959541601242069E-2</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B48">
-        <v>2568.331517562749</v>
+        <v>2561.6677821928429</v>
       </c>
       <c r="C48">
-        <v>2566.345022739541</v>
+        <v>2562.5962722204499</v>
       </c>
       <c r="D48">
-        <v>1881.076597105455</v>
+        <v>1876.825400198346</v>
       </c>
       <c r="E48">
-        <v>1084.7913568973529</v>
+        <v>1087.541542830342</v>
       </c>
       <c r="F48">
-        <v>1.3480015469334441E-2</v>
+        <v>1.607889292022564E-2</v>
       </c>
       <c r="G48">
-        <v>-1.543725825155039E-2</v>
+        <v>-1.9482517237068901E-2</v>
       </c>
       <c r="H48">
-        <v>-4.7726841206608621E-4</v>
+        <v>-2.7634878919951302E-4</v>
       </c>
       <c r="I48">
-        <v>-1.1406518783591061E-3</v>
+        <v>-1.4961581405198729E-3</v>
       </c>
       <c r="J48">
-        <v>3.7711773246479661E-4</v>
+        <v>1.630075839680024E-3</v>
       </c>
       <c r="K48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="B49">
-        <v>2568.331517562749</v>
+        <v>2566.868074179924</v>
       </c>
       <c r="C49">
-        <v>2566.345022739541</v>
+        <v>2566.3633349795691</v>
       </c>
       <c r="D49">
-        <v>1881.076597105455</v>
+        <v>1882.693465388822</v>
       </c>
       <c r="E49">
-        <v>1084.7913568973529</v>
+        <v>1085.73375776025</v>
       </c>
       <c r="F49">
-        <v>1.3480015469334441E-2</v>
+        <v>1.4993968272823869E-2</v>
       </c>
       <c r="G49">
-        <v>-1.543725825155039E-2</v>
+        <v>-1.7467276665650899E-2</v>
       </c>
       <c r="H49">
-        <v>-4.7726841206608621E-4</v>
+        <v>-5.2799416310968716E-4</v>
       </c>
       <c r="I49">
-        <v>-1.1406518783591061E-3</v>
+        <v>-1.0469810839746109E-3</v>
       </c>
       <c r="J49">
-        <v>3.7711773246479661E-4</v>
+        <v>1.002900925638263E-3</v>
       </c>
       <c r="K49" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="B50">
-        <v>2568.331517562749</v>
+        <v>2564.2505655701511</v>
       </c>
       <c r="C50">
-        <v>2566.345022739541</v>
+        <v>2563.7308180404711</v>
       </c>
       <c r="D50">
-        <v>1881.076597105455</v>
+        <v>1882.472294050116</v>
       </c>
       <c r="E50">
-        <v>1084.7913568973529</v>
+        <v>1089.75695773947</v>
       </c>
       <c r="F50">
-        <v>1.3480015469334441E-2</v>
+        <v>1.9431304366281842E-2</v>
       </c>
       <c r="G50">
-        <v>-1.543725825155039E-2</v>
+        <v>-3.2807948369636207E-2</v>
       </c>
       <c r="H50">
-        <v>-4.7726841206608621E-4</v>
+        <v>-9.0084075397743045E-6</v>
       </c>
       <c r="I50">
-        <v>-1.1406518783591061E-3</v>
+        <v>-7.8778645877229235E-4</v>
       </c>
       <c r="J50">
-        <v>3.7711773246479661E-4</v>
+        <v>1.6715384970239239E-2</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -11581,40 +11585,40 @@
         <v>195</v>
       </c>
       <c r="B51">
-        <f>AVERAGE(B42:B50)</f>
-        <v>2566.4761969164333</v>
+        <f t="shared" ref="B51:J51" si="23">AVERAGE(B42:B50)</f>
+        <v>2565.5597632669624</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51" si="30">AVERAGE(C42:C50)</f>
-        <v>2565.4760501196188</v>
+        <f t="shared" si="23"/>
+        <v>2565.0471755133103</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51" si="31">AVERAGE(D42:D50)</f>
-        <v>1882.0938199658849</v>
+        <f t="shared" si="23"/>
+        <v>1882.5605178766968</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51" si="32">AVERAGE(E42:E50)</f>
-        <v>1086.7713739079154</v>
+        <f t="shared" si="23"/>
+        <v>1087.7406698320392</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51" si="33">AVERAGE(F42:F50)</f>
-        <v>1.5937942585924767E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.7127896934550961E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51" si="34">AVERAGE(G42:G50)</f>
-        <v>-2.1761633364565085E-2</v>
+        <f t="shared" si="23"/>
+        <v>-2.476410138529889E-2</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51" si="35">AVERAGE(H42:H50)</f>
-        <v>-3.3703396805475326E-4</v>
+        <f t="shared" si="23"/>
+        <v>-2.6977854563158861E-4</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51" si="36">AVERAGE(I42:I50)</f>
-        <v>-9.888753755483452E-4</v>
+        <f t="shared" si="23"/>
+        <v>-9.1964007752166703E-4</v>
       </c>
       <c r="J51">
-        <f t="shared" ref="J51" si="37">AVERAGE(J42:J50)</f>
-        <v>5.8503057817986355E-3</v>
+        <f t="shared" si="23"/>
+        <v>8.3875704457978019E-3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -11622,40 +11626,40 @@
         <v>196</v>
       </c>
       <c r="B52">
-        <f>_xlfn.STDEV.S(B42:B50)</f>
-        <v>3.0404614629372424</v>
+        <f t="shared" ref="B52:J52" si="24">_xlfn.STDEV.S(B42:B50)</f>
+        <v>3.2153253791567091</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="38">_xlfn.STDEV.S(C42:C50)</f>
-        <v>2.703015149528035</v>
+        <f t="shared" si="24"/>
+        <v>2.8317874088121098</v>
       </c>
       <c r="D52">
-        <f t="shared" si="38"/>
-        <v>4.7197447920235494</v>
+        <f t="shared" si="24"/>
+        <v>5.6701254168140185</v>
       </c>
       <c r="E52">
-        <f t="shared" si="38"/>
-        <v>2.4272956455540995</v>
+        <f t="shared" si="24"/>
+        <v>2.4335738408446073</v>
       </c>
       <c r="F52">
-        <f t="shared" si="38"/>
-        <v>2.7890858474298149E-3</v>
+        <f t="shared" si="24"/>
+        <v>2.9448918851273254E-3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="38"/>
-        <v>8.9343341848053936E-3</v>
+        <f t="shared" si="24"/>
+        <v>9.7464902453920348E-3</v>
       </c>
       <c r="H52">
-        <f t="shared" si="38"/>
-        <v>3.0281148067471569E-4</v>
+        <f t="shared" si="24"/>
+        <v>3.0144909383039828E-4</v>
       </c>
       <c r="I52">
-        <f t="shared" si="38"/>
-        <v>3.5263005981795418E-4</v>
+        <f t="shared" si="24"/>
+        <v>4.8044019086048329E-4</v>
       </c>
       <c r="J52">
-        <f t="shared" si="38"/>
-        <v>8.7124776979727158E-3</v>
+        <f t="shared" si="24"/>
+        <v>9.7898223804674996E-3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -11664,39 +11668,39 @@
       </c>
       <c r="B53">
         <f>B52/B51</f>
-        <v>1.1846832893249867E-3</v>
+        <v>1.253264657948307E-3</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53" si="39">C52/C51</f>
-        <v>1.0536115312407626E-3</v>
+        <f t="shared" ref="C53" si="25">C52/C51</f>
+        <v>1.1039903810913031E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53" si="40">D52/D51</f>
-        <v>2.5077096274133135E-3</v>
+        <f t="shared" ref="D53" si="26">D52/D51</f>
+        <v>3.0119219876178229E-3</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53" si="41">E52/E51</f>
-        <v>2.2334924380882429E-3</v>
+        <f t="shared" ref="E53" si="27">E52/E51</f>
+        <v>2.2372739278199295E-3</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53" si="42">F52/F51</f>
-        <v>0.1749966052640278</v>
+        <f t="shared" ref="F53" si="28">F52/F51</f>
+        <v>0.17193540435117821</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53" si="43">G52/G51</f>
-        <v>-0.41055439337349342</v>
+        <f t="shared" ref="G53" si="29">G52/G51</f>
+        <v>-0.39357334610081995</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53" si="44">H52/H51</f>
-        <v>-0.89845982712793526</v>
+        <f t="shared" ref="H53" si="30">H52/H51</f>
+        <v>-1.1173946138847497</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53" si="45">I52/I51</f>
-        <v>-0.35659706828316551</v>
+        <f t="shared" ref="I53" si="31">I52/I51</f>
+        <v>-0.52242198073317869</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53" si="46">J52/J51</f>
-        <v>1.4892345841270072</v>
+        <f t="shared" ref="J53" si="32">J52/J51</f>
+        <v>1.1671821350093377</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -11704,39 +11708,39 @@
         <v>197</v>
       </c>
       <c r="B54">
-        <f>MIN(B42:B50)</f>
+        <f t="shared" ref="B54:J54" si="33">MIN(B42:B50)</f>
         <v>2559.6130228152902</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:J54" si="47">MIN(C42:C50)</f>
+        <f t="shared" si="33"/>
         <v>2559.211740337777</v>
       </c>
       <c r="D54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>1874.80219407913</v>
       </c>
       <c r="E54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>1084.248728768182</v>
       </c>
       <c r="F54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>1.3480015469334441E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="47"/>
-        <v>-3.5393523092123701E-2</v>
+        <f t="shared" si="33"/>
+        <v>-3.8414211452636168E-2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>-7.4606801751569854E-4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>-1.632090758278771E-3</v>
       </c>
       <c r="J54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>-4.7319518519594803E-3</v>
       </c>
     </row>
@@ -11745,40 +11749,40 @@
         <v>0.25</v>
       </c>
       <c r="B55">
-        <f>_xlfn.PERCENTILE.INC(B42:B50,0.25)</f>
-        <v>2565.1967123988888</v>
+        <f t="shared" ref="B55:J55" si="34">_xlfn.PERCENTILE.INC(B42:B50,0.25)</f>
+        <v>2564.2505655701511</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:J55" si="48">_xlfn.PERCENTILE.INC(C42:C50,0.25)</f>
-        <v>2564.9469379329648</v>
+        <f t="shared" si="34"/>
+        <v>2563.7308180404711</v>
       </c>
       <c r="D55">
-        <f t="shared" si="48"/>
-        <v>1881.076597105455</v>
+        <f t="shared" si="34"/>
+        <v>1877.5885213978449</v>
       </c>
       <c r="E55">
-        <f t="shared" si="48"/>
-        <v>1084.7913568973529</v>
+        <f t="shared" si="34"/>
+        <v>1085.73375776025</v>
       </c>
       <c r="F55">
-        <f t="shared" si="48"/>
-        <v>1.3480015469334441E-2</v>
+        <f t="shared" si="34"/>
+        <v>1.4993968272823869E-2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="48"/>
-        <v>-3.0483454963539981E-2</v>
+        <f t="shared" si="34"/>
+        <v>-3.2807948369636207E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>-4.7726841206608621E-4</v>
       </c>
       <c r="I55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>-1.1406518783591061E-3</v>
       </c>
       <c r="J55">
-        <f t="shared" si="48"/>
-        <v>3.7711773246479661E-4</v>
+        <f t="shared" si="34"/>
+        <v>1.002900925638263E-3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -11786,40 +11790,40 @@
         <v>0.5</v>
       </c>
       <c r="B56">
-        <f>_xlfn.PERCENTILE.INC(B42:B50,0.5)</f>
-        <v>2568.331517562749</v>
+        <f t="shared" ref="B56:J56" si="35">_xlfn.PERCENTILE.INC(B42:B50,0.5)</f>
+        <v>2566.7473500874198</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:J56" si="49">_xlfn.PERCENTILE.INC(C42:C50,0.5)</f>
-        <v>2566.345022739541</v>
+        <f t="shared" si="35"/>
+        <v>2566.2339018018538</v>
       </c>
       <c r="D56">
-        <f t="shared" si="49"/>
-        <v>1881.076597105455</v>
+        <f t="shared" si="35"/>
+        <v>1882.472294050116</v>
       </c>
       <c r="E56">
-        <f t="shared" si="49"/>
-        <v>1085.73375776025</v>
+        <f t="shared" si="35"/>
+        <v>1087.541542830342</v>
       </c>
       <c r="F56">
-        <f t="shared" si="49"/>
-        <v>1.4993968272823869E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.607889292022564E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="49"/>
-        <v>-1.7467276665650899E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.2391415368077719E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="49"/>
-        <v>-4.7726841206608621E-4</v>
+        <f t="shared" si="35"/>
+        <v>-2.8711749807741962E-4</v>
       </c>
       <c r="I56">
-        <f t="shared" si="49"/>
-        <v>-1.0469810839746109E-3</v>
+        <f t="shared" si="35"/>
+        <v>-9.9318490087856775E-4</v>
       </c>
       <c r="J56">
-        <f t="shared" si="49"/>
-        <v>1.002900925638263E-3</v>
+        <f t="shared" si="35"/>
+        <v>4.7882115437307346E-3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -11827,40 +11831,40 @@
         <v>0.75</v>
       </c>
       <c r="B57">
-        <f>_xlfn.PERCENTILE.INC(B42:B50,0.75)</f>
+        <f t="shared" ref="B57:J57" si="36">_xlfn.PERCENTILE.INC(B42:B50,0.75)</f>
         <v>2568.331517562749</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:J57" si="50">_xlfn.PERCENTILE.INC(C42:C50,0.75)</f>
+        <f t="shared" si="36"/>
         <v>2566.3633349795691</v>
       </c>
       <c r="D57">
-        <f t="shared" si="50"/>
-        <v>1882.693465388822</v>
+        <f t="shared" si="36"/>
+        <v>1887.4573790140321</v>
       </c>
       <c r="E57">
-        <f t="shared" si="50"/>
-        <v>1089.0905737734649</v>
+        <f t="shared" si="36"/>
+        <v>1089.75695773947</v>
       </c>
       <c r="F57">
-        <f t="shared" si="50"/>
-        <v>1.8640679211118439E-2</v>
+        <f t="shared" si="36"/>
+        <v>1.9431304366281842E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="50"/>
-        <v>-1.543725825155039E-2</v>
+        <f t="shared" si="36"/>
+        <v>-1.7467276665650899E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="50"/>
-        <v>-2.8711749807741962E-4</v>
+        <f t="shared" si="36"/>
+        <v>-7.2889233124176796E-5</v>
       </c>
       <c r="I57">
-        <f t="shared" si="50"/>
-        <v>-7.8778645877229235E-4</v>
+        <f t="shared" si="36"/>
+        <v>-5.6993713936556679E-4</v>
       </c>
       <c r="J57">
-        <f t="shared" si="50"/>
-        <v>1.3733928883097589E-2</v>
+        <f t="shared" si="36"/>
+        <v>1.6715384970239239E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -11868,40 +11872,40 @@
         <v>201</v>
       </c>
       <c r="B58">
-        <f>MAX(B42:B50)</f>
+        <f t="shared" ref="B58:J58" si="37">MAX(B42:B50)</f>
         <v>2568.8477399788671</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:J58" si="51">MAX(C42:C50)</f>
+        <f t="shared" si="37"/>
         <v>2568.229680369177</v>
       </c>
       <c r="D58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>1890.600734446653</v>
       </c>
       <c r="E58">
-        <f t="shared" si="51"/>
-        <v>1090.424563612424</v>
+        <f t="shared" si="37"/>
+        <v>1090.7648342814771</v>
       </c>
       <c r="F58">
-        <f t="shared" si="51"/>
-        <v>2.0275037723317488E-2</v>
+        <f t="shared" si="37"/>
+        <v>2.1590727156079011E-2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>-1.0999307067406049E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>2.6194678292268669E-4</v>
       </c>
       <c r="I58">
-        <f t="shared" si="51"/>
-        <v>-4.4794240358797869E-4</v>
+        <f t="shared" si="37"/>
+        <v>-1.6202793395823689E-4</v>
       </c>
       <c r="J58">
-        <f t="shared" si="51"/>
-        <v>2.001292436804699E-2</v>
+        <f t="shared" si="37"/>
+        <v>2.1959541601242069E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -11973,72 +11977,72 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63">
-        <v>2582.4161491647001</v>
+        <v>2585.1257140547041</v>
       </c>
       <c r="C63">
-        <v>2574.4141084121752</v>
+        <v>2580.9352017085171</v>
       </c>
       <c r="D63">
-        <v>1887.6621824808981</v>
+        <v>1874.4877562699171</v>
       </c>
       <c r="E63">
-        <v>1081.6843541583839</v>
+        <v>1085.674666938806</v>
       </c>
       <c r="F63">
-        <v>1.8421599905162241E-2</v>
+        <v>1.992080733686941E-2</v>
       </c>
       <c r="G63">
-        <v>-3.8710763146317911E-2</v>
+        <v>-3.023174407026627E-2</v>
       </c>
       <c r="H63">
-        <v>-4.8730738394313838E-4</v>
+        <v>5.3669159764240329E-4</v>
       </c>
       <c r="I63">
-        <v>-4.8347928245445629E-4</v>
+        <v>-2.816839629262091E-3</v>
       </c>
       <c r="J63">
-        <v>2.5723447065227872E-2</v>
+        <v>1.372572347247617E-2</v>
       </c>
       <c r="K63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64">
-        <v>2585.1257140547041</v>
+        <v>2582.4161491647001</v>
       </c>
       <c r="C64">
-        <v>2580.9352017085171</v>
+        <v>2574.4141084121752</v>
       </c>
       <c r="D64">
-        <v>1874.4877562699171</v>
+        <v>1887.6621824808981</v>
       </c>
       <c r="E64">
-        <v>1085.674666938806</v>
+        <v>1081.6843541583839</v>
       </c>
       <c r="F64">
-        <v>1.992080733686941E-2</v>
+        <v>1.8421599905162241E-2</v>
       </c>
       <c r="G64">
-        <v>-3.023174407026627E-2</v>
+        <v>-3.8710763146317911E-2</v>
       </c>
       <c r="H64">
-        <v>5.3669159764240329E-4</v>
+        <v>-4.8730738394313838E-4</v>
       </c>
       <c r="I64">
-        <v>-2.816839629262091E-3</v>
+        <v>-4.8347928245445629E-4</v>
       </c>
       <c r="J64">
-        <v>1.372572347247617E-2</v>
+        <v>2.5723447065227872E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -12078,177 +12082,177 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B66">
-        <v>2568.0239079606481</v>
+        <v>2580.0736758425778</v>
       </c>
       <c r="C66">
-        <v>2564.58827129065</v>
+        <v>2576.3001560064849</v>
       </c>
       <c r="D66">
-        <v>1881.8602839479211</v>
+        <v>1878.604133333813</v>
       </c>
       <c r="E66">
-        <v>1084.1008209834581</v>
+        <v>1080.09103615718</v>
       </c>
       <c r="F66">
-        <v>2.430578027335608E-2</v>
+        <v>2.4101898036895161E-2</v>
       </c>
       <c r="G66">
-        <v>-5.6719432964175913E-2</v>
+        <v>-5.490709960384986E-2</v>
       </c>
       <c r="H66">
-        <v>-7.2880439578101842E-4</v>
+        <v>-2.9818924255780948E-4</v>
       </c>
       <c r="I66">
-        <v>-7.5234907669651202E-4</v>
+        <v>-1.3607374592341931E-3</v>
       </c>
       <c r="J66">
-        <v>4.3058763202481573E-2</v>
+        <v>3.9800882612462472E-2</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="B67">
-        <v>2577.7409923212258</v>
+        <v>2564.1125409894348</v>
       </c>
       <c r="C67">
-        <v>2574.0420439214859</v>
+        <v>2561.854987474077</v>
       </c>
       <c r="D67">
-        <v>1875.573579653257</v>
+        <v>1876.6943516438221</v>
       </c>
       <c r="E67">
-        <v>1083.0877684564421</v>
+        <v>1087.016330503312</v>
       </c>
       <c r="F67">
-        <v>2.2340529417268939E-2</v>
+        <v>2.2520482354488409E-2</v>
       </c>
       <c r="G67">
-        <v>-4.6983514630983311E-2</v>
+        <v>-4.9721775350181178E-2</v>
       </c>
       <c r="H67">
-        <v>9.7396565808828163E-5</v>
+        <v>-4.4361845815867748E-5</v>
       </c>
       <c r="I67">
-        <v>-2.1394432081289589E-3</v>
+        <v>-1.9802216944129819E-3</v>
       </c>
       <c r="J67">
-        <v>3.2470895429835847E-2</v>
+        <v>3.6826050971616731E-2</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B68">
-        <v>2580.0736758425778</v>
+        <v>2574.4454952890492</v>
       </c>
       <c r="C68">
-        <v>2576.3001560064849</v>
+        <v>2569.7910542221289</v>
       </c>
       <c r="D68">
-        <v>1878.604133333813</v>
+        <v>1881.326875881052</v>
       </c>
       <c r="E68">
-        <v>1080.09103615718</v>
+        <v>1083.615899583825</v>
       </c>
       <c r="F68">
-        <v>2.4101898036895161E-2</v>
+        <v>2.3388976716573438E-2</v>
       </c>
       <c r="G68">
-        <v>-5.490709960384986E-2</v>
+        <v>-5.1378060693878652E-2</v>
       </c>
       <c r="H68">
-        <v>-2.9818924255780948E-4</v>
+        <v>-6.0635248023774811E-4</v>
       </c>
       <c r="I68">
-        <v>-1.3607374592341931E-3</v>
+        <v>-9.5206428199611089E-4</v>
       </c>
       <c r="J68">
-        <v>3.9800882612462472E-2</v>
+        <v>3.77525839072635E-2</v>
       </c>
       <c r="K68" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="B69">
-        <v>2580.0736758425778</v>
+        <v>2568.0239079606481</v>
       </c>
       <c r="C69">
-        <v>2576.3001560064849</v>
+        <v>2564.58827129065</v>
       </c>
       <c r="D69">
-        <v>1878.604133333813</v>
+        <v>1881.8602839479211</v>
       </c>
       <c r="E69">
-        <v>1080.09103615718</v>
+        <v>1084.1008209834581</v>
       </c>
       <c r="F69">
-        <v>2.4101898036895161E-2</v>
+        <v>2.430578027335608E-2</v>
       </c>
       <c r="G69">
-        <v>-5.490709960384986E-2</v>
+        <v>-5.6719432964175913E-2</v>
       </c>
       <c r="H69">
-        <v>-2.9818924255780948E-4</v>
+        <v>-7.2880439578101842E-4</v>
       </c>
       <c r="I69">
-        <v>-1.3607374592341931E-3</v>
+        <v>-7.5234907669651202E-4</v>
       </c>
       <c r="J69">
-        <v>3.9800882612462472E-2</v>
+        <v>4.3058763202481573E-2</v>
       </c>
       <c r="K69" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="B70">
-        <v>2580.0736758425778</v>
+        <v>2577.7409923212258</v>
       </c>
       <c r="C70">
-        <v>2576.3001560064849</v>
+        <v>2574.0420439214859</v>
       </c>
       <c r="D70">
-        <v>1878.604133333813</v>
+        <v>1875.573579653257</v>
       </c>
       <c r="E70">
-        <v>1080.09103615718</v>
+        <v>1083.0877684564421</v>
       </c>
       <c r="F70">
-        <v>2.4101898036895161E-2</v>
+        <v>2.2340529417268939E-2</v>
       </c>
       <c r="G70">
-        <v>-5.490709960384986E-2</v>
+        <v>-4.6983514630983311E-2</v>
       </c>
       <c r="H70">
-        <v>-2.9818924255780948E-4</v>
+        <v>9.7396565808828163E-5</v>
       </c>
       <c r="I70">
-        <v>-1.3607374592341931E-3</v>
+        <v>-2.1394432081289589E-3</v>
       </c>
       <c r="J70">
-        <v>3.9800882612462472E-2</v>
+        <v>3.2470895429835847E-2</v>
       </c>
       <c r="K70" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -12256,40 +12260,40 @@
         <v>195</v>
       </c>
       <c r="B71">
-        <f>AVERAGE(B62:B70)</f>
-        <v>2575.3754435571673</v>
+        <f t="shared" ref="B71:J71" si="38">AVERAGE(B62:B70)</f>
+        <v>2572.9766307342038</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71" si="52">AVERAGE(C62:C70)</f>
-        <v>2571.714370762581</v>
+        <f t="shared" si="38"/>
+        <v>2569.3861185051633</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71" si="53">AVERAGE(D62:D70)</f>
-        <v>1878.7005772650289</v>
+        <f t="shared" si="38"/>
+        <v>1878.7909062491676</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71" si="54">AVERAGE(E62:E70)</f>
-        <v>1082.4030124751343</v>
+        <f t="shared" si="38"/>
+        <v>1083.5641411165539</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71" si="55">AVERAGE(F62:F70)</f>
-        <v>2.359009671416179E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.3335170380525294E-2</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71" si="56">AVERAGE(G62:G70)</f>
-        <v>-5.2909752822704798E-2</v>
+        <f t="shared" si="38"/>
+        <v>-5.194149024896702E-2</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71" si="57">AVERAGE(H62:H70)</f>
-        <v>-3.1443589708868573E-4</v>
+        <f t="shared" si="38"/>
+        <v>-3.204732127484631E-4</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71" si="58">AVERAGE(I62:I70)</f>
-        <v>-1.4152916947946688E-3</v>
+        <f t="shared" si="38"/>
+        <v>-1.4387151456769695E-3</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71" si="59">AVERAGE(J62:J70)</f>
-        <v>3.8502715260587822E-2</v>
+        <f t="shared" si="38"/>
+        <v>3.7944589666582866E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -12297,40 +12301,40 @@
         <v>196</v>
       </c>
       <c r="B72">
-        <f>_xlfn.STDEV.S(B62:B70)</f>
-        <v>9.6020939938181389</v>
+        <f t="shared" ref="B72:J72" si="39">_xlfn.STDEV.S(B62:B70)</f>
+        <v>9.8067830524891111</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:J72" si="60">_xlfn.STDEV.S(C62:C70)</f>
-        <v>7.9145094803986282</v>
+        <f t="shared" si="39"/>
+        <v>7.9935645060027296</v>
       </c>
       <c r="D72">
-        <f t="shared" si="60"/>
-        <v>4.0027935422160636</v>
+        <f t="shared" si="39"/>
+        <v>4.1684709127635768</v>
       </c>
       <c r="E72">
-        <f t="shared" si="60"/>
-        <v>2.5101547601309093</v>
+        <f t="shared" si="39"/>
+        <v>2.5083950854857737</v>
       </c>
       <c r="F72">
-        <f t="shared" si="60"/>
-        <v>3.3338312970831916E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.3352512079865364E-3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="60"/>
-        <v>1.3149347227616086E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.3130762359858135E-2</v>
       </c>
       <c r="H72">
-        <f t="shared" si="60"/>
-        <v>4.4270840730053232E-4</v>
+        <f t="shared" si="39"/>
+        <v>4.6438470119808194E-4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="60"/>
-        <v>7.0471149405966168E-4</v>
+        <f t="shared" si="39"/>
+        <v>7.4964838487944646E-4</v>
       </c>
       <c r="J72">
-        <f t="shared" si="60"/>
-        <v>1.3654418352241404E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.3641595443414324E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -12339,39 +12343,39 @@
       </c>
       <c r="B73">
         <f>B72/B71</f>
-        <v>3.7284249245444026E-3</v>
+        <v>3.8114543814145433E-3</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73" si="61">C72/C71</f>
-        <v>3.0775227491736446E-3</v>
+        <f t="shared" ref="C73" si="40">C72/C71</f>
+        <v>3.1110795097831715E-3</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="62">D72/D71</f>
-        <v>2.130618146742278E-3</v>
+        <f t="shared" ref="D73" si="41">D72/D71</f>
+        <v>2.2186986848289274E-3</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73" si="63">E72/E71</f>
-        <v>2.3190574408980353E-3</v>
+        <f t="shared" ref="E73" si="42">E72/E71</f>
+        <v>2.3149484098846321E-3</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="64">F72/F71</f>
-        <v>0.1413233416326691</v>
+        <f t="shared" ref="F73" si="43">F72/F71</f>
+        <v>0.14292808467214016</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73" si="65">G72/G71</f>
-        <v>-0.24852407214371633</v>
+        <f t="shared" ref="G73" si="44">G72/G71</f>
+        <v>-0.25279910716691983</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73" si="66">H72/H71</f>
-        <v>-1.407944866980845</v>
+        <f t="shared" ref="H73" si="45">H72/H71</f>
+        <v>-1.4490593370203888</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73" si="67">I72/I71</f>
-        <v>-0.4979266794622868</v>
+        <f t="shared" ref="I73" si="46">I72/I71</f>
+        <v>-0.52105407184457542</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73" si="68">J72/J71</f>
-        <v>0.35463520585049102</v>
+        <f t="shared" ref="J73" si="47">J72/J71</f>
+        <v>0.35951358449998572</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -12379,39 +12383,39 @@
         <v>197</v>
       </c>
       <c r="B74">
-        <f>MIN(B62:B70)</f>
+        <f t="shared" ref="B74:J74" si="48">MIN(B62:B70)</f>
         <v>2554.310662565978</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:J74" si="69">MIN(C62:C70)</f>
+        <f t="shared" si="48"/>
         <v>2555.2938600054349</v>
       </c>
       <c r="D74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>1874.4877562699171</v>
       </c>
       <c r="E74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>1080.09103615718</v>
       </c>
       <c r="F74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>1.8421599905162241E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>-7.4941654230298776E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>-1.0000101993035851E-3</v>
       </c>
       <c r="I74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>-2.816839629262091E-3</v>
       </c>
       <c r="J74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>1.372572347247617E-2</v>
       </c>
     </row>
@@ -12420,39 +12424,39 @@
         <v>0.25</v>
       </c>
       <c r="B75">
-        <f>_xlfn.PERCENTILE.INC(B62:B70,0.25)</f>
-        <v>2570.5405384195201</v>
+        <f t="shared" ref="B75:J75" si="49">_xlfn.PERCENTILE.INC(B62:B70,0.25)</f>
+        <v>2568.0239079606481</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:J75" si="70">_xlfn.PERCENTILE.INC(C62:C70,0.25)</f>
-        <v>2567.2553835055151</v>
+        <f t="shared" si="49"/>
+        <v>2564.58827129065</v>
       </c>
       <c r="D75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>1876.1072946968859</v>
       </c>
       <c r="E75">
-        <f t="shared" si="70"/>
-        <v>1080.09103615718</v>
+        <f t="shared" si="49"/>
+        <v>1081.6843541583839</v>
       </c>
       <c r="F75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>2.2340529417268939E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>-5.6719432964175913E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="70"/>
-        <v>-4.8730738394313838E-4</v>
+        <f t="shared" si="49"/>
+        <v>-6.0635248023774811E-4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="70"/>
-        <v>-1.455336538559127E-3</v>
+        <f t="shared" si="49"/>
+        <v>-1.9802216944129819E-3</v>
       </c>
       <c r="J75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>3.2470895429835847E-2</v>
       </c>
     </row>
@@ -12461,40 +12465,40 @@
         <v>0.5</v>
       </c>
       <c r="B76">
-        <f>_xlfn.PERCENTILE.INC(B62:B70,0.5)</f>
-        <v>2580.0736758425778</v>
+        <f t="shared" ref="B76:J76" si="50">_xlfn.PERCENTILE.INC(B62:B70,0.5)</f>
+        <v>2574.4454952890492</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:J76" si="71">_xlfn.PERCENTILE.INC(C62:C70,0.5)</f>
-        <v>2574.4141084121752</v>
+        <f t="shared" si="50"/>
+        <v>2569.7910542221289</v>
       </c>
       <c r="D76">
-        <f t="shared" si="71"/>
-        <v>1878.604133333813</v>
+        <f t="shared" si="50"/>
+        <v>1876.801698334943</v>
       </c>
       <c r="E76">
-        <f t="shared" si="71"/>
-        <v>1081.6843541583839</v>
+        <f t="shared" si="50"/>
+        <v>1083.615899583825</v>
       </c>
       <c r="F76">
-        <f t="shared" si="71"/>
-        <v>2.4101898036895161E-2</v>
+        <f t="shared" si="50"/>
+        <v>2.3388976716573438E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="71"/>
-        <v>-5.490709960384986E-2</v>
+        <f t="shared" si="50"/>
+        <v>-5.1378060693878652E-2</v>
       </c>
       <c r="H76">
-        <f t="shared" si="71"/>
-        <v>-2.9818924255780948E-4</v>
+        <f t="shared" si="50"/>
+        <v>-3.5332153054823162E-4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="71"/>
+        <f t="shared" si="50"/>
         <v>-1.3607374592341931E-3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="71"/>
-        <v>3.9800882612462472E-2</v>
+        <f t="shared" si="50"/>
+        <v>3.77525839072635E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -12502,39 +12506,39 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <f>_xlfn.PERCENTILE.INC(B62:B70,0.75)</f>
+        <f t="shared" ref="B77:J77" si="51">_xlfn.PERCENTILE.INC(B62:B70,0.75)</f>
         <v>2580.0736758425778</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:J77" si="72">_xlfn.PERCENTILE.INC(C62:C70,0.75)</f>
-        <v>2576.3001560064849</v>
+        <f t="shared" si="51"/>
+        <v>2574.4141084121752</v>
       </c>
       <c r="D77">
-        <f t="shared" si="72"/>
-        <v>1878.604133333813</v>
+        <f t="shared" si="51"/>
+        <v>1881.326875881052</v>
       </c>
       <c r="E77">
-        <f t="shared" si="72"/>
-        <v>1084.1008209834581</v>
+        <f t="shared" si="51"/>
+        <v>1085.674666938806</v>
       </c>
       <c r="F77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="51"/>
         <v>2.430578027335608E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="51"/>
         <v>-4.6983514630983311E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="72"/>
-        <v>-2.9818924255780948E-4</v>
+        <f t="shared" si="51"/>
+        <v>-4.4361845815867748E-5</v>
       </c>
       <c r="I77">
-        <f t="shared" si="72"/>
-        <v>-1.007965140348294E-3</v>
+        <f t="shared" si="51"/>
+        <v>-9.5206428199611089E-4</v>
       </c>
       <c r="J77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="51"/>
         <v>4.3058763202481573E-2</v>
       </c>
     </row>
@@ -12543,39 +12547,39 @@
         <v>201</v>
       </c>
       <c r="B78">
-        <f>MAX(B62:B70)</f>
+        <f t="shared" ref="B78:J78" si="52">MAX(B62:B70)</f>
         <v>2585.1257140547041</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:J78" si="73">MAX(C62:C70)</f>
+        <f t="shared" si="52"/>
         <v>2580.9352017085171</v>
       </c>
       <c r="D78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="52"/>
         <v>1887.6621824808981</v>
       </c>
       <c r="E78">
-        <f t="shared" si="73"/>
-        <v>1086.386394413094</v>
+        <f t="shared" si="52"/>
+        <v>1087.016330503312</v>
       </c>
       <c r="F78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="52"/>
         <v>3.0262810413980219E-2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="52"/>
         <v>-3.023174407026627E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="52"/>
         <v>5.3669159764240329E-4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="52"/>
         <v>-4.8347928245445629E-4</v>
       </c>
       <c r="J78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="52"/>
         <v>6.0243827654305519E-2</v>
       </c>
     </row>
@@ -12648,72 +12652,72 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83">
-        <v>2570.988814266605</v>
+        <v>2565.2578118403599</v>
       </c>
       <c r="C83">
-        <v>2572.7774008054712</v>
+        <v>2564.2608621803602</v>
       </c>
       <c r="D83">
-        <v>1866.2401118372941</v>
+        <v>1884.9127690589989</v>
       </c>
       <c r="E83">
-        <v>1085.170489716518</v>
+        <v>1086.2313380370349</v>
       </c>
       <c r="F83">
-        <v>1.7806900962534459E-2</v>
+        <v>1.7450883591152981E-2</v>
       </c>
       <c r="G83">
-        <v>-2.8251160190952661E-2</v>
+        <v>-3.742540489417482E-2</v>
       </c>
       <c r="H83">
-        <v>-8.4567513501052831E-4</v>
+        <v>-7.7243969708356707E-4</v>
       </c>
       <c r="I83">
-        <v>-2.5771771445094551E-3</v>
+        <v>-7.0490467479041334E-4</v>
       </c>
       <c r="J83">
-        <v>1.492412740462732E-2</v>
+        <v>2.3976743604227441E-2</v>
       </c>
       <c r="K83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84">
-        <v>2565.2578118403599</v>
+        <v>2570.988814266605</v>
       </c>
       <c r="C84">
-        <v>2564.2608621803602</v>
+        <v>2572.7774008054712</v>
       </c>
       <c r="D84">
-        <v>1884.9127690589989</v>
+        <v>1866.2401118372941</v>
       </c>
       <c r="E84">
-        <v>1086.2313380370349</v>
+        <v>1085.170489716518</v>
       </c>
       <c r="F84">
-        <v>1.7450883591152981E-2</v>
+        <v>1.7806900962534459E-2</v>
       </c>
       <c r="G84">
-        <v>-3.742540489417482E-2</v>
+        <v>-2.8251160190952661E-2</v>
       </c>
       <c r="H84">
-        <v>-7.7243969708356707E-4</v>
+        <v>-8.4567513501052831E-4</v>
       </c>
       <c r="I84">
-        <v>-7.0490467479041334E-4</v>
+        <v>-2.5771771445094551E-3</v>
       </c>
       <c r="J84">
-        <v>2.3976743604227441E-2</v>
+        <v>1.492412740462732E-2</v>
       </c>
       <c r="K84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -12753,177 +12757,177 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="B86">
-        <v>2572.6329201903709</v>
+        <v>2576.0114310129561</v>
       </c>
       <c r="C86">
-        <v>2570.4856339469161</v>
+        <v>2574.781815812923</v>
       </c>
       <c r="D86">
-        <v>1874.8848462878</v>
+        <v>1884.6587949424411</v>
       </c>
       <c r="E86">
-        <v>1085.452069202244</v>
+        <v>1086.052837959923</v>
       </c>
       <c r="F86">
-        <v>1.6658465377725241E-2</v>
+        <v>1.267811650761568E-2</v>
       </c>
       <c r="G86">
-        <v>-2.9077960142051669E-2</v>
+        <v>-2.097677936853665E-2</v>
       </c>
       <c r="H86">
-        <v>-8.5038748012698589E-4</v>
+        <v>-6.1956584931626877E-4</v>
       </c>
       <c r="I86">
-        <v>-2.0407986804434888E-3</v>
+        <v>-9.1297701965353459E-4</v>
       </c>
       <c r="J86">
-        <v>1.794840374428926E-2</v>
+        <v>1.102053951673403E-2</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="B87">
-        <v>2570.7238415286702</v>
+        <v>2565.4294141799669</v>
       </c>
       <c r="C87">
-        <v>2571.3929582554501</v>
+        <v>2565.572597579282</v>
       </c>
       <c r="D87">
-        <v>1881.120711908346</v>
+        <v>1874.9056471252311</v>
       </c>
       <c r="E87">
-        <v>1086.799083901841</v>
+        <v>1085.4092495634841</v>
       </c>
       <c r="F87">
-        <v>2.142667001966991E-2</v>
+        <v>2.1509105259147981E-2</v>
       </c>
       <c r="G87">
-        <v>-4.3163945348750947E-2</v>
+        <v>-3.6549392852983822E-2</v>
       </c>
       <c r="H87">
-        <v>-2.6730535856458153E-4</v>
+        <v>-5.1954400584838562E-4</v>
       </c>
       <c r="I87">
-        <v>-1.0036405652023069E-3</v>
+        <v>-1.8448046690166251E-3</v>
       </c>
       <c r="J87">
-        <v>2.724065844451741E-2</v>
+        <v>1.8333059518582929E-2</v>
       </c>
       <c r="K87" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B88">
-        <v>2576.0114310129561</v>
+        <v>2573.6148490510068</v>
       </c>
       <c r="C88">
-        <v>2574.781815812923</v>
+        <v>2572.4801798219528</v>
       </c>
       <c r="D88">
-        <v>1884.6587949424411</v>
+        <v>1874.409413004681</v>
       </c>
       <c r="E88">
-        <v>1086.052837959923</v>
+        <v>1086.9987746410361</v>
       </c>
       <c r="F88">
-        <v>1.267811650761568E-2</v>
+        <v>2.2424878231397018E-2</v>
       </c>
       <c r="G88">
-        <v>-2.097677936853665E-2</v>
+        <v>-4.8206922181325981E-2</v>
       </c>
       <c r="H88">
-        <v>-6.1956584931626877E-4</v>
+        <v>-5.3186073572022421E-4</v>
       </c>
       <c r="I88">
-        <v>-9.1297701965353459E-4</v>
+        <v>-1.8154539080004019E-3</v>
       </c>
       <c r="J88">
-        <v>1.102053951673403E-2</v>
+        <v>3.5225217677243882E-2</v>
       </c>
       <c r="K88" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="B89">
-        <v>2576.0114310129561</v>
+        <v>2572.6329201903709</v>
       </c>
       <c r="C89">
-        <v>2574.781815812923</v>
+        <v>2570.4856339469161</v>
       </c>
       <c r="D89">
-        <v>1884.6587949424411</v>
+        <v>1874.8848462878</v>
       </c>
       <c r="E89">
-        <v>1086.052837959923</v>
+        <v>1085.452069202244</v>
       </c>
       <c r="F89">
-        <v>1.267811650761568E-2</v>
+        <v>1.6658465377725241E-2</v>
       </c>
       <c r="G89">
-        <v>-2.097677936853665E-2</v>
+        <v>-2.9077960142051669E-2</v>
       </c>
       <c r="H89">
-        <v>-6.1956584931626877E-4</v>
+        <v>-8.5038748012698589E-4</v>
       </c>
       <c r="I89">
-        <v>-9.1297701965353459E-4</v>
+        <v>-2.0407986804434888E-3</v>
       </c>
       <c r="J89">
-        <v>1.102053951673403E-2</v>
+        <v>1.794840374428926E-2</v>
       </c>
       <c r="K89" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="B90">
-        <v>2576.0114310129561</v>
+        <v>2570.7238415286702</v>
       </c>
       <c r="C90">
-        <v>2574.781815812923</v>
+        <v>2571.3929582554501</v>
       </c>
       <c r="D90">
-        <v>1884.6587949424411</v>
+        <v>1881.120711908346</v>
       </c>
       <c r="E90">
-        <v>1086.052837959923</v>
+        <v>1086.799083901841</v>
       </c>
       <c r="F90">
-        <v>1.267811650761568E-2</v>
+        <v>2.142667001966991E-2</v>
       </c>
       <c r="G90">
-        <v>-2.097677936853665E-2</v>
+        <v>-4.3163945348750947E-2</v>
       </c>
       <c r="H90">
-        <v>-6.1956584931626877E-4</v>
+        <v>-2.6730535856458153E-4</v>
       </c>
       <c r="I90">
-        <v>-9.1297701965353459E-4</v>
+        <v>-1.0036405652023069E-3</v>
       </c>
       <c r="J90">
-        <v>1.102053951673403E-2</v>
+        <v>2.724065844451741E-2</v>
       </c>
       <c r="K90" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -12931,40 +12935,40 @@
         <v>195</v>
       </c>
       <c r="B91">
-        <f>AVERAGE(B82:B90)</f>
-        <v>2573.0930508365905</v>
+        <f t="shared" ref="B91:J91" si="53">AVERAGE(B82:B90)</f>
+        <v>2571.6509843038193</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91" si="74">AVERAGE(C82:C90)</f>
-        <v>2572.1964629316935</v>
+        <f t="shared" si="53"/>
+        <v>2570.9174791289593</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="75">AVERAGE(D82:D90)</f>
-        <v>1880.220689486536</v>
+        <f t="shared" si="53"/>
+        <v>1877.9981861804283</v>
       </c>
       <c r="E91">
-        <f t="shared" ref="E91" si="76">AVERAGE(E82:E90)</f>
-        <v>1086.1325501511108</v>
+        <f t="shared" si="53"/>
+        <v>1086.1661444049632</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="77">AVERAGE(F82:F90)</f>
-        <v>1.6981604511924962E-2</v>
+        <f t="shared" si="53"/>
+        <v>1.9045799009182029E-2</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91" si="78">AVERAGE(G82:G90)</f>
-        <v>-3.1376936570203136E-2</v>
+        <f t="shared" si="53"/>
+        <v>-3.6132798381007192E-2</v>
       </c>
       <c r="H91">
-        <f t="shared" ref="H91" si="79">AVERAGE(H82:H90)</f>
-        <v>-5.7682001317558098E-4</v>
+        <f t="shared" si="53"/>
+        <v>-5.5596146239069995E-4</v>
       </c>
       <c r="I91">
-        <f t="shared" ref="I91" si="80">AVERAGE(I82:I90)</f>
-        <v>-1.3181006302125961E-3</v>
+        <f t="shared" si="53"/>
+        <v>-1.5219122455137025E-3</v>
       </c>
       <c r="J91">
-        <f t="shared" ref="J91" si="81">AVERAGE(J82:J90)</f>
-        <v>1.9115316909108296E-2</v>
+        <f t="shared" si="53"/>
+        <v>2.261722781603704E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -12972,40 +12976,40 @@
         <v>196</v>
       </c>
       <c r="B92">
-        <f>_xlfn.STDEV.S(B82:B90)</f>
-        <v>3.6644910519459435</v>
+        <f t="shared" ref="B92:J92" si="54">_xlfn.STDEV.S(B82:B90)</f>
+        <v>4.041683882795434</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:J92" si="82">_xlfn.STDEV.S(C82:C90)</f>
-        <v>4.2443694941963823</v>
+        <f t="shared" si="54"/>
+        <v>4.4719007641737125</v>
       </c>
       <c r="D92">
-        <f t="shared" si="82"/>
-        <v>6.3972466312852632</v>
+        <f t="shared" si="54"/>
+        <v>6.1803061893864051</v>
       </c>
       <c r="E92">
-        <f t="shared" si="82"/>
-        <v>0.6741770378336186</v>
+        <f t="shared" si="54"/>
+        <v>0.78156580032244916</v>
       </c>
       <c r="F92">
-        <f t="shared" si="82"/>
-        <v>4.2828516096783502E-3</v>
+        <f t="shared" si="54"/>
+        <v>3.896824456791259E-3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="82"/>
-        <v>1.0165231793169808E-2</v>
+        <f t="shared" si="54"/>
+        <v>9.4655142836305283E-3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="82"/>
-        <v>3.5154429315357387E-4</v>
+        <f t="shared" si="54"/>
+        <v>3.5114079668152295E-4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="82"/>
-        <v>6.2243476593323898E-4</v>
+        <f t="shared" si="54"/>
+        <v>6.0436690839547566E-4</v>
       </c>
       <c r="J92">
-        <f t="shared" si="82"/>
-        <v>7.6397352573957505E-3</v>
+        <f t="shared" si="54"/>
+        <v>7.7913734808455733E-3</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -13014,39 +13018,39 @@
       </c>
       <c r="B93">
         <f>B92/B91</f>
-        <v>1.42415799955408E-3</v>
+        <v>1.5716300180172282E-3</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93" si="83">C92/C91</f>
-        <v>1.6500953777686205E-3</v>
+        <f t="shared" ref="C93" si="55">C92/C91</f>
+        <v>1.7394182428946792E-3</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93" si="84">D92/D91</f>
-        <v>3.4023913613206056E-3</v>
+        <f t="shared" ref="D93" si="56">D92/D91</f>
+        <v>3.290901042857894E-3</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93" si="85">E92/E91</f>
-        <v>6.2071340900318489E-4</v>
+        <f t="shared" ref="E93" si="57">E92/E91</f>
+        <v>7.1956376503579578E-4</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93" si="86">F92/F91</f>
-        <v>0.25220535589972143</v>
+        <f t="shared" ref="F93" si="58">F92/F91</f>
+        <v>0.2046028341952254</v>
       </c>
       <c r="G93">
-        <f t="shared" ref="G93" si="87">G92/G91</f>
-        <v>-0.32397145497062774</v>
+        <f t="shared" ref="G93" si="59">G92/G91</f>
+        <v>-0.26196460578060216</v>
       </c>
       <c r="H93">
-        <f t="shared" ref="H93" si="88">H92/H91</f>
-        <v>-0.60945231636157815</v>
+        <f t="shared" ref="H93" si="60">H92/H91</f>
+        <v>-0.63159197252913191</v>
       </c>
       <c r="I93">
-        <f t="shared" ref="I93" si="89">I92/I91</f>
-        <v>-0.47222097589987999</v>
+        <f t="shared" ref="I93" si="61">I92/I91</f>
+        <v>-0.39711022115567451</v>
       </c>
       <c r="J93">
-        <f t="shared" ref="J93" si="90">J92/J91</f>
-        <v>0.3996656343037388</v>
+        <f t="shared" ref="J93" si="62">J92/J91</f>
+        <v>0.34448843793849032</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -13054,39 +13058,39 @@
         <v>197</v>
       </c>
       <c r="B94">
-        <f>MIN(B82:B90)</f>
+        <f t="shared" ref="B94:J94" si="63">MIN(B82:B90)</f>
         <v>2565.2578118403599</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:J94" si="91">MIN(C82:C90)</f>
+        <f t="shared" si="63"/>
         <v>2564.2608621803602</v>
       </c>
       <c r="D94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1866.2401118372941</v>
       </c>
       <c r="E94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1085.170489716518</v>
       </c>
       <c r="F94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1.267811650761568E-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>-4.8989628433960153E-2</v>
       </c>
       <c r="H94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>-8.5038748012698589E-4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>-2.5771771445094551E-3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1.102053951673403E-2</v>
       </c>
     </row>
@@ -13095,40 +13099,40 @@
         <v>0.25</v>
       </c>
       <c r="B95">
-        <f>_xlfn.PERCENTILE.INC(B82:B90,0.25)</f>
-        <v>2570.988814266605</v>
+        <f t="shared" ref="B95:J95" si="64">_xlfn.PERCENTILE.INC(B82:B90,0.25)</f>
+        <v>2570.7238415286702</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:J95" si="92">_xlfn.PERCENTILE.INC(C82:C90,0.25)</f>
-        <v>2570.4856339469161</v>
+        <f t="shared" si="64"/>
+        <v>2568.011311246491</v>
       </c>
       <c r="D95">
-        <f t="shared" si="92"/>
-        <v>1877.149236896696</v>
+        <f t="shared" si="64"/>
+        <v>1874.8848462878</v>
       </c>
       <c r="E95">
-        <f t="shared" si="92"/>
-        <v>1085.932016007253</v>
+        <f t="shared" si="64"/>
+        <v>1085.452069202244</v>
       </c>
       <c r="F95">
-        <f t="shared" si="92"/>
-        <v>1.267811650761568E-2</v>
+        <f t="shared" si="64"/>
+        <v>1.6658465377725241E-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="92"/>
-        <v>-3.742540489417482E-2</v>
+        <f t="shared" si="64"/>
+        <v>-4.3163945348750947E-2</v>
       </c>
       <c r="H95">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>-8.2141124475396793E-4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="92"/>
-        <v>-1.474763542157637E-3</v>
+        <f t="shared" si="64"/>
+        <v>-1.8448046690166251E-3</v>
       </c>
       <c r="J95">
-        <f t="shared" si="92"/>
-        <v>1.102053951673403E-2</v>
+        <f t="shared" si="64"/>
+        <v>1.794840374428926E-2</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -13136,40 +13140,40 @@
         <v>0.5</v>
       </c>
       <c r="B96">
-        <f>_xlfn.PERCENTILE.INC(B82:B90,0.5)</f>
-        <v>2574.0561736436262</v>
+        <f t="shared" ref="B96:J96" si="65">_xlfn.PERCENTILE.INC(B82:B90,0.5)</f>
+        <v>2572.6329201903709</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:J96" si="93">_xlfn.PERCENTILE.INC(C82:C90,0.5)</f>
-        <v>2572.7774008054712</v>
+        <f t="shared" si="65"/>
+        <v>2571.3929582554501</v>
       </c>
       <c r="D96">
-        <f t="shared" si="93"/>
-        <v>1883.7021445623659</v>
+        <f t="shared" si="65"/>
+        <v>1877.149236896696</v>
       </c>
       <c r="E96">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>1086.052837959923</v>
       </c>
       <c r="F96">
-        <f t="shared" si="93"/>
-        <v>1.6658465377725241E-2</v>
+        <f t="shared" si="65"/>
+        <v>1.7806900962534459E-2</v>
       </c>
       <c r="G96">
-        <f t="shared" si="93"/>
-        <v>-2.9077960142051669E-2</v>
+        <f t="shared" si="65"/>
+        <v>-3.6549392852983822E-2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>-6.1956584931626877E-4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="93"/>
-        <v>-1.0036405652023069E-3</v>
+        <f t="shared" si="65"/>
+        <v>-1.474763542157637E-3</v>
       </c>
       <c r="J96">
-        <f t="shared" si="93"/>
-        <v>1.794840374428926E-2</v>
+        <f t="shared" si="65"/>
+        <v>2.3976743604227441E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -13177,40 +13181,40 @@
         <v>0.75</v>
       </c>
       <c r="B97">
-        <f>_xlfn.PERCENTILE.INC(B82:B90,0.75)</f>
-        <v>2576.0114310129561</v>
+        <f t="shared" ref="B97:J97" si="66">_xlfn.PERCENTILE.INC(B82:B90,0.75)</f>
+        <v>2574.0561736436262</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:J97" si="94">_xlfn.PERCENTILE.INC(C82:C90,0.75)</f>
-        <v>2574.781815812923</v>
+        <f t="shared" si="66"/>
+        <v>2572.7774008054712</v>
       </c>
       <c r="D97">
-        <f t="shared" si="94"/>
-        <v>1884.6587949424411</v>
+        <f t="shared" si="66"/>
+        <v>1883.7021445623659</v>
       </c>
       <c r="E97">
-        <f t="shared" si="94"/>
-        <v>1086.2313380370349</v>
+        <f t="shared" si="66"/>
+        <v>1086.799083901841</v>
       </c>
       <c r="F97">
-        <f t="shared" si="94"/>
-        <v>1.7806900962534459E-2</v>
+        <f t="shared" si="66"/>
+        <v>2.1509105259147981E-2</v>
       </c>
       <c r="G97">
-        <f t="shared" si="94"/>
-        <v>-2.097677936853665E-2</v>
+        <f t="shared" si="66"/>
+        <v>-2.9077960142051669E-2</v>
       </c>
       <c r="H97">
-        <f t="shared" si="94"/>
-        <v>-6.1956584931626877E-4</v>
+        <f t="shared" si="66"/>
+        <v>-5.1954400584838562E-4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="94"/>
-        <v>-9.1297701965353459E-4</v>
+        <f t="shared" si="66"/>
+        <v>-1.0036405652023069E-3</v>
       </c>
       <c r="J97">
-        <f t="shared" si="94"/>
-        <v>2.4047553086739969E-2</v>
+        <f t="shared" si="66"/>
+        <v>2.724065844451741E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -13218,40 +13222,40 @@
         <v>201</v>
       </c>
       <c r="B98">
-        <f>MAX(B82:B90)</f>
+        <f t="shared" ref="B98:J98" si="67">MAX(B82:B90)</f>
         <v>2576.1436030208101</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:J98" si="95">MAX(C82:C90)</f>
+        <f t="shared" si="67"/>
         <v>2578.494552511786</v>
       </c>
       <c r="D98">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>1884.9127690589989</v>
       </c>
       <c r="E98">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>1087.4494406153351</v>
       </c>
       <c r="F98">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>2.5329586483403641E-2</v>
       </c>
       <c r="G98">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>-2.097677936853665E-2</v>
       </c>
       <c r="H98">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>2.2453634490820939E-4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>-7.0490467479041334E-4</v>
       </c>
       <c r="J98">
-        <f t="shared" si="95"/>
-        <v>3.0838747347371121E-2</v>
+        <f t="shared" si="67"/>
+        <v>3.5225217677243882E-2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -13323,72 +13327,72 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B103">
-        <v>2583.9208633957678</v>
+        <v>2574.4630137159979</v>
       </c>
       <c r="C103">
-        <v>2581.7813119246612</v>
+        <v>2575.368631701911</v>
       </c>
       <c r="D103">
-        <v>1879.5244034728851</v>
+        <v>1886.701874622586</v>
       </c>
       <c r="E103">
-        <v>1089.986790978453</v>
+        <v>1087.720530155206</v>
       </c>
       <c r="F103">
-        <v>2.0138105504998071E-2</v>
+        <v>1.0953067113164509E-2</v>
       </c>
       <c r="G103">
-        <v>-4.4110445629502587E-2</v>
+        <v>-1.155284436316445E-2</v>
       </c>
       <c r="H103">
-        <v>-2.8141997454441211E-4</v>
+        <v>-1.2056732717548311E-3</v>
       </c>
       <c r="I103">
-        <v>-1.6212773570959159E-3</v>
+        <v>-1.037405768938408E-4</v>
       </c>
       <c r="J103">
-        <v>3.173283478335491E-2</v>
+        <v>-5.5721252945466222E-3</v>
       </c>
       <c r="K103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B104">
-        <v>2574.4630137159979</v>
+        <v>2583.9208633957678</v>
       </c>
       <c r="C104">
-        <v>2575.368631701911</v>
+        <v>2581.7813119246612</v>
       </c>
       <c r="D104">
-        <v>1886.701874622586</v>
+        <v>1879.5244034728851</v>
       </c>
       <c r="E104">
-        <v>1087.720530155206</v>
+        <v>1089.986790978453</v>
       </c>
       <c r="F104">
-        <v>1.0953067113164509E-2</v>
+        <v>2.0138105504998071E-2</v>
       </c>
       <c r="G104">
-        <v>-1.155284436316445E-2</v>
+        <v>-4.4110445629502587E-2</v>
       </c>
       <c r="H104">
-        <v>-1.2056732717548311E-3</v>
+        <v>-2.8141997454441211E-4</v>
       </c>
       <c r="I104">
-        <v>-1.037405768938408E-4</v>
+        <v>-1.6212773570959159E-3</v>
       </c>
       <c r="J104">
-        <v>-5.5721252945466222E-3</v>
+        <v>3.173283478335491E-2</v>
       </c>
       <c r="K104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -13428,177 +13432,177 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="B106">
-        <v>2582.3636582871181</v>
+        <v>2581.0047189028319</v>
       </c>
       <c r="C106">
-        <v>2578.4337964387619</v>
+        <v>2581.2822571350962</v>
       </c>
       <c r="D106">
-        <v>1883.184626567969</v>
+        <v>1901.9663994083539</v>
       </c>
       <c r="E106">
-        <v>1088.577432397768</v>
+        <v>1093.511863933913</v>
       </c>
       <c r="F106">
-        <v>2.2403448575093899E-2</v>
+        <v>1.0810618742577129E-2</v>
       </c>
       <c r="G106">
-        <v>-5.0914422210198138E-2</v>
+        <v>-9.0103882744040961E-3</v>
       </c>
       <c r="H106">
-        <v>-3.9698626759959488E-4</v>
+        <v>-5.6978989317871438E-4</v>
       </c>
       <c r="I106">
-        <v>-9.9039732724551808E-4</v>
+        <v>1.2848380290770439E-3</v>
       </c>
       <c r="J106">
-        <v>3.7569904174690777E-2</v>
+        <v>-7.6223977565524478E-3</v>
       </c>
       <c r="K106" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="B107">
-        <v>2576.6012545173048</v>
+        <v>2579.0819677568588</v>
       </c>
       <c r="C107">
-        <v>2577.855871973069</v>
+        <v>2578.5364490963161</v>
       </c>
       <c r="D107">
-        <v>1888.2785112135859</v>
+        <v>1880.300677916124</v>
       </c>
       <c r="E107">
-        <v>1090.4193830059289</v>
+        <v>1088.3192719676099</v>
       </c>
       <c r="F107">
-        <v>1.3406736305894149E-2</v>
+        <v>2.075960866657563E-2</v>
       </c>
       <c r="G107">
-        <v>-1.9187373219107962E-2</v>
+        <v>-4.1520192937792189E-2</v>
       </c>
       <c r="H107">
-        <v>-8.1452088740527654E-4</v>
+        <v>-5.9764440835762271E-4</v>
       </c>
       <c r="I107">
-        <v>1.8200885997306709E-5</v>
+        <v>-1.2168733274504811E-3</v>
       </c>
       <c r="J107">
-        <v>2.8914827308988548E-3</v>
+        <v>2.340050894146398E-2</v>
       </c>
       <c r="K107" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B108">
-        <v>2581.0047189028319</v>
+        <v>2578.7155703346039</v>
       </c>
       <c r="C108">
-        <v>2581.2822571350962</v>
+        <v>2574.8240134607049</v>
       </c>
       <c r="D108">
-        <v>1901.9663994083539</v>
+        <v>1875.354949863038</v>
       </c>
       <c r="E108">
-        <v>1093.511863933913</v>
+        <v>1086.830312752154</v>
       </c>
       <c r="F108">
-        <v>1.0810618742577129E-2</v>
+        <v>2.0234239416670921E-2</v>
       </c>
       <c r="G108">
-        <v>-9.0103882744040961E-3</v>
+        <v>-4.6344342398438293E-2</v>
       </c>
       <c r="H108">
-        <v>-5.6978989317871438E-4</v>
+        <v>-6.4333730832459254E-4</v>
       </c>
       <c r="I108">
-        <v>1.2848380290770439E-3</v>
+        <v>-1.4829346124091581E-3</v>
       </c>
       <c r="J108">
-        <v>-7.6223977565524478E-3</v>
+        <v>3.5104172333166081E-2</v>
       </c>
       <c r="K108" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="B109">
-        <v>2581.0047189028319</v>
+        <v>2582.3636582871181</v>
       </c>
       <c r="C109">
-        <v>2581.2822571350962</v>
+        <v>2578.4337964387619</v>
       </c>
       <c r="D109">
-        <v>1901.9663994083539</v>
+        <v>1883.184626567969</v>
       </c>
       <c r="E109">
-        <v>1093.511863933913</v>
+        <v>1088.577432397768</v>
       </c>
       <c r="F109">
-        <v>1.0810618742577129E-2</v>
+        <v>2.2403448575093899E-2</v>
       </c>
       <c r="G109">
-        <v>-9.0103882744040961E-3</v>
+        <v>-5.0914422210198138E-2</v>
       </c>
       <c r="H109">
-        <v>-5.6978989317871438E-4</v>
+        <v>-3.9698626759959488E-4</v>
       </c>
       <c r="I109">
-        <v>1.2848380290770439E-3</v>
+        <v>-9.9039732724551808E-4</v>
       </c>
       <c r="J109">
-        <v>-7.6223977565524478E-3</v>
+        <v>3.7569904174690777E-2</v>
       </c>
       <c r="K109" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="B110">
-        <v>2581.0047189028319</v>
+        <v>2576.6012545173048</v>
       </c>
       <c r="C110">
-        <v>2581.2822571350962</v>
+        <v>2577.855871973069</v>
       </c>
       <c r="D110">
-        <v>1901.9663994083539</v>
+        <v>1888.2785112135859</v>
       </c>
       <c r="E110">
-        <v>1093.511863933913</v>
+        <v>1090.4193830059289</v>
       </c>
       <c r="F110">
-        <v>1.0810618742577129E-2</v>
+        <v>1.3406736305894149E-2</v>
       </c>
       <c r="G110">
-        <v>-9.0103882744040961E-3</v>
+        <v>-1.9187373219107962E-2</v>
       </c>
       <c r="H110">
-        <v>-5.6978989317871438E-4</v>
+        <v>-8.1452088740527654E-4</v>
       </c>
       <c r="I110">
-        <v>1.2848380290770439E-3</v>
+        <v>1.8200885997306709E-5</v>
       </c>
       <c r="J110">
-        <v>-7.6223977565524478E-3</v>
+        <v>2.8914827308988548E-3</v>
       </c>
       <c r="K110" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -13606,40 +13610,40 @@
         <v>195</v>
       </c>
       <c r="B111">
-        <f>AVERAGE(B102:B110)</f>
-        <v>2579.9785069681375</v>
+        <f t="shared" ref="B111:J111" si="68">AVERAGE(B102:B110)</f>
+        <v>2579.5105181110034</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111" si="96">AVERAGE(C102:C110)</f>
-        <v>2579.1749362014289</v>
+        <f t="shared" si="68"/>
+        <v>2578.1522637888552</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111" si="97">AVERAGE(D102:D110)</f>
-        <v>1891.2527341311263</v>
+        <f t="shared" si="68"/>
+        <v>1885.8886040158436</v>
       </c>
       <c r="E111">
-        <f t="shared" ref="E111" si="98">AVERAGE(E102:E110)</f>
-        <v>1090.8383872561226</v>
+        <f t="shared" si="68"/>
+        <v>1089.519038017449</v>
       </c>
       <c r="F111">
-        <f t="shared" ref="F111" si="99">AVERAGE(F102:F110)</f>
-        <v>1.5550894676353153E-2</v>
+        <f t="shared" si="68"/>
+        <v>1.7703406965030075E-2</v>
       </c>
       <c r="G111">
-        <f t="shared" ref="G111" si="100">AVERAGE(G102:G110)</f>
-        <v>-2.6455738146246671E-2</v>
+        <f t="shared" si="68"/>
+        <v>-3.4216155789293587E-2</v>
       </c>
       <c r="H111">
-        <f t="shared" ref="H111" si="101">AVERAGE(H102:H110)</f>
-        <v>-5.9506832098094812E-4</v>
+        <f t="shared" si="68"/>
+        <v>-6.0633520212814663E-4</v>
       </c>
       <c r="I111">
-        <f t="shared" ref="I111" si="102">AVERAGE(I102:I110)</f>
-        <v>1.1772912911645078E-4</v>
+        <f t="shared" si="68"/>
+        <v>-4.6776909288507435E-4</v>
       </c>
       <c r="J111">
-        <f t="shared" ref="J111" si="103">AVERAGE(J102:J110)</f>
-        <v>1.1069289881376905E-2</v>
+        <f t="shared" si="68"/>
+        <v>1.9263676191125231E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -13647,40 +13651,40 @@
         <v>196</v>
       </c>
       <c r="B112">
-        <f>_xlfn.STDEV.S(B102:B110)</f>
-        <v>2.9262200026644036</v>
+        <f t="shared" ref="B112:J112" si="69">_xlfn.STDEV.S(B102:B110)</f>
+        <v>2.8901460933272212</v>
       </c>
       <c r="C112">
-        <f t="shared" ref="C112:J112" si="104">_xlfn.STDEV.S(C102:C110)</f>
-        <v>2.6372497996099225</v>
+        <f t="shared" si="69"/>
+        <v>2.6618732529363434</v>
       </c>
       <c r="D112">
-        <f t="shared" si="104"/>
-        <v>8.6104698268679272</v>
+        <f t="shared" si="69"/>
+        <v>7.7239750994741767</v>
       </c>
       <c r="E112">
-        <f t="shared" si="104"/>
-        <v>2.6746281905849427</v>
+        <f t="shared" si="69"/>
+        <v>2.4919518934333009</v>
       </c>
       <c r="F112">
-        <f t="shared" si="104"/>
-        <v>5.4946325737744517E-3</v>
+        <f t="shared" si="69"/>
+        <v>5.049159609802018E-3</v>
       </c>
       <c r="G112">
-        <f t="shared" si="104"/>
-        <v>1.9510609001935787E-2</v>
+        <f t="shared" si="69"/>
+        <v>1.7738052613046121E-2</v>
       </c>
       <c r="H112">
-        <f t="shared" si="104"/>
-        <v>2.7343945277161008E-4</v>
+        <f t="shared" si="69"/>
+        <v>2.7342026367395536E-4</v>
       </c>
       <c r="I112">
-        <f t="shared" si="104"/>
-        <v>1.0358578671878259E-3</v>
+        <f t="shared" si="69"/>
+        <v>9.4324840433151298E-4</v>
       </c>
       <c r="J112">
-        <f t="shared" si="104"/>
-        <v>2.1014740608624766E-2</v>
+        <f t="shared" si="69"/>
+        <v>1.9234081224200318E-2</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -13689,39 +13693,39 @@
       </c>
       <c r="B113">
         <f>B112/B111</f>
-        <v>1.1342032481127728E-3</v>
+        <v>1.1204242328283658E-3</v>
       </c>
       <c r="C113">
-        <f t="shared" ref="C113" si="105">C112/C111</f>
-        <v>1.0225168376884219E-3</v>
+        <f t="shared" ref="C113" si="70">C112/C111</f>
+        <v>1.0324732523844234E-3</v>
       </c>
       <c r="D113">
-        <f t="shared" ref="D113" si="106">D112/D111</f>
-        <v>4.5527864528501121E-3</v>
+        <f t="shared" ref="D113" si="71">D112/D111</f>
+        <v>4.0956687913732614E-3</v>
       </c>
       <c r="E113">
-        <f t="shared" ref="E113" si="107">E112/E111</f>
-        <v>2.4519014198910432E-3</v>
+        <f t="shared" ref="E113" si="72">E112/E111</f>
+        <v>2.2872036251590415E-3</v>
       </c>
       <c r="F113">
-        <f t="shared" ref="F113" si="108">F112/F111</f>
-        <v>0.35333224795931806</v>
+        <f t="shared" ref="F113" si="73">F112/F111</f>
+        <v>0.28520835677424877</v>
       </c>
       <c r="G113">
-        <f t="shared" ref="G113" si="109">G112/G111</f>
-        <v>-0.73748118060745915</v>
+        <f t="shared" ref="G113" si="74">G112/G111</f>
+        <v>-0.51841161591263418</v>
       </c>
       <c r="H113">
-        <f t="shared" ref="H113" si="110">H112/H111</f>
-        <v>-0.45950934225645762</v>
+        <f t="shared" ref="H113" si="75">H112/H111</f>
+        <v>-0.45093912198119257</v>
       </c>
       <c r="I113">
-        <f t="shared" ref="I113" si="111">I112/I111</f>
-        <v>8.7986539521855782</v>
+        <f t="shared" ref="I113" si="76">I112/I111</f>
+        <v>-2.0164829585336852</v>
       </c>
       <c r="J113">
-        <f t="shared" ref="J113" si="112">J112/J111</f>
-        <v>1.8984723350664252</v>
+        <f t="shared" ref="J113" si="77">J112/J111</f>
+        <v>0.99846369059408568</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -13729,39 +13733,39 @@
         <v>197</v>
       </c>
       <c r="B114">
-        <f>MIN(B102:B110)</f>
+        <f t="shared" ref="B114:J114" si="78">MIN(B102:B110)</f>
         <v>2574.4630137159979</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:J114" si="113">MIN(C102:C110)</f>
-        <v>2574.992557534611</v>
+        <f t="shared" si="78"/>
+        <v>2574.8240134607049</v>
       </c>
       <c r="D114">
-        <f t="shared" si="113"/>
-        <v>1879.5244034728851</v>
+        <f t="shared" si="78"/>
+        <v>1875.354949863038</v>
       </c>
       <c r="E114">
-        <f t="shared" si="113"/>
-        <v>1087.061513096013</v>
+        <f t="shared" si="78"/>
+        <v>1086.830312752154</v>
       </c>
       <c r="F114">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>1.0810618742577129E-2</v>
       </c>
       <c r="G114">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-5.7191712942197041E-2</v>
       </c>
       <c r="H114">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-1.2056732717548311E-3</v>
       </c>
       <c r="I114">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-1.6212773570959159E-3</v>
       </c>
       <c r="J114">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-7.6223977565524478E-3</v>
       </c>
     </row>
@@ -13770,40 +13774,40 @@
         <v>0.25</v>
       </c>
       <c r="B115">
-        <f>_xlfn.PERCENTILE.INC(B102:B110,0.25)</f>
+        <f t="shared" ref="B115:J115" si="79">_xlfn.PERCENTILE.INC(B102:B110,0.25)</f>
         <v>2578.6841747747071</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:J115" si="114">_xlfn.PERCENTILE.INC(C102:C110,0.25)</f>
-        <v>2577.855871973069</v>
+        <f t="shared" si="79"/>
+        <v>2575.368631701911</v>
       </c>
       <c r="D115">
-        <f t="shared" si="114"/>
-        <v>1886.701874622586</v>
+        <f t="shared" si="79"/>
+        <v>1880.300677916124</v>
       </c>
       <c r="E115">
-        <f t="shared" si="114"/>
-        <v>1088.577432397768</v>
+        <f t="shared" si="79"/>
+        <v>1087.720530155206</v>
       </c>
       <c r="F115">
-        <f t="shared" si="114"/>
-        <v>1.0810618742577129E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.3406736305894149E-2</v>
       </c>
       <c r="G115">
-        <f t="shared" si="114"/>
-        <v>-4.4110445629502587E-2</v>
+        <f t="shared" si="79"/>
+        <v>-4.6344342398438293E-2</v>
       </c>
       <c r="H115">
-        <f t="shared" si="114"/>
-        <v>-5.6978989317871438E-4</v>
+        <f t="shared" si="79"/>
+        <v>-6.4333730832459254E-4</v>
       </c>
       <c r="I115">
-        <f t="shared" si="114"/>
-        <v>-3.0482813452718132E-4</v>
+        <f t="shared" si="79"/>
+        <v>-1.2168733274504811E-3</v>
       </c>
       <c r="J115">
-        <f t="shared" si="114"/>
-        <v>-7.6223977565524478E-3</v>
+        <f t="shared" si="79"/>
+        <v>2.8914827308988548E-3</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -13811,40 +13815,40 @@
         <v>0.5</v>
       </c>
       <c r="B116">
-        <f>_xlfn.PERCENTILE.INC(B102:B110,0.5)</f>
-        <v>2581.0047189028319</v>
+        <f t="shared" ref="B116:J116" si="80">_xlfn.PERCENTILE.INC(B102:B110,0.5)</f>
+        <v>2579.0819677568588</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:J116" si="115">_xlfn.PERCENTILE.INC(C102:C110,0.5)</f>
-        <v>2580.2954848345639</v>
+        <f t="shared" si="80"/>
+        <v>2578.4337964387619</v>
       </c>
       <c r="D116">
-        <f t="shared" si="115"/>
-        <v>1888.2785112135859</v>
+        <f t="shared" si="80"/>
+        <v>1886.701874622586</v>
       </c>
       <c r="E116">
-        <f t="shared" si="115"/>
-        <v>1090.4193830059289</v>
+        <f t="shared" si="80"/>
+        <v>1088.577432397768</v>
       </c>
       <c r="F116">
-        <f t="shared" si="115"/>
-        <v>1.3406736305894149E-2</v>
+        <f t="shared" si="80"/>
+        <v>2.0138105504998071E-2</v>
       </c>
       <c r="G116">
-        <f t="shared" si="115"/>
-        <v>-1.9187373219107962E-2</v>
+        <f t="shared" si="80"/>
+        <v>-4.1520192937792189E-2</v>
       </c>
       <c r="H116">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>-5.6978989317871438E-4</v>
       </c>
       <c r="I116">
-        <f t="shared" si="115"/>
-        <v>1.8200885997306709E-5</v>
+        <f t="shared" si="80"/>
+        <v>-3.0482813452718132E-4</v>
       </c>
       <c r="J116">
-        <f t="shared" si="115"/>
-        <v>2.8914827308988548E-3</v>
+        <f t="shared" si="80"/>
+        <v>2.340050894146398E-2</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -13852,40 +13856,40 @@
         <v>0.75</v>
       </c>
       <c r="B117">
-        <f>_xlfn.PERCENTILE.INC(B102:B110,0.75)</f>
+        <f t="shared" ref="B117:J117" si="81">_xlfn.PERCENTILE.INC(B102:B110,0.75)</f>
         <v>2581.0047189028319</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:J117" si="116">_xlfn.PERCENTILE.INC(C102:C110,0.75)</f>
-        <v>2581.2822571350962</v>
+        <f t="shared" si="81"/>
+        <v>2580.2954848345639</v>
       </c>
       <c r="D117">
-        <f t="shared" si="116"/>
-        <v>1901.9663994083539</v>
+        <f t="shared" si="81"/>
+        <v>1888.2785112135859</v>
       </c>
       <c r="E117">
-        <f t="shared" si="116"/>
-        <v>1093.511863933913</v>
+        <f t="shared" si="81"/>
+        <v>1090.4193830059289</v>
       </c>
       <c r="F117">
-        <f t="shared" si="116"/>
-        <v>2.0138105504998071E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.075960866657563E-2</v>
       </c>
       <c r="G117">
-        <f t="shared" si="116"/>
-        <v>-9.0103882744040961E-3</v>
+        <f t="shared" si="81"/>
+        <v>-1.9187373219107962E-2</v>
       </c>
       <c r="H117">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>-4.0969240620078711E-4</v>
       </c>
       <c r="I117">
-        <f t="shared" si="116"/>
-        <v>1.2848380290770439E-3</v>
+        <f t="shared" si="81"/>
+        <v>1.8200885997306709E-5</v>
       </c>
       <c r="J117">
-        <f t="shared" si="116"/>
-        <v>3.173283478335491E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.5104172333166081E-2</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -13893,39 +13897,39 @@
         <v>201</v>
       </c>
       <c r="B118">
-        <f>MAX(B102:B110)</f>
+        <f t="shared" ref="B118:J118" si="82">MAX(B102:B110)</f>
         <v>2583.9208633957678</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:J118" si="117">MAX(C102:C110)</f>
+        <f t="shared" si="82"/>
         <v>2581.7813119246612</v>
       </c>
       <c r="D118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>1901.9663994083539</v>
       </c>
       <c r="E118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>1093.511863933913</v>
       </c>
       <c r="F118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>2.4497845469115959E-2</v>
       </c>
       <c r="G118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>-9.0103882744040961E-3</v>
       </c>
       <c r="H118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>-2.8141997454441211E-4</v>
       </c>
       <c r="I118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>1.2848380290770439E-3</v>
       </c>
       <c r="J118">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>4.2815186992196518E-2</v>
       </c>
     </row>
@@ -13938,7 +13942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D9C714-6075-41DB-BFFA-8EE296B77BB6}">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13979,352 +13985,352 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>2559.2442124498548</v>
+        <v>2560.3250719154689</v>
       </c>
       <c r="C2">
-        <v>2558.2999468310941</v>
+        <v>2559.3114292453388</v>
       </c>
       <c r="D2">
-        <v>1877.0323233168949</v>
+        <v>1877.2108223255871</v>
       </c>
       <c r="E2">
-        <v>1083.9222647102411</v>
+        <v>1082.730592385439</v>
       </c>
       <c r="F2">
-        <v>1.9691500214117561E-2</v>
+        <v>1.642636579096372E-2</v>
       </c>
       <c r="G2">
-        <v>-5.2558424170075731E-2</v>
+        <v>-3.6020581785692278E-2</v>
       </c>
       <c r="H2">
-        <v>-4.1173609351940398E-4</v>
+        <v>-7.3939347906975357E-4</v>
       </c>
       <c r="I2">
-        <v>-1.336453436259702E-3</v>
+        <v>-1.368150344723345E-3</v>
       </c>
       <c r="J2">
-        <v>4.5636271743042578E-2</v>
+        <v>2.3605487472608051E-2</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>2563.2551357171451</v>
+        <v>2559.2442124498548</v>
       </c>
       <c r="C3">
-        <v>2562.0951304840828</v>
+        <v>2558.2999468310941</v>
       </c>
       <c r="D3">
-        <v>1878.699240979849</v>
+        <v>1877.0323233168949</v>
       </c>
       <c r="E3">
-        <v>1082.7975452451631</v>
+        <v>1083.9222647102411</v>
       </c>
       <c r="F3">
-        <v>1.7453941897979199E-2</v>
+        <v>1.9691500214117561E-2</v>
       </c>
       <c r="G3">
-        <v>-4.0635804216452132E-2</v>
+        <v>-5.2558424170075731E-2</v>
       </c>
       <c r="H3">
-        <v>-5.793191275226203E-4</v>
+        <v>-4.1173609351940398E-4</v>
       </c>
       <c r="I3">
-        <v>-1.2886749201244121E-3</v>
+        <v>-1.336453436259702E-3</v>
       </c>
       <c r="J3">
-        <v>3.0814333731407739E-2</v>
+        <v>4.5636271743042578E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>2562.0411041949401</v>
+        <v>2559.3036759101651</v>
       </c>
       <c r="C4">
-        <v>2560.6623012780392</v>
+        <v>2558.3789295015549</v>
       </c>
       <c r="D4">
-        <v>1874.928689748253</v>
+        <v>1877.1643691858339</v>
       </c>
       <c r="E4">
-        <v>1081.8406559988221</v>
+        <v>1083.9645046742321</v>
       </c>
       <c r="F4">
-        <v>2.0557415921373719E-2</v>
+        <v>1.9660108213934151E-2</v>
       </c>
       <c r="G4">
-        <v>-5.5257019392604273E-2</v>
+        <v>-5.2425407728672851E-2</v>
       </c>
       <c r="H4">
-        <v>-2.4764384921196288E-4</v>
+        <v>-4.0577977750233508E-4</v>
       </c>
       <c r="I4">
-        <v>-1.5662241391622739E-3</v>
+        <v>-1.3121402865792721E-3</v>
       </c>
       <c r="J4">
-        <v>5.0782711198171709E-2</v>
+        <v>4.5490106981707801E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>2560.3250719154689</v>
+        <v>2559.2913497543068</v>
       </c>
       <c r="C5">
-        <v>2559.3114292453388</v>
+        <v>2558.3308112762488</v>
       </c>
       <c r="D5">
-        <v>1877.2108223255871</v>
+        <v>1877.044328755791</v>
       </c>
       <c r="E5">
-        <v>1082.730592385439</v>
+        <v>1083.948097946695</v>
       </c>
       <c r="F5">
-        <v>1.642636579096372E-2</v>
+        <v>1.9667141714891749E-2</v>
       </c>
       <c r="G5">
-        <v>-3.6020581785692278E-2</v>
+        <v>-5.2469050924390102E-2</v>
       </c>
       <c r="H5">
-        <v>-7.3939347906975357E-4</v>
+        <v>-4.107466451735812E-4</v>
       </c>
       <c r="I5">
-        <v>-1.368150344723345E-3</v>
+        <v>-1.3349480978159501E-3</v>
       </c>
       <c r="J5">
-        <v>2.3605487472608051E-2</v>
+        <v>4.5540552605692002E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>2562.9436620029878</v>
+        <v>2563.2551357171451</v>
       </c>
       <c r="C6">
-        <v>2561.99905330005</v>
+        <v>2562.0951304840828</v>
       </c>
       <c r="D6">
-        <v>1878.5278155558151</v>
+        <v>1878.699240979849</v>
       </c>
       <c r="E6">
-        <v>1082.882842213123</v>
+        <v>1082.7975452451631</v>
       </c>
       <c r="F6">
-        <v>1.7369100401938439E-2</v>
+        <v>1.7453941897979199E-2</v>
       </c>
       <c r="G6">
-        <v>-4.0304493626341829E-2</v>
+        <v>-4.0635804216452132E-2</v>
       </c>
       <c r="H6">
-        <v>-5.7832720067590234E-4</v>
+        <v>-5.793191275226203E-4</v>
       </c>
       <c r="I6">
-        <v>-1.304782485636106E-3</v>
+        <v>-1.2886749201244121E-3</v>
       </c>
       <c r="J6">
-        <v>3.050353980852577E-2</v>
+        <v>3.0814333731407739E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>2561.6987069918291</v>
+        <v>2562.8427597223899</v>
       </c>
       <c r="C7">
-        <v>2560.1845048873438</v>
+        <v>2561.9750904878911</v>
       </c>
       <c r="D7">
-        <v>1872.874722361224</v>
+        <v>1878.659700601941</v>
       </c>
       <c r="E7">
-        <v>1081.5656771045169</v>
+        <v>1082.87161305429</v>
       </c>
       <c r="F7">
-        <v>2.1291317640990601E-2</v>
+        <v>1.7309831964882991E-2</v>
       </c>
       <c r="G7">
-        <v>-5.8177444275887912E-2</v>
+        <v>-4.0210546280588753E-2</v>
       </c>
       <c r="H7">
-        <v>-2.3507921694954439E-4</v>
+        <v>-5.8695016323390993E-4</v>
       </c>
       <c r="I7">
-        <v>-1.8707050773920869E-3</v>
+        <v>-1.2823175099447889E-3</v>
       </c>
       <c r="J7">
-        <v>5.3854649218177959E-2</v>
+        <v>3.0464137045654611E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>2559.2913497543068</v>
+        <v>2562.9436620029878</v>
       </c>
       <c r="C8">
-        <v>2558.3308112762488</v>
+        <v>2561.99905330005</v>
       </c>
       <c r="D8">
-        <v>1877.044328755791</v>
+        <v>1878.5278155558151</v>
       </c>
       <c r="E8">
-        <v>1083.948097946695</v>
+        <v>1082.882842213123</v>
       </c>
       <c r="F8">
-        <v>1.9667141714891749E-2</v>
+        <v>1.7369100401938439E-2</v>
       </c>
       <c r="G8">
-        <v>-5.2469050924390102E-2</v>
+        <v>-4.0304493626341829E-2</v>
       </c>
       <c r="H8">
-        <v>-4.107466451735812E-4</v>
+        <v>-5.7832720067590234E-4</v>
       </c>
       <c r="I8">
-        <v>-1.3349480978159501E-3</v>
+        <v>-1.304782485636106E-3</v>
       </c>
       <c r="J8">
-        <v>4.5540552605692002E-2</v>
+        <v>3.050353980852577E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>2562.8427597223899</v>
+        <v>2563.2551357171451</v>
       </c>
       <c r="C9">
-        <v>2561.9750904878911</v>
+        <v>2562.0951304840828</v>
       </c>
       <c r="D9">
-        <v>1878.659700601941</v>
+        <v>1878.699240979849</v>
       </c>
       <c r="E9">
-        <v>1082.87161305429</v>
+        <v>1082.7975452451631</v>
       </c>
       <c r="F9">
-        <v>1.7309831964882991E-2</v>
+        <v>1.7453941897979199E-2</v>
       </c>
       <c r="G9">
-        <v>-4.0210546280588753E-2</v>
+        <v>-4.0635804216452132E-2</v>
       </c>
       <c r="H9">
-        <v>-5.8695016323390993E-4</v>
+        <v>-5.793191275226203E-4</v>
       </c>
       <c r="I9">
-        <v>-1.2823175099447889E-3</v>
+        <v>-1.2886749201244121E-3</v>
       </c>
       <c r="J9">
-        <v>3.0464137045654611E-2</v>
+        <v>3.0814333731407739E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>2559.3036759101651</v>
+        <v>2562.0411041949401</v>
       </c>
       <c r="C10">
-        <v>2558.3789295015549</v>
+        <v>2560.6623012780392</v>
       </c>
       <c r="D10">
-        <v>1877.1643691858339</v>
+        <v>1874.928689748253</v>
       </c>
       <c r="E10">
-        <v>1083.9645046742321</v>
+        <v>1081.8406559988221</v>
       </c>
       <c r="F10">
-        <v>1.9660108213934151E-2</v>
+        <v>2.0557415921373719E-2</v>
       </c>
       <c r="G10">
-        <v>-5.2425407728672851E-2</v>
+        <v>-5.5257019392604273E-2</v>
       </c>
       <c r="H10">
-        <v>-4.0577977750233508E-4</v>
+        <v>-2.4764384921196288E-4</v>
       </c>
       <c r="I10">
-        <v>-1.3121402865792721E-3</v>
+        <v>-1.5662241391622739E-3</v>
       </c>
       <c r="J10">
-        <v>4.5490106981707801E-2</v>
+        <v>5.0782711198171709E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>2563.2551357171451</v>
+        <v>2561.6987069918291</v>
       </c>
       <c r="C11">
-        <v>2562.0951304840828</v>
+        <v>2560.1845048873438</v>
       </c>
       <c r="D11">
-        <v>1878.699240979849</v>
+        <v>1872.874722361224</v>
       </c>
       <c r="E11">
-        <v>1082.7975452451631</v>
+        <v>1081.5656771045169</v>
       </c>
       <c r="F11">
-        <v>1.7453941897979199E-2</v>
+        <v>2.1291317640990601E-2</v>
       </c>
       <c r="G11">
-        <v>-4.0635804216452132E-2</v>
+        <v>-5.8177444275887912E-2</v>
       </c>
       <c r="H11">
-        <v>-5.793191275226203E-4</v>
+        <v>-2.3507921694954439E-4</v>
       </c>
       <c r="I11">
-        <v>-1.2886749201244121E-3</v>
+        <v>-1.8707050773920869E-3</v>
       </c>
       <c r="J11">
-        <v>3.0814333731407739E-2</v>
+        <v>5.3854649218177959E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -14333,35 +14339,35 @@
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
-        <v>2561.4200814376236</v>
+        <v>2561.4200814376231</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:J12" si="0">AVERAGE(C2:C11)</f>
-        <v>2560.3332327775729</v>
+        <v>2560.3332327775724</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1877.0841253811036</v>
+        <v>1877.0841253811038</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1082.9321338577686</v>
+        <v>1082.9321338577683</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1.8688066565905135E-2</v>
+        <v>1.8688066565905131E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-4.686945766171579E-2</v>
+        <v>-4.6869457661715797E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>-4.7742946803816337E-4</v>
+        <v>-4.7742946803816332E-4</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-1.3953071217762349E-3</v>
+        <v>-1.3953071217762351E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -14402,7 +14408,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.8669024824651871E-4</v>
+        <v>1.8669024824651874E-4</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
@@ -14415,11 +14421,11 @@
       </c>
       <c r="B14">
         <f>B13/B12</f>
-        <v>6.6975984599908418E-4</v>
+        <v>6.6975984599908429E-4</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:J14" si="2">C13/C12</f>
-        <v>6.4856946890325064E-4</v>
+        <v>6.4856946890325074E-4</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -14427,15 +14433,15 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>7.6765429948314823E-4</v>
+        <v>7.6765429948314845E-4</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>8.9151959119163987E-2</v>
+        <v>8.9151959119164001E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>-0.17063719807179942</v>
+        <v>-0.17063719807179939</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -14689,352 +14695,352 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23">
-        <v>2558.852340022841</v>
+        <v>2561.9390760952328</v>
       </c>
       <c r="C23">
-        <v>2558.3999157119861</v>
+        <v>2561.8573955773172</v>
       </c>
       <c r="D23">
-        <v>1879.915806922769</v>
+        <v>1880.8799796626049</v>
       </c>
       <c r="E23">
-        <v>1087.8392185088051</v>
+        <v>1087.0082155207899</v>
       </c>
       <c r="F23">
-        <v>2.095271470557318E-2</v>
+        <v>2.151060995556843E-2</v>
       </c>
       <c r="G23">
-        <v>-5.8661253735819478E-2</v>
+        <v>-5.8741674895947497E-2</v>
       </c>
       <c r="H23">
-        <v>-3.0480829635362209E-4</v>
+        <v>-2.2567231273935389E-4</v>
       </c>
       <c r="I23">
-        <v>-1.058977627611558E-3</v>
+        <v>-9.2518295508375642E-4</v>
       </c>
       <c r="J23">
-        <v>5.3885162407392537E-2</v>
+        <v>5.3927154532103318E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>2561.4594788054351</v>
+        <v>2558.852340022841</v>
       </c>
       <c r="C24">
-        <v>2562.357394605383</v>
+        <v>2558.3999157119861</v>
       </c>
       <c r="D24">
-        <v>1874.8935431940149</v>
+        <v>1879.915806922769</v>
       </c>
       <c r="E24">
-        <v>1087.5482441516251</v>
+        <v>1087.8392185088051</v>
       </c>
       <c r="F24">
-        <v>2.2468202627074659E-2</v>
+        <v>2.095271470557318E-2</v>
       </c>
       <c r="G24">
-        <v>-6.1897323422254201E-2</v>
+        <v>-5.8661253735819478E-2</v>
       </c>
       <c r="H24">
-        <v>8.4262331312621368E-5</v>
+        <v>-3.0480829635362209E-4</v>
       </c>
       <c r="I24">
-        <v>-1.6924079978567991E-3</v>
+        <v>-1.058977627611558E-3</v>
       </c>
       <c r="J24">
-        <v>5.7086638694148872E-2</v>
+        <v>5.3885162407392537E-2</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B25">
-        <v>2561.9545429756522</v>
+        <v>2560.2840748803919</v>
       </c>
       <c r="C25">
-        <v>2561.1847921229519</v>
+        <v>2559.2431368797088</v>
       </c>
       <c r="D25">
-        <v>1874.6012743219071</v>
+        <v>1880.0276633680071</v>
       </c>
       <c r="E25">
-        <v>1084.4214044625021</v>
+        <v>1088.221960903094</v>
       </c>
       <c r="F25">
-        <v>2.3598102699086101E-2</v>
+        <v>2.0990362844264018E-2</v>
       </c>
       <c r="G25">
-        <v>-6.8002630529503089E-2</v>
+        <v>-5.7972395664241998E-2</v>
       </c>
       <c r="H25">
-        <v>-3.9622712044383879E-4</v>
+        <v>-2.1819269226954109E-4</v>
       </c>
       <c r="I25">
-        <v>-1.4987965222322821E-3</v>
+        <v>-1.0736759244878041E-3</v>
       </c>
       <c r="J25">
-        <v>6.3139826211871031E-2</v>
+        <v>5.297721459452015E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B26">
-        <v>2561.9390760952328</v>
+        <v>2560.2840748803919</v>
       </c>
       <c r="C26">
-        <v>2561.8573955773172</v>
+        <v>2559.2431368797088</v>
       </c>
       <c r="D26">
-        <v>1880.8799796626049</v>
+        <v>1880.0276633680071</v>
       </c>
       <c r="E26">
-        <v>1087.0082155207899</v>
+        <v>1088.221960903094</v>
       </c>
       <c r="F26">
-        <v>2.151060995556843E-2</v>
+        <v>2.0990362844264018E-2</v>
       </c>
       <c r="G26">
-        <v>-5.8741674895947497E-2</v>
+        <v>-5.7972395664241998E-2</v>
       </c>
       <c r="H26">
-        <v>-2.2567231273935389E-4</v>
+        <v>-2.1819269226954109E-4</v>
       </c>
       <c r="I26">
-        <v>-9.2518295508375642E-4</v>
+        <v>-1.0736759244878041E-3</v>
       </c>
       <c r="J26">
-        <v>5.3927154532103318E-2</v>
+        <v>5.297721459452015E-2</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>2562.5787110863139</v>
+        <v>2561.4594788054351</v>
       </c>
       <c r="C27">
-        <v>2563.2042606895552</v>
+        <v>2562.357394605383</v>
       </c>
       <c r="D27">
-        <v>1874.837702430319</v>
+        <v>1874.8935431940149</v>
       </c>
       <c r="E27">
-        <v>1087.802201142001</v>
+        <v>1087.5482441516251</v>
       </c>
       <c r="F27">
-        <v>2.280479717845699E-2</v>
+        <v>2.2468202627074659E-2</v>
       </c>
       <c r="G27">
-        <v>-6.2607316052523801E-2</v>
+        <v>-6.1897323422254201E-2</v>
       </c>
       <c r="H27">
-        <v>1.318849984329026E-4</v>
+        <v>8.4262331312621368E-5</v>
       </c>
       <c r="I27">
-        <v>-1.6843845035493449E-3</v>
+        <v>-1.6924079978567991E-3</v>
       </c>
       <c r="J27">
-        <v>5.7563902712919189E-2</v>
+        <v>5.7086638694148872E-2</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28">
-        <v>2562.0698580806629</v>
+        <v>2563.7530943792108</v>
       </c>
       <c r="C28">
-        <v>2561.0191759854551</v>
+        <v>2564.0334693626828</v>
       </c>
       <c r="D28">
-        <v>1874.0255011623819</v>
+        <v>1874.8038083504259</v>
       </c>
       <c r="E28">
-        <v>1084.413358541168</v>
+        <v>1088.1812954947479</v>
       </c>
       <c r="F28">
-        <v>2.32425969776184E-2</v>
+        <v>2.2926979259649038E-2</v>
       </c>
       <c r="G28">
-        <v>-6.6314319013098713E-2</v>
+        <v>-6.2300553515400522E-2</v>
       </c>
       <c r="H28">
-        <v>-3.6031570337294457E-4</v>
+        <v>2.124374272741399E-4</v>
       </c>
       <c r="I28">
-        <v>-1.6137665275613711E-3</v>
+        <v>-1.6953536827054891E-3</v>
       </c>
       <c r="J28">
-        <v>6.1312294052817802E-2</v>
+        <v>5.7052523597284181E-2</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>2560.2840748803919</v>
+        <v>2562.5787110863139</v>
       </c>
       <c r="C29">
-        <v>2559.2431368797088</v>
+        <v>2563.2042606895552</v>
       </c>
       <c r="D29">
-        <v>1880.0276633680071</v>
+        <v>1874.837702430319</v>
       </c>
       <c r="E29">
-        <v>1088.221960903094</v>
+        <v>1087.802201142001</v>
       </c>
       <c r="F29">
-        <v>2.0990362844264018E-2</v>
+        <v>2.280479717845699E-2</v>
       </c>
       <c r="G29">
-        <v>-5.7972395664241998E-2</v>
+        <v>-6.2607316052523801E-2</v>
       </c>
       <c r="H29">
-        <v>-2.1819269226954109E-4</v>
+        <v>1.318849984329026E-4</v>
       </c>
       <c r="I29">
-        <v>-1.0736759244878041E-3</v>
+        <v>-1.6843845035493449E-3</v>
       </c>
       <c r="J29">
-        <v>5.297721459452015E-2</v>
+        <v>5.7563902712919189E-2</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>2563.7530943792108</v>
+        <v>2562.1916780732322</v>
       </c>
       <c r="C30">
-        <v>2564.0334693626828</v>
+        <v>2563.076363916045</v>
       </c>
       <c r="D30">
-        <v>1874.8038083504259</v>
+        <v>1874.8997247780831</v>
       </c>
       <c r="E30">
-        <v>1088.1812954947479</v>
+        <v>1087.7398985975799</v>
       </c>
       <c r="F30">
-        <v>2.2926979259649038E-2</v>
+        <v>2.28350165336231E-2</v>
       </c>
       <c r="G30">
-        <v>-6.2300553515400522E-2</v>
+        <v>-6.278625716473242E-2</v>
       </c>
       <c r="H30">
-        <v>2.124374272741399E-4</v>
+        <v>1.070037133995494E-4</v>
       </c>
       <c r="I30">
-        <v>-1.6953536827054891E-3</v>
+        <v>-1.659162811716628E-3</v>
       </c>
       <c r="J30">
-        <v>5.7052523597284181E-2</v>
+        <v>5.7734235299635631E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>2560.2840748803919</v>
+        <v>2561.9545429756522</v>
       </c>
       <c r="C31">
-        <v>2559.2431368797088</v>
+        <v>2561.1847921229519</v>
       </c>
       <c r="D31">
-        <v>1880.0276633680071</v>
+        <v>1874.6012743219071</v>
       </c>
       <c r="E31">
-        <v>1088.221960903094</v>
+        <v>1084.4214044625021</v>
       </c>
       <c r="F31">
-        <v>2.0990362844264018E-2</v>
+        <v>2.3598102699086101E-2</v>
       </c>
       <c r="G31">
-        <v>-5.7972395664241998E-2</v>
+        <v>-6.8002630529503089E-2</v>
       </c>
       <c r="H31">
-        <v>-2.1819269226954109E-4</v>
+        <v>-3.9622712044383879E-4</v>
       </c>
       <c r="I31">
-        <v>-1.0736759244878041E-3</v>
+        <v>-1.4987965222322821E-3</v>
       </c>
       <c r="J31">
-        <v>5.297721459452015E-2</v>
+        <v>6.3139826211871031E-2</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B32">
-        <v>2562.1916780732322</v>
+        <v>2562.0698580806629</v>
       </c>
       <c r="C32">
-        <v>2563.076363916045</v>
+        <v>2561.0191759854551</v>
       </c>
       <c r="D32">
-        <v>1874.8997247780831</v>
+        <v>1874.0255011623819</v>
       </c>
       <c r="E32">
-        <v>1087.7398985975799</v>
+        <v>1084.413358541168</v>
       </c>
       <c r="F32">
-        <v>2.28350165336231E-2</v>
+        <v>2.32425969776184E-2</v>
       </c>
       <c r="G32">
-        <v>-6.278625716473242E-2</v>
+        <v>-6.6314319013098713E-2</v>
       </c>
       <c r="H32">
-        <v>1.070037133995494E-4</v>
+        <v>-3.6031570337294457E-4</v>
       </c>
       <c r="I32">
-        <v>-1.659162811716628E-3</v>
+        <v>-1.6137665275613711E-3</v>
       </c>
       <c r="J32">
-        <v>5.7734235299635631E-2</v>
+        <v>6.1312294052817802E-2</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -15046,35 +15052,35 @@
         <v>2561.5366929279362</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33" si="8">AVERAGE(C23:C32)</f>
+        <f t="shared" ref="C33:J33" si="8">AVERAGE(C23:C32)</f>
         <v>2561.3619041730794</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33" si="9">AVERAGE(D23:D32)</f>
+        <f t="shared" si="8"/>
         <v>1876.8912667558518</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="10">AVERAGE(E23:E32)</f>
+        <f t="shared" si="8"/>
         <v>1087.1397758225407</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="11">AVERAGE(F23:F32)</f>
+        <f t="shared" si="8"/>
         <v>2.2231974562517794E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="12">AVERAGE(G23:G32)</f>
+        <f t="shared" si="8"/>
         <v>-6.1725611965776375E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="13">AVERAGE(H23:H32)</f>
-        <v>-1.1878203470296284E-4</v>
+        <f t="shared" si="8"/>
+        <v>-1.1878203470296281E-4</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33" si="14">AVERAGE(I23:I32)</f>
+        <f t="shared" si="8"/>
         <v>-1.3975384477292836E-3</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33" si="15">AVERAGE(J23:J32)</f>
+        <f t="shared" si="8"/>
         <v>5.6765616669721283E-2</v>
       </c>
     </row>
@@ -15084,38 +15090,38 @@
       </c>
       <c r="B34">
         <f>_xlfn.STDEV.S(B23:B32)</f>
-        <v>1.3903570771494269</v>
+        <v>1.3903570771494271</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:J34" si="16">_xlfn.STDEV.S(C23:C32)</f>
+        <f t="shared" ref="C34:J34" si="9">_xlfn.STDEV.S(C23:C32)</f>
         <v>1.9034465774334901</v>
       </c>
       <c r="D34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2.881358996255635</v>
       </c>
       <c r="E34">
-        <f t="shared" si="16"/>
-        <v>1.4803241228114705</v>
+        <f t="shared" si="9"/>
+        <v>1.4803241228114703</v>
       </c>
       <c r="F34">
-        <f t="shared" si="16"/>
-        <v>1.019714357757521E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.0197143577575208E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>3.4830868233404586E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2.2751240748862178E-4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>3.216096187373464E-4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>3.4660502741475103E-3</v>
       </c>
     </row>
@@ -15125,38 +15131,38 @@
       </c>
       <c r="B35">
         <f>B34/B33</f>
-        <v>5.4278241689374143E-4</v>
+        <v>5.4278241689374154E-4</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35" si="17">C34/C33</f>
+        <f t="shared" ref="C35:J35" si="10">C34/C33</f>
         <v>7.4313847423603603E-4</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35" si="18">D34/D33</f>
+        <f t="shared" si="10"/>
         <v>1.5351763031195593E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="19">E34/E33</f>
-        <v>1.3616686241577746E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3616686241577744E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35" si="20">F34/F33</f>
-        <v>4.5867017114922304E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.5867017114922297E-2</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35" si="21">G34/G33</f>
+        <f t="shared" si="10"/>
         <v>-5.6428550684465437E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="22">H34/H33</f>
-        <v>-1.9153772542923684</v>
+        <f t="shared" si="10"/>
+        <v>-1.9153772542923688</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35" si="23">I34/I33</f>
+        <f t="shared" si="10"/>
         <v>-0.23012577525856034</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35" si="24">J34/J33</f>
+        <f t="shared" si="10"/>
         <v>6.105897332735747E-2</v>
       </c>
     </row>
@@ -15169,35 +15175,35 @@
         <v>2558.852340022841</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:J36" si="25">MIN(C23:C32)</f>
+        <f t="shared" ref="C36:J36" si="11">MIN(C23:C32)</f>
         <v>2558.3999157119861</v>
       </c>
       <c r="D36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>1874.0255011623819</v>
       </c>
       <c r="E36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>1084.413358541168</v>
       </c>
       <c r="F36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>2.095271470557318E-2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>-6.8002630529503089E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>-3.9622712044383879E-4</v>
       </c>
       <c r="I36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>-1.6953536827054891E-3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>5.297721459452015E-2</v>
       </c>
     </row>
@@ -15210,35 +15216,35 @@
         <v>2560.5779258616526</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:J37" si="26">_xlfn.PERCENTILE.INC(C23:C32,0.25)</f>
+        <f t="shared" ref="C37:J37" si="12">_xlfn.PERCENTILE.INC(C23:C32,0.25)</f>
         <v>2559.6871466561452</v>
       </c>
       <c r="D37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>1874.8122818703991</v>
       </c>
       <c r="E37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>1087.1432226784987</v>
       </c>
       <c r="F37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>2.1120424622090121E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>-6.2741521886680265E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>-2.8502430045005507E-4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>-1.6780790805911658E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>5.3895660438570234E-2</v>
       </c>
     </row>
@@ -15251,35 +15257,35 @@
         <v>2561.9468095354423</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:J38" si="27">_xlfn.PERCENTILE.INC(C23:C32,0.5)</f>
+        <f t="shared" ref="C38:J38" si="13">_xlfn.PERCENTILE.INC(C23:C32,0.5)</f>
         <v>2561.5210938501345</v>
       </c>
       <c r="D38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1874.896633986049</v>
       </c>
       <c r="E38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1087.7710498697904</v>
       </c>
       <c r="F38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>2.2636499902765825E-2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>-6.2098938468827358E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>-2.1819269226954109E-4</v>
       </c>
       <c r="I38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>-1.5562815248968266E-3</v>
       </c>
       <c r="J38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>5.706958114571653E-2</v>
       </c>
     </row>
@@ -15292,35 +15298,35 @@
         <v>2562.1612230750898</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:J39" si="28">_xlfn.PERCENTILE.INC(C23:C32,0.75)</f>
+        <f t="shared" ref="C39:J39" si="14">_xlfn.PERCENTILE.INC(C23:C32,0.75)</f>
         <v>2562.8966215883793</v>
       </c>
       <c r="D39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>1879.9996992566976</v>
       </c>
       <c r="E39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>1088.0957762482622</v>
       </c>
       <c r="F39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>2.2903988578142555E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>-5.8681359025851483E-2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>1.013183678778174E-4</v>
       </c>
       <c r="I39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>-1.0736759244878041E-3</v>
       </c>
       <c r="J39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>5.7691652152956518E-2</v>
       </c>
     </row>
@@ -15333,35 +15339,35 @@
         <v>2563.7530943792108</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:J40" si="29">MAX(C23:C32)</f>
+        <f t="shared" ref="C40:J40" si="15">MAX(C23:C32)</f>
         <v>2564.0334693626828</v>
       </c>
       <c r="D40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>1880.8799796626049</v>
       </c>
       <c r="E40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>1088.221960903094</v>
       </c>
       <c r="F40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2.3598102699086101E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>-5.7972395664241998E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2.124374272741399E-4</v>
       </c>
       <c r="I40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>-9.2518295508375642E-4</v>
       </c>
       <c r="J40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>6.3139826211871031E-2</v>
       </c>
     </row>
@@ -15399,352 +15405,352 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44">
-        <v>2570.604921219975</v>
+        <v>2570.1307710440151</v>
       </c>
       <c r="C44">
-        <v>2572.168287420116</v>
+        <v>2569.9681336346171</v>
       </c>
       <c r="D44">
-        <v>1897.993050368689</v>
+        <v>1889.869771679734</v>
       </c>
       <c r="E44">
-        <v>1087.4882938880351</v>
+        <v>1088.682978883186</v>
       </c>
       <c r="F44">
-        <v>1.849083100453015E-2</v>
+        <v>1.954668321895504E-2</v>
       </c>
       <c r="G44">
-        <v>-1.8471996593352521E-2</v>
+        <v>-2.4830503412579159E-2</v>
       </c>
       <c r="H44">
-        <v>3.0688550540806958E-4</v>
+        <v>2.4280750115948709E-4</v>
       </c>
       <c r="I44">
-        <v>5.99330386648107E-4</v>
+        <v>-4.7610584336747931E-4</v>
       </c>
       <c r="J44">
-        <v>-2.1931469931149509E-3</v>
+        <v>4.9033896521162553E-3</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45">
-        <v>2572.4077456049631</v>
+        <v>2570.604921219975</v>
       </c>
       <c r="C45">
-        <v>2572.5810738240252</v>
+        <v>2572.168287420116</v>
       </c>
       <c r="D45">
-        <v>1895.791188922258</v>
+        <v>1897.993050368689</v>
       </c>
       <c r="E45">
-        <v>1090.372882715096</v>
+        <v>1087.4882938880351</v>
       </c>
       <c r="F45">
-        <v>2.2375180744352529E-2</v>
+        <v>1.849083100453015E-2</v>
       </c>
       <c r="G45">
-        <v>-2.6582139521768001E-2</v>
+        <v>-1.8471996593352521E-2</v>
       </c>
       <c r="H45">
-        <v>8.2343191365559444E-4</v>
+        <v>3.0688550540806958E-4</v>
       </c>
       <c r="I45">
-        <v>7.9796067088938889E-5</v>
+        <v>5.99330386648107E-4</v>
       </c>
       <c r="J45">
-        <v>4.1843812909683363E-3</v>
+        <v>-2.1931469931149509E-3</v>
       </c>
       <c r="K45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B46">
-        <v>2578.1717818326829</v>
+        <v>2570.6683807469908</v>
       </c>
       <c r="C46">
-        <v>2578.5895456057378</v>
+        <v>2572.1958941737221</v>
       </c>
       <c r="D46">
-        <v>1895.9258254086919</v>
+        <v>1897.9867216356711</v>
       </c>
       <c r="E46">
-        <v>1089.093577079447</v>
+        <v>1087.5198635983149</v>
       </c>
       <c r="F46">
-        <v>1.9529457365514102E-2</v>
+        <v>1.8492696138521732E-2</v>
       </c>
       <c r="G46">
-        <v>-1.7960377659254349E-2</v>
+        <v>-1.8481402276519929E-2</v>
       </c>
       <c r="H46">
-        <v>9.1644115884555654E-4</v>
+        <v>3.0864169031580822E-4</v>
       </c>
       <c r="I46">
-        <v>1.4584747129475431E-4</v>
+        <v>5.9720284313808021E-4</v>
       </c>
       <c r="J46">
-        <v>-1.9529285952916029E-3</v>
+        <v>-2.1919745684114362E-3</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B47">
-        <v>2570.1307710440151</v>
+        <v>2570.5841903302198</v>
       </c>
       <c r="C47">
-        <v>2569.9681336346171</v>
+        <v>2572.2610365076612</v>
       </c>
       <c r="D47">
-        <v>1889.869771679734</v>
+        <v>1899.394433751866</v>
       </c>
       <c r="E47">
-        <v>1088.682978883186</v>
+        <v>1087.5965805401199</v>
       </c>
       <c r="F47">
-        <v>1.954668321895504E-2</v>
+        <v>1.80946576420771E-2</v>
       </c>
       <c r="G47">
-        <v>-2.4830503412579159E-2</v>
+        <v>-1.818041923961157E-2</v>
       </c>
       <c r="H47">
-        <v>2.4280750115948709E-4</v>
+        <v>1.132013311857732E-4</v>
       </c>
       <c r="I47">
-        <v>-4.7610584336747931E-4</v>
+        <v>7.5982609340544593E-4</v>
       </c>
       <c r="J47">
-        <v>4.9033896521162553E-3</v>
+        <v>-1.9899755731436382E-3</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B48">
-        <v>2571.890803303233</v>
+        <v>2572.4077456049631</v>
       </c>
       <c r="C48">
-        <v>2572.240386465347</v>
+        <v>2572.5810738240252</v>
       </c>
       <c r="D48">
-        <v>1895.37780605937</v>
+        <v>1895.791188922258</v>
       </c>
       <c r="E48">
-        <v>1090.4593879193819</v>
+        <v>1090.372882715096</v>
       </c>
       <c r="F48">
-        <v>2.2288713050546478E-2</v>
+        <v>2.2375180744352529E-2</v>
       </c>
       <c r="G48">
-        <v>-2.6472193485982561E-2</v>
+        <v>-2.6582139521768001E-2</v>
       </c>
       <c r="H48">
-        <v>8.4423540600397505E-4</v>
+        <v>8.2343191365559444E-4</v>
       </c>
       <c r="I48">
-        <v>2.5449752631762241E-5</v>
+        <v>7.9796067088938889E-5</v>
       </c>
       <c r="J48">
-        <v>4.0508479621241839E-3</v>
+        <v>4.1843812909683363E-3</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49">
-        <v>2578.5927918647808</v>
+        <v>2572.49276605761</v>
       </c>
       <c r="C49">
-        <v>2578.353867290291</v>
+        <v>2572.5628732637888</v>
       </c>
       <c r="D49">
-        <v>1895.2434405180079</v>
+        <v>1895.9809321440509</v>
       </c>
       <c r="E49">
-        <v>1088.630014763253</v>
+        <v>1090.3653371224191</v>
       </c>
       <c r="F49">
-        <v>1.851766375398059E-2</v>
+        <v>2.237967132875272E-2</v>
       </c>
       <c r="G49">
-        <v>-1.3982398252005189E-2</v>
+        <v>-2.6673574652760702E-2</v>
       </c>
       <c r="H49">
-        <v>9.2106881752922459E-4</v>
+        <v>8.2379638131255934E-4</v>
       </c>
       <c r="I49">
-        <v>-9.4003351716499107E-5</v>
+        <v>1.017182874889727E-4</v>
       </c>
       <c r="J49">
-        <v>-5.6825460967198363E-3</v>
+        <v>4.2878865935185124E-3</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50">
-        <v>2570.5841903302198</v>
+        <v>2571.890803303233</v>
       </c>
       <c r="C50">
-        <v>2572.2610365076612</v>
+        <v>2572.240386465347</v>
       </c>
       <c r="D50">
-        <v>1899.394433751866</v>
+        <v>1895.37780605937</v>
       </c>
       <c r="E50">
-        <v>1087.5965805401199</v>
+        <v>1090.4593879193819</v>
       </c>
       <c r="F50">
-        <v>1.80946576420771E-2</v>
+        <v>2.2288713050546478E-2</v>
       </c>
       <c r="G50">
-        <v>-1.818041923961157E-2</v>
+        <v>-2.6472193485982561E-2</v>
       </c>
       <c r="H50">
-        <v>1.132013311857732E-4</v>
+        <v>8.4423540600397505E-4</v>
       </c>
       <c r="I50">
-        <v>7.5982609340544593E-4</v>
+        <v>2.5449752631762241E-5</v>
       </c>
       <c r="J50">
-        <v>-1.9899755731436382E-3</v>
+        <v>4.0508479621241839E-3</v>
       </c>
       <c r="K50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51">
-        <v>2572.49276605761</v>
+        <v>2571.6832530406309</v>
       </c>
       <c r="C51">
-        <v>2572.5628732637888</v>
+        <v>2572.0449120756712</v>
       </c>
       <c r="D51">
-        <v>1895.9809321440509</v>
+        <v>1895.355193404208</v>
       </c>
       <c r="E51">
-        <v>1090.3653371224191</v>
+        <v>1090.339482586859</v>
       </c>
       <c r="F51">
-        <v>2.237967132875272E-2</v>
+        <v>2.2341579943118181E-2</v>
       </c>
       <c r="G51">
-        <v>-2.6673574652760702E-2</v>
+        <v>-2.6783972830835039E-2</v>
       </c>
       <c r="H51">
-        <v>8.2379638131255934E-4</v>
+        <v>8.2675593017256666E-4</v>
       </c>
       <c r="I51">
-        <v>1.017182874889727E-4</v>
+        <v>1.482413375333937E-5</v>
       </c>
       <c r="J51">
-        <v>4.2878865935185124E-3</v>
+        <v>4.3720771239355088E-3</v>
       </c>
       <c r="K51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B52">
-        <v>2570.6683807469908</v>
+        <v>2578.1717818326829</v>
       </c>
       <c r="C52">
-        <v>2572.1958941737221</v>
+        <v>2578.5895456057378</v>
       </c>
       <c r="D52">
-        <v>1897.9867216356711</v>
+        <v>1895.9258254086919</v>
       </c>
       <c r="E52">
-        <v>1087.5198635983149</v>
+        <v>1089.093577079447</v>
       </c>
       <c r="F52">
-        <v>1.8492696138521732E-2</v>
+        <v>1.9529457365514102E-2</v>
       </c>
       <c r="G52">
-        <v>-1.8481402276519929E-2</v>
+        <v>-1.7960377659254349E-2</v>
       </c>
       <c r="H52">
-        <v>3.0864169031580822E-4</v>
+        <v>9.1644115884555654E-4</v>
       </c>
       <c r="I52">
-        <v>5.9720284313808021E-4</v>
+        <v>1.4584747129475431E-4</v>
       </c>
       <c r="J52">
-        <v>-2.1919745684114362E-3</v>
+        <v>-1.9529285952916029E-3</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B53">
-        <v>2571.6832530406309</v>
+        <v>2578.5927918647808</v>
       </c>
       <c r="C53">
-        <v>2572.0449120756712</v>
+        <v>2578.353867290291</v>
       </c>
       <c r="D53">
-        <v>1895.355193404208</v>
+        <v>1895.2434405180079</v>
       </c>
       <c r="E53">
-        <v>1090.339482586859</v>
+        <v>1088.630014763253</v>
       </c>
       <c r="F53">
-        <v>2.2341579943118181E-2</v>
+        <v>1.851766375398059E-2</v>
       </c>
       <c r="G53">
-        <v>-2.6783972830835039E-2</v>
+        <v>-1.3982398252005189E-2</v>
       </c>
       <c r="H53">
-        <v>8.2675593017256666E-4</v>
+        <v>9.2106881752922459E-4</v>
       </c>
       <c r="I53">
-        <v>1.482413375333937E-5</v>
+        <v>-9.4003351716499107E-5</v>
       </c>
       <c r="J53">
-        <v>4.3720771239355088E-3</v>
+        <v>-5.6825460967198363E-3</v>
       </c>
       <c r="K53" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -15752,40 +15758,40 @@
         <v>195</v>
       </c>
       <c r="B54">
-        <f>AVERAGE(B44:B53)</f>
-        <v>2572.7227405045101</v>
+        <f t="shared" ref="B54:J54" si="16">AVERAGE(B44:B53)</f>
+        <v>2572.7227405045105</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54" si="30">AVERAGE(C44:C53)</f>
-        <v>2573.296601026098</v>
+        <f t="shared" si="16"/>
+        <v>2573.2966010260975</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54" si="31">AVERAGE(D44:D53)</f>
-        <v>1895.8918363892549</v>
+        <f t="shared" si="16"/>
+        <v>1895.8918363892546</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54" si="32">AVERAGE(E44:E53)</f>
-        <v>1089.054839909611</v>
+        <f t="shared" si="16"/>
+        <v>1089.0548399096112</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54" si="33">AVERAGE(F44:F53)</f>
-        <v>2.0205713419034859E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.0205713419034863E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="G54" si="34">AVERAGE(G44:G53)</f>
+        <f t="shared" si="16"/>
         <v>-2.1841897792466904E-2</v>
       </c>
       <c r="H54">
-        <f t="shared" ref="H54" si="35">AVERAGE(H44:H53)</f>
+        <f t="shared" si="16"/>
         <v>6.1272656355886154E-4</v>
       </c>
       <c r="I54">
-        <f t="shared" ref="I54" si="36">AVERAGE(I44:I53)</f>
+        <f t="shared" si="16"/>
         <v>1.7538858403654223E-4</v>
       </c>
       <c r="J54">
-        <f t="shared" ref="J54" si="37">AVERAGE(J44:J53)</f>
-        <v>7.7880107959813329E-4</v>
+        <f t="shared" si="16"/>
+        <v>7.7880107959813318E-4</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -15793,39 +15799,39 @@
         <v>196</v>
       </c>
       <c r="B55">
-        <f>_xlfn.STDEV.S(B44:B53)</f>
+        <f t="shared" ref="B55:J55" si="17">_xlfn.STDEV.S(B44:B53)</f>
         <v>3.0924922197532276</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:J55" si="38">_xlfn.STDEV.S(C44:C53)</f>
+        <f t="shared" si="17"/>
         <v>2.8276332985465662</v>
       </c>
       <c r="D55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>2.545779717539487</v>
       </c>
       <c r="E55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>1.2620397247124198</v>
       </c>
       <c r="F55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>1.8975556165467936E-3</v>
       </c>
       <c r="G55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>4.8705922677715922E-3</v>
       </c>
       <c r="H55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>3.2455808603440586E-4</v>
       </c>
       <c r="I55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>3.7415662831628566E-4</v>
       </c>
       <c r="J55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>3.9310342708157257E-3</v>
       </c>
     </row>
@@ -15835,39 +15841,39 @@
       </c>
       <c r="B56">
         <f>B55/B54</f>
-        <v>1.2020308955432916E-3</v>
+        <v>1.2020308955432914E-3</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56" si="39">C55/C54</f>
-        <v>1.098836915036942E-3</v>
+        <f t="shared" ref="C56" si="18">C55/C54</f>
+        <v>1.0988369150369422E-3</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56" si="40">D55/D54</f>
-        <v>1.3427874252509837E-3</v>
+        <f t="shared" ref="D56" si="19">D55/D54</f>
+        <v>1.342787425250984E-3</v>
       </c>
       <c r="E56">
-        <f t="shared" ref="E56" si="41">E55/E54</f>
-        <v>1.1588394619477253E-3</v>
+        <f t="shared" ref="E56" si="20">E55/E54</f>
+        <v>1.1588394619477251E-3</v>
       </c>
       <c r="F56">
-        <f t="shared" ref="F56" si="42">F55/F54</f>
-        <v>9.3911834598188207E-2</v>
+        <f t="shared" ref="F56" si="21">F55/F54</f>
+        <v>9.3911834598188193E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56" si="43">G55/G54</f>
+        <f t="shared" ref="G56" si="22">G55/G54</f>
         <v>-0.22299308943069135</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56" si="44">H55/H54</f>
+        <f t="shared" ref="H56" si="23">H55/H54</f>
         <v>0.52969481876107238</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56" si="45">I55/I54</f>
+        <f t="shared" ref="I56" si="24">I55/I54</f>
         <v>2.1333009236127372</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J56" si="46">J55/J54</f>
-        <v>5.0475459957556383</v>
+        <f t="shared" ref="J56" si="25">J55/J54</f>
+        <v>5.0475459957556392</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -15875,39 +15881,39 @@
         <v>197</v>
       </c>
       <c r="B57">
-        <f>MIN(B44:B53)</f>
+        <f t="shared" ref="B57:J57" si="26">MIN(B44:B53)</f>
         <v>2570.1307710440151</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:J57" si="47">MIN(C44:C53)</f>
+        <f t="shared" si="26"/>
         <v>2569.9681336346171</v>
       </c>
       <c r="D57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>1889.869771679734</v>
       </c>
       <c r="E57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>1087.4882938880351</v>
       </c>
       <c r="F57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>1.80946576420771E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>-2.6783972830835039E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>1.132013311857732E-4</v>
       </c>
       <c r="I57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>-4.7610584336747931E-4</v>
       </c>
       <c r="J57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>-5.6825460967198363E-3</v>
       </c>
     </row>
@@ -15916,39 +15922,39 @@
         <v>0.25</v>
       </c>
       <c r="B58">
-        <f>_xlfn.PERCENTILE.INC(B44:B53,0.25)</f>
+        <f t="shared" ref="B58:J58" si="27">_xlfn.PERCENTILE.INC(B44:B53,0.25)</f>
         <v>2570.6207861017292</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:J58" si="48">_xlfn.PERCENTILE.INC(C44:C53,0.25)</f>
+        <f t="shared" si="27"/>
         <v>2572.1751891085178</v>
       </c>
       <c r="D58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>1895.3608465679986</v>
       </c>
       <c r="E58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>1087.8549390959033</v>
       </c>
       <c r="F58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>1.8498938042386448E-2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>-2.6554653012821641E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>3.0732455163500426E-4</v>
       </c>
       <c r="I58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>1.7480538472945088E-5</v>
       </c>
       <c r="J58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>-2.1414748195944869E-3</v>
       </c>
     </row>
@@ -15957,39 +15963,39 @@
         <v>0.5</v>
       </c>
       <c r="B59">
-        <f>_xlfn.PERCENTILE.INC(B44:B53,0.5)</f>
+        <f t="shared" ref="B59:J59" si="28">_xlfn.PERCENTILE.INC(B44:B53,0.5)</f>
         <v>2571.787028171932</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:J59" si="49">_xlfn.PERCENTILE.INC(C44:C53,0.5)</f>
+        <f t="shared" si="28"/>
         <v>2572.2507114865039</v>
       </c>
       <c r="D59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>1895.858507165475</v>
       </c>
       <c r="E59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>1088.8882779813166</v>
       </c>
       <c r="F59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>1.9538070292234571E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>-2.1655952844549544E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>8.2361414748407689E-4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>9.0757177288955799E-5</v>
       </c>
       <c r="J59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>1.0489596834162905E-3</v>
       </c>
     </row>
@@ -15998,39 +16004,39 @@
         <v>0.75</v>
       </c>
       <c r="B60">
-        <f>_xlfn.PERCENTILE.INC(B44:B53,0.75)</f>
+        <f t="shared" ref="B60:J60" si="29">_xlfn.PERCENTILE.INC(B44:B53,0.75)</f>
         <v>2572.4715109444483</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:J60" si="50">_xlfn.PERCENTILE.INC(C44:C53,0.75)</f>
+        <f t="shared" si="29"/>
         <v>2572.5765236839661</v>
       </c>
       <c r="D60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>1897.4852742627661</v>
       </c>
       <c r="E60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>1090.3588734885291</v>
       </c>
       <c r="F60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>2.2328363219975257E-2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>-1.8253313578046809E-2</v>
       </c>
       <c r="H60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>8.3986553704612293E-4</v>
       </c>
       <c r="I60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>4.8436400017724872E-4</v>
       </c>
       <c r="J60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>4.2620102678809684E-3</v>
       </c>
     </row>
@@ -16039,39 +16045,39 @@
         <v>201</v>
       </c>
       <c r="B61">
-        <f>MAX(B44:B53)</f>
+        <f t="shared" ref="B61:J61" si="30">MAX(B44:B53)</f>
         <v>2578.5927918647808</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:J61" si="51">MAX(C44:C53)</f>
+        <f t="shared" si="30"/>
         <v>2578.5895456057378</v>
       </c>
       <c r="D61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>1899.394433751866</v>
       </c>
       <c r="E61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>1090.4593879193819</v>
       </c>
       <c r="F61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>2.237967132875272E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>-1.3982398252005189E-2</v>
       </c>
       <c r="H61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>9.2106881752922459E-4</v>
       </c>
       <c r="I61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>7.5982609340544593E-4</v>
       </c>
       <c r="J61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>4.9033896521162553E-3</v>
       </c>
     </row>
@@ -16109,352 +16115,352 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B65">
-        <v>2581.5729577097891</v>
+        <v>2571.0325455113179</v>
       </c>
       <c r="C65">
-        <v>2581.640907297266</v>
+        <v>2571.7624727761481</v>
       </c>
       <c r="D65">
-        <v>1883.8981022475771</v>
+        <v>1874.729160159324</v>
       </c>
       <c r="E65">
-        <v>1086.4472896738009</v>
+        <v>1088.5422419637939</v>
       </c>
       <c r="F65">
-        <v>1.152933523327911E-2</v>
+        <v>1.306506353774544E-2</v>
       </c>
       <c r="G65">
-        <v>-1.4218693123919809E-2</v>
+        <v>-2.0599002943287242E-2</v>
       </c>
       <c r="H65">
-        <v>3.2612009118551482E-4</v>
+        <v>3.3883554666267263E-5</v>
       </c>
       <c r="I65">
-        <v>-1.4984230959278831E-3</v>
+        <v>-2.508399120275155E-3</v>
       </c>
       <c r="J65">
-        <v>3.9994181720845214E-3</v>
+        <v>1.207968725475048E-2</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66">
-        <v>2582.8926223914518</v>
+        <v>2581.5729577097891</v>
       </c>
       <c r="C66">
-        <v>2584.157948034288</v>
+        <v>2581.640907297266</v>
       </c>
       <c r="D66">
-        <v>1870.9465742593791</v>
+        <v>1883.8981022475771</v>
       </c>
       <c r="E66">
-        <v>1087.505032081242</v>
+        <v>1086.4472896738009</v>
       </c>
       <c r="F66">
-        <v>9.3635146963813292E-3</v>
+        <v>1.152933523327911E-2</v>
       </c>
       <c r="G66">
-        <v>-7.2252382809146008E-3</v>
+        <v>-1.4218693123919809E-2</v>
       </c>
       <c r="H66">
-        <v>3.2104360412325069E-4</v>
+        <v>3.2612009118551482E-4</v>
       </c>
       <c r="I66">
-        <v>-3.3604732940524869E-3</v>
+        <v>-1.4984230959278831E-3</v>
       </c>
       <c r="J66">
-        <v>-2.3321883422033258E-3</v>
+        <v>3.9994181720845214E-3</v>
       </c>
       <c r="K66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B67">
-        <v>2571.3618330756231</v>
+        <v>2584.0873616627309</v>
       </c>
       <c r="C67">
-        <v>2578.335691852626</v>
+        <v>2583.7535094087848</v>
       </c>
       <c r="D67">
-        <v>1855.351024477857</v>
+        <v>1886.093888756104</v>
       </c>
       <c r="E67">
-        <v>1085.306903892513</v>
+        <v>1085.9918197429411</v>
       </c>
       <c r="F67">
-        <v>8.3143982492586439E-3</v>
+        <v>1.338678516317094E-2</v>
       </c>
       <c r="G67">
-        <v>-1.813417130943988E-3</v>
+        <v>-2.0543287350188628E-2</v>
       </c>
       <c r="H67">
-        <v>4.458819204584392E-4</v>
+        <v>3.0322272073222251E-4</v>
       </c>
       <c r="I67">
-        <v>-4.9396516321453992E-3</v>
+        <v>-1.1200146990706661E-3</v>
       </c>
       <c r="J67">
-        <v>-1.0475588955250279E-2</v>
+        <v>9.6006761660793506E-3</v>
       </c>
       <c r="K67" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B68">
-        <v>2571.0325455113179</v>
+        <v>2584.0873616627309</v>
       </c>
       <c r="C68">
-        <v>2571.7624727761481</v>
+        <v>2583.7535094087848</v>
       </c>
       <c r="D68">
-        <v>1874.729160159324</v>
+        <v>1886.093888756104</v>
       </c>
       <c r="E68">
-        <v>1088.5422419637939</v>
+        <v>1085.9918197429411</v>
       </c>
       <c r="F68">
-        <v>1.306506353774544E-2</v>
+        <v>1.338678516317094E-2</v>
       </c>
       <c r="G68">
-        <v>-2.0599002943287242E-2</v>
+        <v>-2.0543287350188628E-2</v>
       </c>
       <c r="H68">
-        <v>3.3883554666267263E-5</v>
+        <v>3.0322272073222251E-4</v>
       </c>
       <c r="I68">
-        <v>-2.508399120275155E-3</v>
+        <v>-1.1200146990706661E-3</v>
       </c>
       <c r="J68">
-        <v>1.207968725475048E-2</v>
+        <v>9.6006761660793506E-3</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B69">
-        <v>2580.3931599753719</v>
+        <v>2582.8926223914518</v>
       </c>
       <c r="C69">
-        <v>2584.0547627574811</v>
+        <v>2584.157948034288</v>
       </c>
       <c r="D69">
-        <v>1866.2093132013581</v>
+        <v>1870.9465742593791</v>
       </c>
       <c r="E69">
-        <v>1086.4830450112161</v>
+        <v>1087.505032081242</v>
       </c>
       <c r="F69">
-        <v>1.0862979682321829E-2</v>
+        <v>9.3635146963813292E-3</v>
       </c>
       <c r="G69">
-        <v>-1.2105977140464101E-2</v>
+        <v>-7.2252382809146008E-3</v>
       </c>
       <c r="H69">
-        <v>2.9544780809560422E-4</v>
+        <v>3.2104360412325069E-4</v>
       </c>
       <c r="I69">
-        <v>-3.6868584471770882E-3</v>
+        <v>-3.3604732940524869E-3</v>
       </c>
       <c r="J69">
-        <v>2.6418724850964942E-3</v>
+        <v>-2.3321883422033258E-3</v>
       </c>
       <c r="K69" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70">
-        <v>2578.4557461946679</v>
+        <v>2580.3931599753719</v>
       </c>
       <c r="C70">
-        <v>2583.8314634987642</v>
+        <v>2584.0547627574811</v>
       </c>
       <c r="D70">
-        <v>1862.523377109299</v>
+        <v>1866.2093132013581</v>
       </c>
       <c r="E70">
-        <v>1084.4700518234399</v>
+        <v>1086.4830450112161</v>
       </c>
       <c r="F70">
-        <v>5.1956400838978649E-3</v>
+        <v>1.0862979682321829E-2</v>
       </c>
       <c r="G70">
-        <v>7.8607926503448857E-3</v>
+        <v>-1.2105977140464101E-2</v>
       </c>
       <c r="H70">
-        <v>4.002940603383201E-4</v>
+        <v>2.9544780809560422E-4</v>
       </c>
       <c r="I70">
-        <v>-3.7527874967229979E-3</v>
+        <v>-3.6868584471770882E-3</v>
       </c>
       <c r="J70">
-        <v>-1.9238461096662971E-2</v>
+        <v>2.6418724850964942E-3</v>
       </c>
       <c r="K70" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71">
-        <v>2584.0873616627309</v>
+        <v>2580.3931599753719</v>
       </c>
       <c r="C71">
-        <v>2583.7535094087848</v>
+        <v>2584.0547627574811</v>
       </c>
       <c r="D71">
-        <v>1886.093888756104</v>
+        <v>1866.2093132013581</v>
       </c>
       <c r="E71">
-        <v>1085.9918197429411</v>
+        <v>1086.4830450112161</v>
       </c>
       <c r="F71">
-        <v>1.338678516317094E-2</v>
+        <v>1.0862979682321829E-2</v>
       </c>
       <c r="G71">
-        <v>-2.0543287350188628E-2</v>
+        <v>-1.2105977140464101E-2</v>
       </c>
       <c r="H71">
-        <v>3.0322272073222251E-4</v>
+        <v>2.9544780809560422E-4</v>
       </c>
       <c r="I71">
-        <v>-1.1200146990706661E-3</v>
+        <v>-3.6868584471770882E-3</v>
       </c>
       <c r="J71">
-        <v>9.6006761660793506E-3</v>
+        <v>2.6418724850964942E-3</v>
       </c>
       <c r="K71" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B72">
-        <v>2580.3931599753719</v>
+        <v>2578.4662248145542</v>
       </c>
       <c r="C72">
-        <v>2584.0547627574811</v>
+        <v>2582.0067877998599</v>
       </c>
       <c r="D72">
-        <v>1866.2093132013581</v>
+        <v>1864.836475524336</v>
       </c>
       <c r="E72">
-        <v>1086.4830450112161</v>
+        <v>1086.621545834264</v>
       </c>
       <c r="F72">
-        <v>1.0862979682321829E-2</v>
+        <v>8.5941088839027839E-3</v>
       </c>
       <c r="G72">
-        <v>-1.2105977140464101E-2</v>
+        <v>-4.5404831820138221E-3</v>
       </c>
       <c r="H72">
-        <v>2.9544780809560422E-4</v>
+        <v>2.963840610132652E-4</v>
       </c>
       <c r="I72">
-        <v>-3.6868584471770882E-3</v>
+        <v>-4.0039588214461526E-3</v>
       </c>
       <c r="J72">
-        <v>2.6418724850964942E-3</v>
+        <v>-4.1495994354083634E-3</v>
       </c>
       <c r="K72" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B73">
-        <v>2584.0873616627309</v>
+        <v>2571.3618330756231</v>
       </c>
       <c r="C73">
-        <v>2583.7535094087848</v>
+        <v>2578.335691852626</v>
       </c>
       <c r="D73">
-        <v>1886.093888756104</v>
+        <v>1855.351024477857</v>
       </c>
       <c r="E73">
-        <v>1085.9918197429411</v>
+        <v>1085.306903892513</v>
       </c>
       <c r="F73">
-        <v>1.338678516317094E-2</v>
+        <v>8.3143982492586439E-3</v>
       </c>
       <c r="G73">
-        <v>-2.0543287350188628E-2</v>
+        <v>-1.813417130943988E-3</v>
       </c>
       <c r="H73">
-        <v>3.0322272073222251E-4</v>
+        <v>4.458819204584392E-4</v>
       </c>
       <c r="I73">
-        <v>-1.1200146990706661E-3</v>
+        <v>-4.9396516321453992E-3</v>
       </c>
       <c r="J73">
-        <v>9.6006761660793506E-3</v>
+        <v>-1.0475588955250279E-2</v>
       </c>
       <c r="K73" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B74">
-        <v>2578.4662248145542</v>
+        <v>2578.4557461946679</v>
       </c>
       <c r="C74">
-        <v>2582.0067877998599</v>
+        <v>2583.8314634987642</v>
       </c>
       <c r="D74">
-        <v>1864.836475524336</v>
+        <v>1862.523377109299</v>
       </c>
       <c r="E74">
-        <v>1086.621545834264</v>
+        <v>1084.4700518234399</v>
       </c>
       <c r="F74">
-        <v>8.5941088839027839E-3</v>
+        <v>5.1956400838978649E-3</v>
       </c>
       <c r="G74">
-        <v>-4.5404831820138221E-3</v>
+        <v>7.8607926503448857E-3</v>
       </c>
       <c r="H74">
-        <v>2.963840610132652E-4</v>
+        <v>4.002940603383201E-4</v>
       </c>
       <c r="I74">
-        <v>-4.0039588214461526E-3</v>
+        <v>-3.7527874967229979E-3</v>
       </c>
       <c r="J74">
-        <v>-4.1495994354083634E-3</v>
+        <v>-1.9238461096662971E-2</v>
       </c>
       <c r="K74" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -16462,40 +16468,40 @@
         <v>195</v>
       </c>
       <c r="B75">
-        <f>AVERAGE(B65:B74)</f>
-        <v>2579.274297297361</v>
+        <f t="shared" ref="B75:J75" si="31">AVERAGE(B65:B74)</f>
+        <v>2579.2742972973606</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75" si="52">AVERAGE(C65:C74)</f>
-        <v>2581.7351815591483</v>
+        <f t="shared" si="31"/>
+        <v>2581.7351815591487</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75" si="53">AVERAGE(D65:D74)</f>
-        <v>1871.6891117692696</v>
+        <f t="shared" si="31"/>
+        <v>1871.6891117692692</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75" si="54">AVERAGE(E65:E74)</f>
+        <f t="shared" si="31"/>
         <v>1086.384279477737</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75" si="55">AVERAGE(F65:F74)</f>
-        <v>1.0456159037545069E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.0456159037545071E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75" si="56">AVERAGE(G65:G74)</f>
-        <v>-1.0583457099204004E-2</v>
+        <f t="shared" si="31"/>
+        <v>-1.0583457099204005E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" ref="H75" si="57">AVERAGE(H65:H74)</f>
+        <f t="shared" si="31"/>
         <v>3.0209483494407106E-4</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75" si="58">AVERAGE(I65:I74)</f>
-        <v>-2.9677439753065579E-3</v>
+        <f t="shared" si="31"/>
+        <v>-2.9677439753065583E-3</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75" si="59">AVERAGE(J65:J74)</f>
-        <v>4.3683648996617518E-4</v>
+        <f t="shared" si="31"/>
+        <v>4.3683648996617475E-4</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -16503,39 +16509,39 @@
         <v>196</v>
       </c>
       <c r="B76">
-        <f>_xlfn.STDEV.S(B65:B74)</f>
+        <f t="shared" ref="B76:J76" si="32">_xlfn.STDEV.S(B65:B74)</f>
         <v>4.7030435812152191</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:J76" si="60">_xlfn.STDEV.S(C65:C74)</f>
+        <f t="shared" si="32"/>
         <v>3.9478054687763109</v>
       </c>
       <c r="D76">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>10.707249367402591</v>
       </c>
       <c r="E76">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>1.1118412311932195</v>
       </c>
       <c r="F76">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>2.6328593720214375E-3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="60"/>
-        <v>9.3181888356007204E-3</v>
+        <f t="shared" si="32"/>
+        <v>9.3181888356007152E-3</v>
       </c>
       <c r="H76">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>1.0714211570065751E-4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>1.3318763042760369E-3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>9.7799426384935408E-3</v>
       </c>
     </row>
@@ -16545,39 +16551,39 @@
       </c>
       <c r="B77">
         <f>B76/B75</f>
-        <v>1.823397994599956E-3</v>
+        <v>1.8233979945999565E-3</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77" si="61">C76/C75</f>
-        <v>1.5291287413886395E-3</v>
+        <f t="shared" ref="C77" si="33">C76/C75</f>
+        <v>1.5291287413886391E-3</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77" si="62">D76/D75</f>
-        <v>5.7206345327730449E-3</v>
+        <f t="shared" ref="D77" si="34">D76/D75</f>
+        <v>5.7206345327730458E-3</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77" si="63">E76/E75</f>
+        <f t="shared" ref="E77" si="35">E76/E75</f>
         <v>1.0234327320418522E-3</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77" si="64">F76/F75</f>
+        <f t="shared" ref="F77" si="36">F76/F75</f>
         <v>0.25179985906560853</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77" si="65">G76/G75</f>
-        <v>-0.8804484912875542</v>
+        <f t="shared" ref="G77" si="37">G76/G75</f>
+        <v>-0.88044849128755365</v>
       </c>
       <c r="H77">
-        <f t="shared" ref="H77" si="66">H76/H75</f>
+        <f t="shared" ref="H77" si="38">H76/H75</f>
         <v>0.35466384494952879</v>
       </c>
       <c r="I77">
-        <f t="shared" ref="I77" si="67">I76/I75</f>
-        <v>-0.44878409841214778</v>
+        <f t="shared" ref="I77" si="39">I76/I75</f>
+        <v>-0.44878409841214773</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77" si="68">J76/J75</f>
-        <v>22.388108281088915</v>
+        <f t="shared" ref="J77" si="40">J76/J75</f>
+        <v>22.388108281088936</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -16585,39 +16591,39 @@
         <v>197</v>
       </c>
       <c r="B78">
-        <f>MIN(B65:B74)</f>
+        <f t="shared" ref="B78:J78" si="41">MIN(B65:B74)</f>
         <v>2571.0325455113179</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:J78" si="69">MIN(C65:C74)</f>
+        <f t="shared" si="41"/>
         <v>2571.7624727761481</v>
       </c>
       <c r="D78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1855.351024477857</v>
       </c>
       <c r="E78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1084.4700518234399</v>
       </c>
       <c r="F78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>5.1956400838978649E-3</v>
       </c>
       <c r="G78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>-2.0599002943287242E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>3.3883554666267263E-5</v>
       </c>
       <c r="I78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>-4.9396516321453992E-3</v>
       </c>
       <c r="J78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>-1.9238461096662971E-2</v>
       </c>
     </row>
@@ -16626,39 +16632,39 @@
         <v>0.25</v>
       </c>
       <c r="B79">
-        <f>_xlfn.PERCENTILE.INC(B65:B74,0.25)</f>
+        <f t="shared" ref="B79:J79" si="42">_xlfn.PERCENTILE.INC(B65:B74,0.25)</f>
         <v>2578.4583658496394</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:J79" si="70">_xlfn.PERCENTILE.INC(C65:C74,0.25)</f>
+        <f t="shared" si="42"/>
         <v>2581.7323774229144</v>
       </c>
       <c r="D79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>1865.1796849435916</v>
       </c>
       <c r="E79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>1085.9918197429411</v>
       </c>
       <c r="F79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>8.7864603370224198E-3</v>
       </c>
       <c r="G79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>-1.8962138793621422E-2</v>
       </c>
       <c r="H79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>2.9568187132501946E-4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>-3.7363052343365203E-3</v>
       </c>
       <c r="J79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="42"/>
         <v>-3.6952466621071041E-3</v>
       </c>
     </row>
@@ -16667,39 +16673,39 @@
         <v>0.5</v>
       </c>
       <c r="B80">
-        <f>_xlfn.PERCENTILE.INC(B65:B74,0.5)</f>
+        <f t="shared" ref="B80:J80" si="43">_xlfn.PERCENTILE.INC(B65:B74,0.5)</f>
         <v>2580.3931599753719</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:J80" si="71">_xlfn.PERCENTILE.INC(C65:C74,0.5)</f>
+        <f t="shared" si="43"/>
         <v>2583.7535094087848</v>
       </c>
       <c r="D80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>1868.5779437303686</v>
       </c>
       <c r="E80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>1086.4651673425085</v>
       </c>
       <c r="F80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>1.0862979682321829E-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>-1.2105977140464101E-2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>3.0322272073222251E-4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>-3.5236658706147873E-3</v>
       </c>
       <c r="J80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="43"/>
         <v>2.6418724850964942E-3</v>
       </c>
     </row>
@@ -16708,39 +16714,39 @@
         <v>0.75</v>
       </c>
       <c r="B81">
-        <f>_xlfn.PERCENTILE.INC(B65:B74,0.75)</f>
+        <f t="shared" ref="B81:J81" si="44">_xlfn.PERCENTILE.INC(B65:B74,0.75)</f>
         <v>2582.562706221036</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:J81" si="72">_xlfn.PERCENTILE.INC(C65:C74,0.75)</f>
+        <f t="shared" si="44"/>
         <v>2583.9989379428016</v>
       </c>
       <c r="D81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>1881.6058667255138</v>
       </c>
       <c r="E81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>1086.586920628502</v>
       </c>
       <c r="F81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>1.2681131461628858E-2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>-5.2116719567390172E-3</v>
       </c>
       <c r="H81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>3.2485096941994878E-4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>-1.750917102014701E-3</v>
       </c>
       <c r="J81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="44"/>
         <v>8.2003616675806433E-3</v>
       </c>
     </row>
@@ -16749,39 +16755,39 @@
         <v>201</v>
       </c>
       <c r="B82">
-        <f>MAX(B65:B74)</f>
+        <f t="shared" ref="B82:J82" si="45">MAX(B65:B74)</f>
         <v>2584.0873616627309</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:J82" si="73">MAX(C65:C74)</f>
+        <f t="shared" si="45"/>
         <v>2584.157948034288</v>
       </c>
       <c r="D82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>1886.093888756104</v>
       </c>
       <c r="E82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>1088.5422419637939</v>
       </c>
       <c r="F82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>1.338678516317094E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>7.8607926503448857E-3</v>
       </c>
       <c r="H82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>4.458819204584392E-4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>-1.1200146990706661E-3</v>
       </c>
       <c r="J82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="45"/>
         <v>1.207968725475048E-2</v>
       </c>
     </row>
@@ -17176,35 +17182,35 @@
         <v>2567.1096575706738</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96" si="74">AVERAGE(C86:C95)</f>
+        <f t="shared" ref="C96" si="46">AVERAGE(C86:C95)</f>
         <v>2570.0859869966521</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96" si="75">AVERAGE(D86:D95)</f>
+        <f t="shared" ref="D96" si="47">AVERAGE(D86:D95)</f>
         <v>1874.266594785536</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96" si="76">AVERAGE(E86:E95)</f>
+        <f t="shared" ref="E96" si="48">AVERAGE(E86:E95)</f>
         <v>1084.2873003336772</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96" si="77">AVERAGE(F86:F95)</f>
+        <f t="shared" ref="F96" si="49">AVERAGE(F86:F95)</f>
         <v>1.4256031896683277E-2</v>
       </c>
       <c r="G96">
-        <f t="shared" ref="G96" si="78">AVERAGE(G86:G95)</f>
+        <f t="shared" ref="G96" si="50">AVERAGE(G86:G95)</f>
         <v>-1.9837446285869597E-2</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96" si="79">AVERAGE(H86:H95)</f>
+        <f t="shared" ref="H96" si="51">AVERAGE(H86:H95)</f>
         <v>3.9250017127465142E-5</v>
       </c>
       <c r="I96">
-        <f t="shared" ref="I96" si="80">AVERAGE(I86:I95)</f>
+        <f t="shared" ref="I96" si="52">AVERAGE(I86:I95)</f>
         <v>-1.6234871477087839E-3</v>
       </c>
       <c r="J96">
-        <f t="shared" ref="J96" si="81">AVERAGE(J86:J95)</f>
+        <f t="shared" ref="J96" si="53">AVERAGE(J86:J95)</f>
         <v>9.4304811102671714E-3</v>
       </c>
     </row>
@@ -17217,35 +17223,35 @@
         <v>1.3424509142191774</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:J97" si="82">_xlfn.STDEV.S(C86:C95)</f>
+        <f t="shared" ref="C97:J97" si="54">_xlfn.STDEV.S(C86:C95)</f>
         <v>0.89109850737702878</v>
       </c>
       <c r="D97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>4.1096252863564722</v>
       </c>
       <c r="E97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>0.79831488089816149</v>
       </c>
       <c r="F97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>7.4981470798342667E-4</v>
       </c>
       <c r="G97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>3.6179163183485035E-3</v>
       </c>
       <c r="H97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>2.2097031390743097E-4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>2.857936683748643E-4</v>
       </c>
       <c r="J97">
-        <f t="shared" si="82"/>
+        <f t="shared" si="54"/>
         <v>4.7875168829513851E-3</v>
       </c>
     </row>
@@ -17258,35 +17264,35 @@
         <v>5.2294256704623026E-4</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98" si="83">C97/C96</f>
+        <f t="shared" ref="C98" si="55">C97/C96</f>
         <v>3.4671933619557512E-4</v>
       </c>
       <c r="D98">
-        <f t="shared" ref="D98" si="84">D97/D96</f>
+        <f t="shared" ref="D98" si="56">D97/D96</f>
         <v>2.1926578096147088E-3</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98" si="85">E97/E96</f>
+        <f t="shared" ref="E98" si="57">E97/E96</f>
         <v>7.3625770646994486E-4</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98" si="86">F97/F96</f>
+        <f t="shared" ref="F98" si="58">F97/F96</f>
         <v>5.2596312453388527E-2</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98" si="87">G97/G96</f>
+        <f t="shared" ref="G98" si="59">G97/G96</f>
         <v>-0.18237812802172929</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98" si="88">H97/H96</f>
+        <f t="shared" ref="H98" si="60">H97/H96</f>
         <v>5.6298144581650975</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98" si="89">I97/I96</f>
+        <f t="shared" ref="I98" si="61">I97/I96</f>
         <v>-0.17603691459966464</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98" si="90">J97/J96</f>
+        <f t="shared" ref="J98" si="62">J97/J96</f>
         <v>0.50766411882625062</v>
       </c>
     </row>
@@ -17299,35 +17305,35 @@
         <v>2564.1955712197901</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:J99" si="91">MIN(C86:C95)</f>
+        <f t="shared" ref="C99:J99" si="63">MIN(C86:C95)</f>
         <v>2568.7664013288158</v>
       </c>
       <c r="D99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1867.1418303516371</v>
       </c>
       <c r="E99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1083.020687740152</v>
       </c>
       <c r="F99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>1.3813562988418489E-2</v>
       </c>
       <c r="G99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>-2.6144216076450899E-2</v>
       </c>
       <c r="H99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>-2.0695308578054121E-4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>-2.1749088199226291E-3</v>
       </c>
       <c r="J99">
-        <f t="shared" si="91"/>
+        <f t="shared" si="63"/>
         <v>3.721509474052676E-3</v>
       </c>
     </row>
@@ -17340,35 +17346,35 @@
         <v>2566.7421324666693</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:J100" si="92">_xlfn.PERCENTILE.INC(C86:C95,0.25)</f>
+        <f t="shared" ref="C100:J100" si="64">_xlfn.PERCENTILE.INC(C86:C95,0.25)</f>
         <v>2569.5491962378505</v>
       </c>
       <c r="D100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>1872.5273385028279</v>
       </c>
       <c r="E100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>1084.1271726654049</v>
       </c>
       <c r="F100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>1.3882731362020697E-2</v>
       </c>
       <c r="G100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>-2.1636030540585209E-2</v>
       </c>
       <c r="H100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>-1.7091367102498199E-4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>-1.8272247796928805E-3</v>
       </c>
       <c r="J100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="64"/>
         <v>5.3236829739258364E-3</v>
       </c>
     </row>
@@ -17381,35 +17387,35 @@
         <v>2567.3978811448651</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:J101" si="93">_xlfn.PERCENTILE.INC(C86:C95,0.5)</f>
+        <f t="shared" ref="C101:J101" si="65">_xlfn.PERCENTILE.INC(C86:C95,0.5)</f>
         <v>2569.6247962717362</v>
       </c>
       <c r="D101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>1875.621734982517</v>
       </c>
       <c r="E101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>1084.2789650653026</v>
       </c>
       <c r="F101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>1.4042661198629416E-2</v>
       </c>
       <c r="G101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>-1.9032827084578329E-2</v>
       </c>
       <c r="H101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>3.1152262280957331E-5</v>
       </c>
       <c r="I101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>-1.598225378732482E-3</v>
       </c>
       <c r="J101">
-        <f t="shared" si="93"/>
+        <f t="shared" si="65"/>
         <v>8.8738799193273828E-3</v>
       </c>
     </row>
@@ -17422,35 +17428,35 @@
         <v>2568.0415204844076</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:J102" si="94">_xlfn.PERCENTILE.INC(C86:C95,0.75)</f>
+        <f t="shared" ref="C102:J102" si="66">_xlfn.PERCENTILE.INC(C86:C95,0.75)</f>
         <v>2570.8711164451252</v>
       </c>
       <c r="D102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>1877.2023500098112</v>
       </c>
       <c r="E102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>1084.4865242638525</v>
       </c>
       <c r="F102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>1.4094088354971512E-2</v>
       </c>
       <c r="G102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>-1.6904416041825521E-2</v>
       </c>
       <c r="H102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>2.3752443941197133E-4</v>
       </c>
       <c r="I102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>-1.3772428619311923E-3</v>
       </c>
       <c r="J102">
-        <f t="shared" si="94"/>
+        <f t="shared" si="66"/>
         <v>1.2981002933116652E-2</v>
       </c>
     </row>
@@ -17463,35 +17469,35 @@
         <v>2568.4383378002758</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:J103" si="95">MAX(C86:C95)</f>
+        <f t="shared" ref="C103:J103" si="67">MAX(C86:C95)</f>
         <v>2571.355155001213</v>
       </c>
       <c r="D103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>1878.0286843551639</v>
       </c>
       <c r="E103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>1085.4874908928589</v>
       </c>
       <c r="F103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>1.629727248857887E-2</v>
       </c>
       <c r="G103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>-1.581484391381659E-2</v>
       </c>
       <c r="H103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>3.6878143909383458E-4</v>
       </c>
       <c r="I103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>-1.330138212327966E-3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="95"/>
+        <f t="shared" si="67"/>
         <v>1.636728925149732E-2</v>
       </c>
     </row>
@@ -17529,352 +17535,352 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B107">
-        <v>2581.2145762639111</v>
+        <v>2579.4013590156319</v>
       </c>
       <c r="C107">
-        <v>2582.4542418645228</v>
+        <v>2578.9996635405118</v>
       </c>
       <c r="D107">
-        <v>1894.1226952189179</v>
+        <v>1887.3422848543689</v>
       </c>
       <c r="E107">
-        <v>1094.723856549783</v>
+        <v>1092.5812726373861</v>
       </c>
       <c r="F107">
-        <v>1.551785320926225E-2</v>
+        <v>1.78229546692261E-2</v>
       </c>
       <c r="G107">
-        <v>-3.3727051801960277E-2</v>
+        <v>-4.172265447310225E-2</v>
       </c>
       <c r="H107">
-        <v>-2.5724811813221138E-4</v>
+        <v>-4.7190270640959852E-4</v>
       </c>
       <c r="I107">
-        <v>2.8021775510879609E-5</v>
+        <v>-4.7688958298811978E-4</v>
       </c>
       <c r="J107">
-        <v>2.5588329394231571E-2</v>
+        <v>3.272997461606416E-2</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B108">
-        <v>2580.7220959268002</v>
+        <v>2581.2145762639111</v>
       </c>
       <c r="C108">
-        <v>2580.7468647159808</v>
+        <v>2582.4542418645228</v>
       </c>
       <c r="D108">
-        <v>1897.194863119759</v>
+        <v>1894.1226952189179</v>
       </c>
       <c r="E108">
-        <v>1093.699917035269</v>
+        <v>1094.723856549783</v>
       </c>
       <c r="F108">
-        <v>1.3481967380420149E-2</v>
+        <v>1.551785320926225E-2</v>
       </c>
       <c r="G108">
-        <v>-2.5096903483066469E-2</v>
+        <v>-3.3727051801960277E-2</v>
       </c>
       <c r="H108">
-        <v>-3.8076869580209289E-4</v>
+        <v>-2.5724811813221138E-4</v>
       </c>
       <c r="I108">
-        <v>3.0742726562833881E-4</v>
+        <v>2.8021775510879609E-5</v>
       </c>
       <c r="J108">
-        <v>1.5758328517423731E-2</v>
+        <v>2.5588329394231571E-2</v>
       </c>
       <c r="K108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B109">
-        <v>2578.8262672562792</v>
+        <v>2581.194814745164</v>
       </c>
       <c r="C109">
-        <v>2580.194797090151</v>
+        <v>2582.438849061873</v>
       </c>
       <c r="D109">
-        <v>1877.851406324321</v>
+        <v>1894.1499178824331</v>
       </c>
       <c r="E109">
-        <v>1094.846149868047</v>
+        <v>1094.673936845993</v>
       </c>
       <c r="F109">
-        <v>1.7853189913417451E-2</v>
+        <v>1.5579852891139031E-2</v>
       </c>
       <c r="G109">
-        <v>-4.4274845763057173E-2</v>
+        <v>-3.3775813004833469E-2</v>
       </c>
       <c r="H109">
-        <v>-1.7460931153926289E-4</v>
+        <v>-2.5601317377356772E-4</v>
       </c>
       <c r="I109">
-        <v>-1.5152405567428781E-3</v>
+        <v>3.1814890572587163E-5</v>
       </c>
       <c r="J109">
-        <v>3.826953150794845E-2</v>
+        <v>2.555384805843762E-2</v>
       </c>
       <c r="K109" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B110">
-        <v>2579.4013590156319</v>
+        <v>2581.3380764772751</v>
       </c>
       <c r="C110">
-        <v>2578.9996635405118</v>
+        <v>2582.4722772182558</v>
       </c>
       <c r="D110">
-        <v>1887.3422848543689</v>
+        <v>1894.416887061878</v>
       </c>
       <c r="E110">
-        <v>1092.5812726373861</v>
+        <v>1094.695840912864</v>
       </c>
       <c r="F110">
-        <v>1.78229546692261E-2</v>
+        <v>1.551549350690813E-2</v>
       </c>
       <c r="G110">
-        <v>-4.172265447310225E-2</v>
+        <v>-3.3754630087607602E-2</v>
       </c>
       <c r="H110">
-        <v>-4.7190270640959852E-4</v>
+        <v>-2.5663907345654133E-4</v>
       </c>
       <c r="I110">
-        <v>-4.7688958298811978E-4</v>
+        <v>6.6455292968319702E-5</v>
       </c>
       <c r="J110">
-        <v>3.272997461606416E-2</v>
+        <v>2.5613719002774871E-2</v>
       </c>
       <c r="K110" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B111">
-        <v>2581.2705739492089</v>
+        <v>2580.7220959268002</v>
       </c>
       <c r="C111">
-        <v>2580.9899703570281</v>
+        <v>2580.7468647159808</v>
       </c>
       <c r="D111">
-        <v>1896.500160468647</v>
+        <v>1897.194863119759</v>
       </c>
       <c r="E111">
-        <v>1093.4124823365919</v>
+        <v>1093.699917035269</v>
       </c>
       <c r="F111">
-        <v>1.427507550994756E-2</v>
+        <v>1.3481967380420149E-2</v>
       </c>
       <c r="G111">
-        <v>-2.786657700440787E-2</v>
+        <v>-2.5096903483066469E-2</v>
       </c>
       <c r="H111">
-        <v>-4.3159235949026331E-4</v>
+        <v>-3.8076869580209289E-4</v>
       </c>
       <c r="I111">
-        <v>2.194607227411882E-4</v>
+        <v>3.0742726562833881E-4</v>
       </c>
       <c r="J111">
-        <v>1.850275936988087E-2</v>
+        <v>1.5758328517423731E-2</v>
       </c>
       <c r="K111" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B112">
-        <v>2580.770257156059</v>
+        <v>2580.765897860424</v>
       </c>
       <c r="C112">
-        <v>2580.7259493827769</v>
+        <v>2580.5622108091029</v>
       </c>
       <c r="D112">
-        <v>1878.0241474598099</v>
+        <v>1896.7010631640101</v>
       </c>
       <c r="E112">
-        <v>1094.068260559063</v>
+        <v>1093.4841276379291</v>
       </c>
       <c r="F112">
-        <v>1.8395807533926788E-2</v>
+        <v>1.379661738744355E-2</v>
       </c>
       <c r="G112">
-        <v>-4.5820522271458629E-2</v>
+        <v>-2.642459008552131E-2</v>
       </c>
       <c r="H112">
-        <v>-3.3931510018392862E-4</v>
+        <v>-3.9022509419364991E-4</v>
       </c>
       <c r="I112">
-        <v>-1.5471529985152559E-3</v>
+        <v>2.241679645958971E-4</v>
       </c>
       <c r="J112">
-        <v>3.8996746265955062E-2</v>
+        <v>1.7142975196442551E-2</v>
       </c>
       <c r="K112" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B113">
-        <v>2581.3380764772751</v>
+        <v>2581.2705739492089</v>
       </c>
       <c r="C113">
-        <v>2582.4722772182558</v>
+        <v>2580.9899703570281</v>
       </c>
       <c r="D113">
-        <v>1894.416887061878</v>
+        <v>1896.500160468647</v>
       </c>
       <c r="E113">
-        <v>1094.695840912864</v>
+        <v>1093.4124823365919</v>
       </c>
       <c r="F113">
-        <v>1.551549350690813E-2</v>
+        <v>1.427507550994756E-2</v>
       </c>
       <c r="G113">
-        <v>-3.3754630087607602E-2</v>
+        <v>-2.786657700440787E-2</v>
       </c>
       <c r="H113">
-        <v>-2.5663907345654133E-4</v>
+        <v>-4.3159235949026331E-4</v>
       </c>
       <c r="I113">
-        <v>6.6455292968319702E-5</v>
+        <v>2.194607227411882E-4</v>
       </c>
       <c r="J113">
-        <v>2.5613719002774871E-2</v>
+        <v>1.850275936988087E-2</v>
       </c>
       <c r="K113" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B114">
-        <v>2580.765897860424</v>
+        <v>2581.3763956801631</v>
       </c>
       <c r="C114">
-        <v>2580.5622108091029</v>
+        <v>2581.382260754754</v>
       </c>
       <c r="D114">
-        <v>1896.7010631640101</v>
+        <v>1896.9479477800071</v>
       </c>
       <c r="E114">
-        <v>1093.4841276379291</v>
+        <v>1092.5354375088</v>
       </c>
       <c r="F114">
-        <v>1.379661738744355E-2</v>
+        <v>1.4741884112381001E-2</v>
       </c>
       <c r="G114">
-        <v>-2.642459008552131E-2</v>
+        <v>-2.873288879715007E-2</v>
       </c>
       <c r="H114">
-        <v>-3.9022509419364991E-4</v>
+        <v>-5.1312761323148734E-4</v>
       </c>
       <c r="I114">
-        <v>2.241679645958971E-4</v>
+        <v>4.0379419560495413E-4</v>
       </c>
       <c r="J114">
-        <v>1.7142975196442551E-2</v>
+        <v>1.8573933969187609E-2</v>
       </c>
       <c r="K114" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B115">
-        <v>2581.194814745164</v>
+        <v>2578.8262672562792</v>
       </c>
       <c r="C115">
-        <v>2582.438849061873</v>
+        <v>2580.194797090151</v>
       </c>
       <c r="D115">
-        <v>1894.1499178824331</v>
+        <v>1877.851406324321</v>
       </c>
       <c r="E115">
-        <v>1094.673936845993</v>
+        <v>1094.846149868047</v>
       </c>
       <c r="F115">
-        <v>1.5579852891139031E-2</v>
+        <v>1.7853189913417451E-2</v>
       </c>
       <c r="G115">
-        <v>-3.3775813004833469E-2</v>
+        <v>-4.4274845763057173E-2</v>
       </c>
       <c r="H115">
-        <v>-2.5601317377356772E-4</v>
+        <v>-1.7460931153926289E-4</v>
       </c>
       <c r="I115">
-        <v>3.1814890572587163E-5</v>
+        <v>-1.5152405567428781E-3</v>
       </c>
       <c r="J115">
-        <v>2.555384805843762E-2</v>
+        <v>3.826953150794845E-2</v>
       </c>
       <c r="K115" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B116">
-        <v>2581.3763956801631</v>
+        <v>2580.770257156059</v>
       </c>
       <c r="C116">
-        <v>2581.382260754754</v>
+        <v>2580.7259493827769</v>
       </c>
       <c r="D116">
-        <v>1896.9479477800071</v>
+        <v>1878.0241474598099</v>
       </c>
       <c r="E116">
-        <v>1092.5354375088</v>
+        <v>1094.068260559063</v>
       </c>
       <c r="F116">
-        <v>1.4741884112381001E-2</v>
+        <v>1.8395807533926788E-2</v>
       </c>
       <c r="G116">
-        <v>-2.873288879715007E-2</v>
+        <v>-4.5820522271458629E-2</v>
       </c>
       <c r="H116">
-        <v>-5.1312761323148734E-4</v>
+        <v>-3.3931510018392862E-4</v>
       </c>
       <c r="I116">
-        <v>4.0379419560495413E-4</v>
+        <v>-1.5471529985152559E-3</v>
       </c>
       <c r="J116">
-        <v>1.8573933969187609E-2</v>
+        <v>3.8996746265955062E-2</v>
       </c>
       <c r="K116" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -17882,40 +17888,40 @@
         <v>195</v>
       </c>
       <c r="B117">
-        <f>AVERAGE(B107:B116)</f>
+        <f t="shared" ref="B117:J117" si="68">AVERAGE(B107:B116)</f>
         <v>2580.6880314330911</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117" si="96">AVERAGE(C107:C116)</f>
-        <v>2581.0967084794961</v>
+        <f t="shared" si="68"/>
+        <v>2581.0967084794956</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117" si="97">AVERAGE(D107:D116)</f>
+        <f t="shared" si="68"/>
         <v>1891.3251373334156</v>
       </c>
       <c r="E117">
-        <f t="shared" ref="E117" si="98">AVERAGE(E107:E116)</f>
+        <f t="shared" si="68"/>
         <v>1093.8721281891726</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117" si="99">AVERAGE(F107:F116)</f>
-        <v>1.5698069611407205E-2</v>
+        <f t="shared" si="68"/>
+        <v>1.5698069611407201E-2</v>
       </c>
       <c r="G117">
-        <f t="shared" ref="G117" si="100">AVERAGE(G107:G116)</f>
+        <f t="shared" si="68"/>
         <v>-3.4119647677216515E-2</v>
       </c>
       <c r="H117">
-        <f t="shared" ref="H117" si="101">AVERAGE(H107:H116)</f>
+        <f t="shared" si="68"/>
         <v>-3.4714412462126038E-4</v>
       </c>
       <c r="I117">
-        <f t="shared" ref="I117" si="102">AVERAGE(I107:I116)</f>
+        <f t="shared" si="68"/>
         <v>-2.2581410306240891E-4</v>
       </c>
       <c r="J117">
-        <f t="shared" ref="J117" si="103">AVERAGE(J107:J116)</f>
-        <v>2.5673014589834647E-2</v>
+        <f t="shared" si="68"/>
+        <v>2.5673014589834654E-2</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -17923,40 +17929,40 @@
         <v>196</v>
       </c>
       <c r="B118">
-        <f>_xlfn.STDEV.S(B107:B116)</f>
-        <v>0.87594487796666465</v>
+        <f t="shared" ref="B118:J118" si="69">_xlfn.STDEV.S(B107:B116)</f>
+        <v>0.87594487796666476</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:J118" si="104">_xlfn.STDEV.S(C107:C116)</f>
+        <f t="shared" si="69"/>
         <v>1.1247687700514486</v>
       </c>
       <c r="D118">
-        <f t="shared" si="104"/>
+        <f t="shared" si="69"/>
         <v>7.6116622915156622</v>
       </c>
       <c r="E118">
-        <f t="shared" si="104"/>
+        <f t="shared" si="69"/>
         <v>0.8742331598917793</v>
       </c>
       <c r="F118">
-        <f t="shared" si="104"/>
+        <f t="shared" si="69"/>
         <v>1.7633015019718357E-3</v>
       </c>
       <c r="G118">
-        <f t="shared" si="104"/>
-        <v>7.5054921122153333E-3</v>
+        <f t="shared" si="69"/>
+        <v>7.5054921122153593E-3</v>
       </c>
       <c r="H118">
-        <f t="shared" si="104"/>
+        <f t="shared" si="69"/>
         <v>1.0936187134678327E-4</v>
       </c>
       <c r="I118">
-        <f t="shared" si="104"/>
+        <f t="shared" si="69"/>
         <v>7.2795979764747306E-4</v>
       </c>
       <c r="J118">
-        <f t="shared" si="104"/>
-        <v>8.556295374450509E-3</v>
+        <f t="shared" si="69"/>
+        <v>8.5562953744504969E-3</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -17968,36 +17974,36 @@
         <v>3.3942300165597337E-4</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119" si="105">C118/C117</f>
-        <v>4.3577164945285646E-4</v>
+        <f t="shared" ref="C119" si="70">C118/C117</f>
+        <v>4.3577164945285651E-4</v>
       </c>
       <c r="D119">
-        <f t="shared" ref="D119" si="106">D118/D117</f>
+        <f t="shared" ref="D119" si="71">D118/D117</f>
         <v>4.0245128356129001E-3</v>
       </c>
       <c r="E119">
-        <f t="shared" ref="E119" si="107">E118/E117</f>
+        <f t="shared" ref="E119" si="72">E118/E117</f>
         <v>7.9920964924758619E-4</v>
       </c>
       <c r="F119">
-        <f t="shared" ref="F119" si="108">F118/F117</f>
-        <v>0.11232600858710105</v>
+        <f t="shared" ref="F119" si="73">F118/F117</f>
+        <v>0.11232600858710108</v>
       </c>
       <c r="G119">
-        <f t="shared" ref="G119" si="109">G118/G117</f>
-        <v>-0.21997566279757177</v>
+        <f t="shared" ref="G119" si="74">G118/G117</f>
+        <v>-0.21997566279757255</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119" si="110">H118/H117</f>
+        <f t="shared" ref="H119" si="75">H118/H117</f>
         <v>-0.31503304705530816</v>
       </c>
       <c r="I119">
-        <f t="shared" ref="I119" si="111">I118/I117</f>
+        <f t="shared" ref="I119" si="76">I118/I117</f>
         <v>-3.2237127255346167</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119" si="112">J118/J117</f>
-        <v>0.33327973014273188</v>
+        <f t="shared" ref="J119" si="77">J118/J117</f>
+        <v>0.33327973014273127</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -18005,39 +18011,39 @@
         <v>197</v>
       </c>
       <c r="B120">
-        <f>MIN(B107:B116)</f>
+        <f t="shared" ref="B120:J120" si="78">MIN(B107:B116)</f>
         <v>2578.8262672562792</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:J120" si="113">MIN(C107:C116)</f>
+        <f t="shared" si="78"/>
         <v>2578.9996635405118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>1877.851406324321</v>
       </c>
       <c r="E120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>1092.5354375088</v>
       </c>
       <c r="F120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>1.3481967380420149E-2</v>
       </c>
       <c r="G120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-4.5820522271458629E-2</v>
       </c>
       <c r="H120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-5.1312761323148734E-4</v>
       </c>
       <c r="I120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>-1.5471529985152559E-3</v>
       </c>
       <c r="J120">
-        <f t="shared" si="113"/>
+        <f t="shared" si="78"/>
         <v>1.5758328517423731E-2</v>
       </c>
     </row>
@@ -18046,39 +18052,39 @@
         <v>0.25</v>
       </c>
       <c r="B121">
-        <f>_xlfn.PERCENTILE.INC(B107:B116,0.25)</f>
+        <f t="shared" ref="B121:J121" si="79">_xlfn.PERCENTILE.INC(B107:B116,0.25)</f>
         <v>2580.733046410206</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:J121" si="114">_xlfn.PERCENTILE.INC(C107:C116,0.25)</f>
+        <f t="shared" si="79"/>
         <v>2580.6031454525214</v>
       </c>
       <c r="D121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>1889.0373874455063</v>
       </c>
       <c r="E121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>1093.4303936619262</v>
       </c>
       <c r="F121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>1.439177766055592E-2</v>
       </c>
       <c r="G121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>-3.9735944106035051E-2</v>
       </c>
       <c r="H121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>-4.2125054316610993E-4</v>
       </c>
       <c r="I121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>-3.5066174336336993E-4</v>
       </c>
       <c r="J121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="79"/>
         <v>1.8520553019707554E-2</v>
       </c>
     </row>
@@ -18087,39 +18093,39 @@
         <v>0.5</v>
       </c>
       <c r="B122">
-        <f>_xlfn.PERCENTILE.INC(B107:B116,0.5)</f>
+        <f t="shared" ref="B122:J122" si="80">_xlfn.PERCENTILE.INC(B107:B116,0.5)</f>
         <v>2580.9825359506112</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:J122" si="115">_xlfn.PERCENTILE.INC(C107:C116,0.5)</f>
+        <f t="shared" si="80"/>
         <v>2580.8684175365042</v>
       </c>
       <c r="D122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>1894.2834024721556</v>
       </c>
       <c r="E122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>1093.884088797166</v>
       </c>
       <c r="F122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>1.551667335808519E-2</v>
       </c>
       <c r="G122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>-3.374084094478394E-2</v>
       </c>
       <c r="H122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>-3.6004189799301075E-4</v>
       </c>
       <c r="I122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>4.9135091770453429E-5</v>
       </c>
       <c r="J122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="80"/>
         <v>2.5571088726334595E-2</v>
       </c>
     </row>
@@ -18128,39 +18134,39 @@
         <v>0.75</v>
       </c>
       <c r="B123">
-        <f>_xlfn.PERCENTILE.INC(B107:B116,0.75)</f>
+        <f t="shared" ref="B123:J123" si="81">_xlfn.PERCENTILE.INC(B107:B116,0.75)</f>
         <v>2581.2565745278844</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:J123" si="116">_xlfn.PERCENTILE.INC(C107:C116,0.75)</f>
+        <f t="shared" si="81"/>
         <v>2582.1747019850932</v>
       </c>
       <c r="D123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>1896.6508374901694</v>
       </c>
       <c r="E123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>1094.6903648961463</v>
       </c>
       <c r="F123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>1.7262179224704334E-2</v>
       </c>
       <c r="G123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>-2.808315495259342E-2</v>
       </c>
       <c r="H123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>-2.5679133462545883E-4</v>
       </c>
       <c r="I123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>2.2299115413221987E-4</v>
       </c>
       <c r="J123">
-        <f t="shared" si="116"/>
+        <f t="shared" si="81"/>
         <v>3.0950910712741836E-2</v>
       </c>
     </row>
@@ -18169,39 +18175,39 @@
         <v>201</v>
       </c>
       <c r="B124">
-        <f>MAX(B107:B116)</f>
+        <f t="shared" ref="B124:J124" si="82">MAX(B107:B116)</f>
         <v>2581.3763956801631</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:J124" si="117">MAX(C107:C116)</f>
+        <f t="shared" si="82"/>
         <v>2582.4722772182558</v>
       </c>
       <c r="D124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>1897.194863119759</v>
       </c>
       <c r="E124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>1094.846149868047</v>
       </c>
       <c r="F124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>1.8395807533926788E-2</v>
       </c>
       <c r="G124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>-2.5096903483066469E-2</v>
       </c>
       <c r="H124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>-1.7460931153926289E-4</v>
       </c>
       <c r="I124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>4.0379419560495413E-4</v>
       </c>
       <c r="J124">
-        <f t="shared" si="117"/>
+        <f t="shared" si="82"/>
         <v>3.8996746265955062E-2</v>
       </c>
     </row>
@@ -18214,7 +18220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE73B5FF-5612-44A4-A0CD-7CFB0C75A3D9}">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
